--- a/Rep33.Data/ReportsWorksheets/repshablon.xlsx
+++ b/Rep33.Data/ReportsWorksheets/repshablon.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\partner2pool\Rep33service\Rep33.Data\ReportsWorksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,14 +21,75 @@
     <definedName name="IssuedAirCargoAeroflot" localSheetId="1">'Отчет по грузообороту'!$B$8</definedName>
     <definedName name="IssuedAirCargoAeroflot" localSheetId="2">'Сравнение показателей грузооб.'!$B$9</definedName>
     <definedName name="IssuedAirCargoBridge" localSheetId="0">'Отчет за день'!$Q$9</definedName>
+    <definedName name="IssuedAirCargoNord" localSheetId="0">'Отчет за день'!$Q$10</definedName>
+    <definedName name="IssuedAirCargoOther" localSheetId="0">'Отчет за день'!$Q$11</definedName>
+    <definedName name="IssuedAirMailAeroflot" localSheetId="0">'Отчет за день'!$Q$13</definedName>
+    <definedName name="IssuedAirMailBridge" localSheetId="0">'Отчет за день'!$Q$14</definedName>
+    <definedName name="IssuedAirMailNord" localSheetId="0">'Отчет за день'!$Q$15</definedName>
+    <definedName name="IssuedAirMailOther" localSheetId="0">'Отчет за день'!$Q$16</definedName>
+    <definedName name="IssuedDepartureAeroflot" localSheetId="0">'Отчет за день'!$Q$44</definedName>
+    <definedName name="IssuedDepartureBridge" localSheetId="0">'Отчет за день'!$Q$45</definedName>
+    <definedName name="IssuedDepartureNord" localSheetId="0">'Отчет за день'!$Q$46</definedName>
+    <definedName name="IssuedDepartureOther" localSheetId="0">'Отчет за день'!$Q$47</definedName>
+    <definedName name="IssuedMoscowMVLAeroflotGT1" localSheetId="0">'Отчет за день'!$Q$24</definedName>
+    <definedName name="IssuedMoscowMVLAeroflotGT2" localSheetId="0">'Отчет за день'!$Q$29</definedName>
+    <definedName name="IssuedMoscowMVLAirBridgeGT1" localSheetId="0">'Отчет за день'!$Q$25</definedName>
+    <definedName name="IssuedMoscowMVLAirBridgeGT2" localSheetId="0">'Отчет за день'!$Q$30</definedName>
+    <definedName name="IssuedMoscowMVLNordGT1" localSheetId="0">'Отчет за день'!$Q$26</definedName>
+    <definedName name="IssuedMoscowMVLNordGT2" localSheetId="0">'Отчет за день'!$Q$31</definedName>
+    <definedName name="IssuedMoscowMVLOtherGT1" localSheetId="0">'Отчет за день'!$Q$27</definedName>
+    <definedName name="IssuedMoscowMVLOtherGT2" localSheetId="0">'Отчет за день'!$Q$32</definedName>
+    <definedName name="IssuedMoscowVVLAeroflot" localSheetId="0">'Отчет за день'!$Q$19</definedName>
+    <definedName name="IssuedMoscowVVLNord" localSheetId="0">'Отчет за день'!$Q$20</definedName>
+    <definedName name="IssuedMoscowVVLOther" localSheetId="0">'Отчет за день'!$Q$21</definedName>
+    <definedName name="IssuedSVHAeroflotBoard" localSheetId="0">'Отчет за день'!$Q$36</definedName>
+    <definedName name="IssuedSVHAeroflotStock" localSheetId="0">'Отчет за день'!$Q$35</definedName>
+    <definedName name="IssuedSVHBridgeBoard" localSheetId="0">'Отчет за день'!$Q$39</definedName>
+    <definedName name="IssuedSVHBridgeStock" localSheetId="0">'Отчет за день'!$Q$38</definedName>
+    <definedName name="IssuedSVHNordBoard" localSheetId="0">'Отчет за день'!$Q$42</definedName>
+    <definedName name="IssuedSVHNordStock" localSheetId="0">'Отчет за день'!$Q$41</definedName>
+    <definedName name="ReceivedAirCargoAeroflot" localSheetId="0">'Отчет за день'!$Q$51</definedName>
+    <definedName name="ReceivedAirCargoBridge" localSheetId="0">'Отчет за день'!$Q$53</definedName>
+    <definedName name="ReceivedAirCargoNord" localSheetId="0">'Отчет за день'!$Q$54</definedName>
+    <definedName name="ReceivedAirCargoOther" localSheetId="0">'Отчет за день'!$Q$55</definedName>
+    <definedName name="ReceivedAirMailAeroflot" localSheetId="0">'Отчет за день'!$Q$57</definedName>
+    <definedName name="ReceivedAirMailBridge" localSheetId="0">'Отчет за день'!$Q$58</definedName>
+    <definedName name="ReceivedAirMailNord" localSheetId="0">'Отчет за день'!$Q$59</definedName>
+    <definedName name="ReceivedAirMailOther" localSheetId="0">'Отчет за день'!$Q$60</definedName>
+    <definedName name="ReceivedDepartureAeroflot" localSheetId="0">'Отчет за день'!$Q$80</definedName>
+    <definedName name="ReceivedDepartureBridge" localSheetId="0">'Отчет за день'!$Q$81</definedName>
+    <definedName name="ReceivedDepartureNord" localSheetId="0">'Отчет за день'!$Q$82</definedName>
+    <definedName name="ReceivedDepartureOther" localSheetId="0">'Отчет за день'!$Q$83</definedName>
+    <definedName name="ReceivedMoscowMVLAeroflot" localSheetId="0">'Отчет за день'!$Q$67</definedName>
+    <definedName name="ReceivedMoscowMVLNord" localSheetId="0">'Отчет за день'!$Q$68</definedName>
+    <definedName name="ReceivedMoscowMVLOther" localSheetId="0">'Отчет за день'!$Q$69</definedName>
+    <definedName name="ReceivedMoscowVVLAeroflot" localSheetId="0">'Отчет за день'!$Q$63</definedName>
+    <definedName name="ReceivedMoscowVVLNord" localSheetId="0">'Отчет за день'!$Q$64</definedName>
+    <definedName name="ReceivedMoscowVVLOther" localSheetId="0">'Отчет за день'!$Q$65</definedName>
+    <definedName name="ReceivedSVHMVLAeroflot" localSheetId="0">'Отчет за день'!$Q$76</definedName>
+    <definedName name="ReceivedSVHMVLNord" localSheetId="0">'Отчет за день'!$Q$77</definedName>
+    <definedName name="ReceivedSVHMVLOther" localSheetId="0">'Отчет за день'!$Q$78</definedName>
+    <definedName name="ReceivedSVHVVLAeroflot" localSheetId="0">'Отчет за день'!$Q$72</definedName>
+    <definedName name="ReceivedSVHVVLNord" localSheetId="0">'Отчет за день'!$Q$73</definedName>
+    <definedName name="ReceivedSVHVVLOther" localSheetId="0">'Отчет за день'!$Q$74</definedName>
     <definedName name="RepDate" localSheetId="0">'Отчет за день'!$A$2</definedName>
+    <definedName name="RepDate" localSheetId="1">'Отчет по грузообороту'!$A$2</definedName>
+    <definedName name="RepDate" localSheetId="2">'Сравнение показателей грузооб.'!$A$2</definedName>
+    <definedName name="StockExportMVLExport" localSheetId="0">'Отчет за день'!$Q$98</definedName>
+    <definedName name="StockExportMVLTransfer" localSheetId="0">'Отчет за день'!$Q$97</definedName>
+    <definedName name="StockExportVVLExport" localSheetId="0">'Отчет за день'!$Q$95</definedName>
+    <definedName name="StockExportVVLTransfer" localSheetId="0">'Отчет за день'!$Q$94</definedName>
+    <definedName name="StockImportMVLProcess" localSheetId="0">'Отчет за день'!$Q$91</definedName>
+    <definedName name="StockImportMVLReady" localSheetId="0">'Отчет за день'!$Q$90</definedName>
+    <definedName name="StockImportVVLProcess" localSheetId="0">'Отчет за день'!$Q$88</definedName>
+    <definedName name="StockImportVVLReady" localSheetId="0">'Отчет за день'!$Q$87</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="58">
   <si>
     <t>Грузооборот Москва Карго за</t>
   </si>
@@ -282,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -373,6 +434,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -666,10 +730,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q99"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" workbookViewId="0">
+      <selection activeCell="Q98" sqref="Q98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
@@ -685,8 +749,8 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="31">
+        <v>44197</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -709,8 +773,8 @@
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="13">
-        <f>Q5+Q49</f>
-        <v>2230</v>
+        <f>Q5+Q48</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -734,7 +798,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="14">
         <f>Q6+Q17+Q33</f>
-        <v>1192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -758,10 +822,10 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="15">
         <f>Q7+Q12</f>
-        <v>497</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -782,10 +846,10 @@
       <c r="P7" s="11"/>
       <c r="Q7" s="15">
         <f>Q8+Q9+Q10+Q11</f>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -805,10 +869,10 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="16">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -828,10 +892,10 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -851,10 +915,10 @@
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -874,7 +938,7 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="16">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -898,7 +962,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="15">
         <f>Q13+Q14+Q15+Q16</f>
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -921,7 +985,7 @@
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="16">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -990,7 +1054,7 @@
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="16">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1014,10 +1078,10 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="15">
         <f>Q18+Q22</f>
-        <v>377</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
@@ -1038,10 +1102,10 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="15">
         <f>Q19+Q20+Q21</f>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
@@ -1061,10 +1125,10 @@
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="16">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
@@ -1084,10 +1148,10 @@
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="16">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>9</v>
       </c>
@@ -1131,10 +1195,10 @@
       <c r="P22" s="24"/>
       <c r="Q22" s="25">
         <f>Q23+Q28</f>
-        <v>268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>56</v>
       </c>
@@ -1155,10 +1219,10 @@
       <c r="P23" s="24"/>
       <c r="Q23" s="25">
         <f>SUM(Q24:Q27)</f>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>6</v>
       </c>
@@ -1178,10 +1242,10 @@
       <c r="O24" s="28"/>
       <c r="P24" s="28"/>
       <c r="Q24" s="29">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>7</v>
       </c>
@@ -1201,10 +1265,10 @@
       <c r="O25" s="28"/>
       <c r="P25" s="28"/>
       <c r="Q25" s="29">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>8</v>
       </c>
@@ -1224,10 +1288,10 @@
       <c r="O26" s="28"/>
       <c r="P26" s="28"/>
       <c r="Q26" s="29">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>9</v>
       </c>
@@ -1247,10 +1311,10 @@
       <c r="O27" s="28"/>
       <c r="P27" s="28"/>
       <c r="Q27" s="29">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>57</v>
       </c>
@@ -1271,10 +1335,10 @@
       <c r="P28" s="24"/>
       <c r="Q28" s="25">
         <f>SUM(Q29:Q32)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>6</v>
       </c>
@@ -1294,10 +1358,10 @@
       <c r="O29" s="28"/>
       <c r="P29" s="28"/>
       <c r="Q29" s="29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>7</v>
       </c>
@@ -1317,10 +1381,10 @@
       <c r="O30" s="28"/>
       <c r="P30" s="28"/>
       <c r="Q30" s="29">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>8</v>
       </c>
@@ -1340,10 +1404,10 @@
       <c r="O31" s="28"/>
       <c r="P31" s="28"/>
       <c r="Q31" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>9</v>
       </c>
@@ -1363,7 +1427,7 @@
       <c r="O32" s="28"/>
       <c r="P32" s="28"/>
       <c r="Q32" s="29">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1386,11 +1450,11 @@
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="15">
-        <f>Q34+Q38+Q41</f>
-        <v>318</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
+        <f>Q34+Q37+Q40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>15</v>
       </c>
@@ -1410,11 +1474,11 @@
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="15">
-        <f>Q35+Q37</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <f>Q35+Q36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>16</v>
       </c>
@@ -1434,11 +1498,13 @@
       <c r="O35" s="12"/>
       <c r="P35" s="12"/>
       <c r="Q35" s="16">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -1454,58 +1520,60 @@
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
-      <c r="Q36" s="16"/>
-    </row>
-    <row r="37" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="Q36" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="15">
+        <f>Q38+Q39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="15">
-        <f>Q39+Q40</f>
-        <v>258</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -1523,59 +1591,59 @@
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="16">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="16">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="15">
-        <f>Q42+Q43</f>
-        <v>31</v>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="15">
+        <f>Q41+Q42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -1593,59 +1661,59 @@
       <c r="O42" s="12"/>
       <c r="P42" s="12"/>
       <c r="Q42" s="16">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="15">
-        <f>Q45+Q46+Q47+Q48</f>
-        <v>205</v>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="15">
+        <f>Q44+Q45+Q46+Q47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -1663,12 +1731,12 @@
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="16">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -1686,12 +1754,12 @@
       <c r="O46" s="12"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="16">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -1709,59 +1777,60 @@
       <c r="O47" s="12"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="16">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="14">
-        <f>Q50+Q62+Q71</f>
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="14">
+        <f>Q49+Q61+Q70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>22</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="15">
+        <f>Q50+Q56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -1779,37 +1848,36 @@
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="15">
-        <f>Q51+Q57</f>
-        <v>779</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="15">
-        <f>Q52+Q53+Q55+Q56</f>
-        <v>763</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
+        <f>Q51+Q52+Q54+Q55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -1827,12 +1895,13 @@
       <c r="O52" s="12"/>
       <c r="P52" s="12"/>
       <c r="Q52" s="16">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>7</v>
+        <f>Q37+Q53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -1850,13 +1919,12 @@
       <c r="O53" s="12"/>
       <c r="P53" s="12"/>
       <c r="Q53" s="16">
-        <f>Q38+Q54</f>
-        <v>329</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -1874,12 +1942,12 @@
       <c r="O54" s="12"/>
       <c r="P54" s="12"/>
       <c r="Q54" s="16">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -1897,59 +1965,59 @@
       <c r="O55" s="12"/>
       <c r="P55" s="12"/>
       <c r="Q55" s="16">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="16">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="15">
-        <f>Q58+Q59+Q60+Q61</f>
-        <v>16</v>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="15">
+        <f>Q57+Q58+Q59+Q60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -1967,12 +2035,12 @@
       <c r="O58" s="12"/>
       <c r="P58" s="12"/>
       <c r="Q58" s="16">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -1995,7 +2063,7 @@
     </row>
     <row r="60" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -2016,32 +2084,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+    <row r="61" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>24</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="15">
+        <f>Q62+Q66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -2059,37 +2128,36 @@
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
       <c r="Q62" s="15">
-        <f>Q63+Q67</f>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="15">
-        <f>Q64+Q65+Q66</f>
-        <v>202</v>
+        <f>Q63+Q64+Q65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -2107,12 +2175,12 @@
       <c r="O64" s="12"/>
       <c r="P64" s="12"/>
       <c r="Q64" s="16">
-        <v>188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -2130,59 +2198,59 @@
       <c r="O65" s="12"/>
       <c r="P65" s="12"/>
       <c r="Q65" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="15">
-        <f>Q68+Q69+Q70</f>
-        <v>57</v>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="15">
+        <f>Q67+Q68+Q69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -2200,12 +2268,12 @@
       <c r="O68" s="12"/>
       <c r="P68" s="12"/>
       <c r="Q68" s="16">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -2226,32 +2294,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="16">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+    <row r="70" spans="1:17" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>25</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="15">
+        <f>Q71+Q75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -2269,37 +2338,36 @@
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
       <c r="Q71" s="15">
-        <f>Q72+Q76</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="15">
-        <f>Q73+Q74+Q75</f>
+        <f>Q72+Q73+Q74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -2322,7 +2390,7 @@
     </row>
     <row r="74" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -2343,56 +2411,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
+    <row r="75" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="11"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="15">
-        <f>Q77+Q78+Q79</f>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="15">
+        <f>Q76+Q77+Q78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -2415,7 +2483,7 @@
     </row>
     <row r="78" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -2436,56 +2504,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
-      <c r="Q79" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+    <row r="79" spans="1:17" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
-      <c r="L80" s="11"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="11"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="11"/>
-      <c r="Q80" s="15">
-        <f>SUM(Q81:Q84)</f>
-        <v>183</v>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="15">
+        <f>SUM(Q80:Q83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -2503,12 +2571,12 @@
       <c r="O81" s="12"/>
       <c r="P81" s="12"/>
       <c r="Q81" s="16">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -2526,12 +2594,12 @@
       <c r="O82" s="12"/>
       <c r="P82" s="12"/>
       <c r="Q82" s="16">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -2549,59 +2617,60 @@
       <c r="O83" s="12"/>
       <c r="P83" s="12"/>
       <c r="Q83" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="12"/>
-      <c r="P84" s="12"/>
-      <c r="Q84" s="16">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
-      <c r="Q85" s="14">
-        <f>Q86+Q93</f>
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="14">
+        <f>Q85+Q92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>28</v>
+      </c>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="15">
+        <f>Q86+Q89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -2619,37 +2688,36 @@
       <c r="O86" s="11"/>
       <c r="P86" s="11"/>
       <c r="Q86" s="15">
-        <f>Q87+Q90</f>
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="15">
-        <f>Q88+Q89</f>
-        <v>251</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <f>Q87+Q88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -2667,59 +2735,59 @@
       <c r="O88" s="12"/>
       <c r="P88" s="12"/>
       <c r="Q88" s="16">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="12"/>
-      <c r="P89" s="12"/>
-      <c r="Q89" s="16">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-      <c r="L90" s="11"/>
-      <c r="M90" s="11"/>
-      <c r="N90" s="11"/>
-      <c r="O90" s="11"/>
-      <c r="P90" s="11"/>
-      <c r="Q90" s="15">
-        <f>Q91+Q92</f>
-        <v>1293</v>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" s="15">
+        <f>Q90+Q91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -2737,35 +2805,36 @@
       <c r="O91" s="12"/>
       <c r="P91" s="12"/>
       <c r="Q91" s="16">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="12"/>
-      <c r="N92" s="12"/>
-      <c r="O92" s="12"/>
-      <c r="P92" s="12"/>
-      <c r="Q92" s="16">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="15">
+        <f>Q93+Q96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -2783,37 +2852,36 @@
       <c r="O93" s="11"/>
       <c r="P93" s="11"/>
       <c r="Q93" s="15">
-        <f>Q94+Q97</f>
-        <v>494</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11"/>
-      <c r="L94" s="11"/>
-      <c r="M94" s="11"/>
-      <c r="N94" s="11"/>
-      <c r="O94" s="11"/>
-      <c r="P94" s="11"/>
-      <c r="Q94" s="15">
-        <f>Q95+Q96</f>
-        <v>39</v>
+        <f>Q94+Q95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -2831,59 +2899,59 @@
       <c r="O95" s="12"/>
       <c r="P95" s="12"/>
       <c r="Q95" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12"/>
-      <c r="L96" s="12"/>
-      <c r="M96" s="12"/>
-      <c r="N96" s="12"/>
-      <c r="O96" s="12"/>
-      <c r="P96" s="12"/>
-      <c r="Q96" s="16">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11"/>
-      <c r="L97" s="11"/>
-      <c r="M97" s="11"/>
-      <c r="N97" s="11"/>
-      <c r="O97" s="11"/>
-      <c r="P97" s="11"/>
-      <c r="Q97" s="15">
-        <f>Q98+Q99</f>
-        <v>455</v>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" s="15">
+        <f>Q97+Q98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -2901,30 +2969,7 @@
       <c r="O98" s="12"/>
       <c r="P98" s="12"/>
       <c r="Q98" s="16">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="12"/>
-      <c r="O99" s="12"/>
-      <c r="P99" s="12"/>
-      <c r="Q99" s="16">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2942,7 +2987,7 @@
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B8" sqref="B8"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
@@ -3719,7 +3764,7 @@
   <dimension ref="A1:S92"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
@@ -3760,7 +3805,7 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
@@ -3817,20 +3862,20 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="32" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="32" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="13" t="s">
         <v>53</v>
       </c>
@@ -3871,7 +3916,7 @@
       </c>
       <c r="B5" s="13">
         <f>'Отчет за день'!Q4</f>
-        <v>2230</v>
+        <v>0</v>
       </c>
       <c r="C5" s="13">
         <f>C6+C42</f>
@@ -3883,19 +3928,19 @@
       </c>
       <c r="E5" s="13">
         <f t="shared" ref="E5:E36" si="0">B5-C5</f>
-        <v>181</v>
+        <v>-2049</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" ref="F5:F36" si="1">B5-D5</f>
-        <v>151</v>
+        <v>-2079</v>
       </c>
       <c r="G5" s="17">
         <f t="shared" ref="G5:G36" si="2">IFERROR((B5-C5)/C5,0)</f>
-        <v>8.8335773548072233E-2</v>
+        <v>-1</v>
       </c>
       <c r="H5" s="17">
         <f t="shared" ref="H5:H36" si="3">IFERROR((B5-D5)/D5,0)</f>
-        <v>7.263107263107263E-2</v>
+        <v>-1</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" ref="I5:I36" si="4">C5-K5</f>
@@ -3948,7 +3993,7 @@
       </c>
       <c r="B6" s="14">
         <f>'Отчет за день'!Q5</f>
-        <v>1192</v>
+        <v>0</v>
       </c>
       <c r="C6" s="14">
         <f>C7+C18+C27</f>
@@ -3960,19 +4005,19 @@
       </c>
       <c r="E6" s="14">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>-1088</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>-1099</v>
       </c>
       <c r="G6" s="18">
         <f t="shared" si="2"/>
-        <v>9.5588235294117641E-2</v>
+        <v>-1</v>
       </c>
       <c r="H6" s="18">
         <f t="shared" si="3"/>
-        <v>8.4622383985441307E-2</v>
+        <v>-1</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="4"/>
@@ -4025,7 +4070,7 @@
       </c>
       <c r="B7" s="15">
         <f>'Отчет за день'!Q6</f>
-        <v>497</v>
+        <v>0</v>
       </c>
       <c r="C7" s="15">
         <f>C8+C13</f>
@@ -4037,19 +4082,19 @@
       </c>
       <c r="E7" s="15">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>-423</v>
       </c>
       <c r="F7" s="15">
         <f t="shared" si="1"/>
-        <v>-5</v>
+        <v>-502</v>
       </c>
       <c r="G7" s="19">
         <f t="shared" si="2"/>
-        <v>0.17494089834515367</v>
+        <v>-1</v>
       </c>
       <c r="H7" s="19">
         <f t="shared" si="3"/>
-        <v>-9.9601593625498006E-3</v>
+        <v>-1</v>
       </c>
       <c r="I7" s="15">
         <f t="shared" si="4"/>
@@ -4102,7 +4147,7 @@
       </c>
       <c r="B8" s="15">
         <f>'Отчет за день'!Q7</f>
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="C8" s="15">
         <f>C9+C10+C11+C12</f>
@@ -4114,19 +4159,19 @@
       </c>
       <c r="E8" s="15">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>-370</v>
       </c>
       <c r="F8" s="15">
         <f t="shared" si="1"/>
-        <v>-7</v>
+        <v>-467</v>
       </c>
       <c r="G8" s="19">
         <f t="shared" si="2"/>
-        <v>0.24324324324324326</v>
+        <v>-1</v>
       </c>
       <c r="H8" s="19">
         <f t="shared" si="3"/>
-        <v>-1.4989293361884369E-2</v>
+        <v>-1</v>
       </c>
       <c r="I8" s="15">
         <f t="shared" si="4"/>
@@ -4179,7 +4224,7 @@
       </c>
       <c r="B9" s="16">
         <f>'Отчет за день'!Q8</f>
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="C9" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B8:K8)</f>
@@ -4190,19 +4235,19 @@
       </c>
       <c r="E9" s="16">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>-335</v>
       </c>
       <c r="F9" s="16">
         <f t="shared" si="1"/>
-        <v>-16</v>
+        <v>-412</v>
       </c>
       <c r="G9" s="20">
         <f t="shared" si="2"/>
-        <v>0.18208955223880596</v>
+        <v>-1</v>
       </c>
       <c r="H9" s="20">
         <f t="shared" si="3"/>
-        <v>-3.8834951456310676E-2</v>
+        <v>-1</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="4"/>
@@ -4251,7 +4296,7 @@
       </c>
       <c r="B10" s="16">
         <f>'Отчет за день'!Q9</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C10" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B9:K9)</f>
@@ -4262,19 +4307,19 @@
       </c>
       <c r="E10" s="16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>-15</v>
       </c>
       <c r="F10" s="16">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>-26</v>
       </c>
       <c r="G10" s="20">
         <f t="shared" si="2"/>
-        <v>1.6666666666666667</v>
+        <v>-1</v>
       </c>
       <c r="H10" s="20">
         <f t="shared" si="3"/>
-        <v>0.53846153846153844</v>
+        <v>-1</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" si="4"/>
@@ -4323,7 +4368,7 @@
       </c>
       <c r="B11" s="16">
         <f>'Отчет за день'!Q10</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C11" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B10:K10)</f>
@@ -4334,19 +4379,19 @@
       </c>
       <c r="E11" s="16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>-10</v>
       </c>
       <c r="F11" s="16">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="G11" s="20">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="H11" s="20">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" si="4"/>
@@ -4395,7 +4440,7 @@
       </c>
       <c r="B12" s="16">
         <f>'Отчет за день'!Q11</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C12" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B10:K10)</f>
@@ -4406,19 +4451,19 @@
       </c>
       <c r="E12" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F12" s="16">
         <f t="shared" si="1"/>
-        <v>-12</v>
+        <v>-22</v>
       </c>
       <c r="G12" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H12" s="20">
         <f t="shared" si="3"/>
-        <v>-0.54545454545454541</v>
+        <v>-1</v>
       </c>
       <c r="I12" s="16">
         <f t="shared" si="4"/>
@@ -4467,7 +4512,7 @@
       </c>
       <c r="B13" s="15">
         <f>'Отчет за день'!Q12</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C13" s="15">
         <f>C14+C15+C16+C17</f>
@@ -4479,19 +4524,19 @@
       </c>
       <c r="E13" s="15">
         <f t="shared" si="0"/>
-        <v>-16</v>
+        <v>-53</v>
       </c>
       <c r="F13" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>-35</v>
       </c>
       <c r="G13" s="19">
         <f t="shared" si="2"/>
-        <v>-0.30188679245283018</v>
+        <v>-1</v>
       </c>
       <c r="H13" s="19">
         <f t="shared" si="3"/>
-        <v>5.7142857142857141E-2</v>
+        <v>-1</v>
       </c>
       <c r="I13" s="15">
         <f t="shared" si="4"/>
@@ -4544,7 +4589,7 @@
       </c>
       <c r="B14" s="16">
         <f>'Отчет за день'!Q13</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C14" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B13:K13)</f>
@@ -4555,19 +4600,19 @@
       </c>
       <c r="E14" s="16">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>-23</v>
       </c>
       <c r="F14" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="G14" s="20">
         <f t="shared" si="2"/>
-        <v>0.21739130434782608</v>
+        <v>-1</v>
       </c>
       <c r="H14" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I14" s="16">
         <f t="shared" si="4"/>
@@ -4760,7 +4805,7 @@
       </c>
       <c r="B17" s="16">
         <f>'Отчет за день'!Q16</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C17" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B16:K16)</f>
@@ -4771,19 +4816,19 @@
       </c>
       <c r="E17" s="16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="F17" s="16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="G17" s="20">
         <f t="shared" si="2"/>
-        <v>0.2857142857142857</v>
+        <v>-1</v>
       </c>
       <c r="H17" s="20">
         <f t="shared" si="3"/>
-        <v>0.2857142857142857</v>
+        <v>-1</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" si="4"/>
@@ -4832,7 +4877,7 @@
       </c>
       <c r="B18" s="15">
         <f>'Отчет за день'!Q17</f>
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="C18" s="15">
         <f>C19+C23</f>
@@ -4844,19 +4889,19 @@
       </c>
       <c r="E18" s="15">
         <f t="shared" si="0"/>
-        <v>-39</v>
+        <v>-416</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>-292</v>
       </c>
       <c r="G18" s="19">
         <f t="shared" si="2"/>
-        <v>-9.375E-2</v>
+        <v>-1</v>
       </c>
       <c r="H18" s="19">
         <f t="shared" si="3"/>
-        <v>0.2910958904109589</v>
+        <v>-1</v>
       </c>
       <c r="I18" s="15">
         <f t="shared" si="4"/>
@@ -4909,7 +4954,7 @@
       </c>
       <c r="B19" s="15">
         <f>'Отчет за день'!Q18</f>
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="C19" s="15">
         <f>C20+C21+C22</f>
@@ -4921,19 +4966,19 @@
       </c>
       <c r="E19" s="15">
         <f t="shared" si="0"/>
-        <v>-48</v>
+        <v>-157</v>
       </c>
       <c r="F19" s="15">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>-106</v>
       </c>
       <c r="G19" s="19">
         <f t="shared" si="2"/>
-        <v>-0.30573248407643311</v>
+        <v>-1</v>
       </c>
       <c r="H19" s="19">
         <f t="shared" si="3"/>
-        <v>2.8301886792452831E-2</v>
+        <v>-1</v>
       </c>
       <c r="I19" s="15">
         <f t="shared" si="4"/>
@@ -4986,7 +5031,7 @@
       </c>
       <c r="B20" s="16">
         <f>'Отчет за день'!Q19</f>
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="C20" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B19:K19)</f>
@@ -4997,19 +5042,19 @@
       </c>
       <c r="E20" s="16">
         <f t="shared" si="0"/>
-        <v>-60</v>
+        <v>-148</v>
       </c>
       <c r="F20" s="16">
         <f t="shared" si="1"/>
-        <v>-13</v>
+        <v>-101</v>
       </c>
       <c r="G20" s="20">
         <f t="shared" si="2"/>
-        <v>-0.40540540540540543</v>
+        <v>-1</v>
       </c>
       <c r="H20" s="20">
         <f t="shared" si="3"/>
-        <v>-0.12871287128712872</v>
+        <v>-1</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="4"/>
@@ -5058,7 +5103,7 @@
       </c>
       <c r="B21" s="16">
         <f>'Отчет за день'!Q20</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C21" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B20:K20)</f>
@@ -5069,19 +5114,19 @@
       </c>
       <c r="E21" s="16">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>-9</v>
       </c>
       <c r="F21" s="16">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>-5</v>
       </c>
       <c r="G21" s="20">
         <f t="shared" si="2"/>
-        <v>1.3333333333333333</v>
+        <v>-1</v>
       </c>
       <c r="H21" s="20">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="4"/>
@@ -5202,7 +5247,7 @@
       </c>
       <c r="B23" s="15">
         <f>'Отчет за день'!Q22</f>
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="C23" s="15">
         <f>C24+C25+C26</f>
@@ -5214,19 +5259,19 @@
       </c>
       <c r="E23" s="15">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>-259</v>
       </c>
       <c r="F23" s="15">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>-186</v>
       </c>
       <c r="G23" s="19">
         <f t="shared" si="2"/>
-        <v>3.4749034749034749E-2</v>
+        <v>-1</v>
       </c>
       <c r="H23" s="19">
         <f t="shared" si="3"/>
-        <v>0.44086021505376344</v>
+        <v>-1</v>
       </c>
       <c r="I23" s="15">
         <f t="shared" si="4"/>
@@ -5279,7 +5324,7 @@
       </c>
       <c r="B24" s="16">
         <f>'Отчет за день'!Q24</f>
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="C24" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B23:K23)</f>
@@ -5290,19 +5335,19 @@
       </c>
       <c r="E24" s="16">
         <f t="shared" si="0"/>
-        <v>-34</v>
+        <v>-126</v>
       </c>
       <c r="F24" s="16">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>-70</v>
       </c>
       <c r="G24" s="20">
         <f t="shared" si="2"/>
-        <v>-0.26984126984126983</v>
+        <v>-1</v>
       </c>
       <c r="H24" s="20">
         <f t="shared" si="3"/>
-        <v>0.31428571428571428</v>
+        <v>-1</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="4"/>
@@ -5351,7 +5396,7 @@
       </c>
       <c r="B25" s="16">
         <f>'Отчет за день'!Q26</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C25" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B24:K24)</f>
@@ -5362,11 +5407,11 @@
       </c>
       <c r="E25" s="16">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F25" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="G25" s="20">
         <f t="shared" si="2"/>
@@ -5374,7 +5419,7 @@
       </c>
       <c r="H25" s="20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I25" s="16">
         <f t="shared" si="4"/>
@@ -5423,7 +5468,7 @@
       </c>
       <c r="B26" s="16">
         <f>'Отчет за день'!Q27</f>
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="C26" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B25:K25)</f>
@@ -5434,19 +5479,19 @@
       </c>
       <c r="E26" s="16">
         <f t="shared" si="0"/>
-        <v>-55</v>
+        <v>-133</v>
       </c>
       <c r="F26" s="16">
         <f t="shared" si="1"/>
-        <v>-25</v>
+        <v>-103</v>
       </c>
       <c r="G26" s="20">
         <f t="shared" si="2"/>
-        <v>-0.41353383458646614</v>
+        <v>-1</v>
       </c>
       <c r="H26" s="20">
         <f t="shared" si="3"/>
-        <v>-0.24271844660194175</v>
+        <v>-1</v>
       </c>
       <c r="I26" s="16">
         <f t="shared" si="4"/>
@@ -5495,7 +5540,7 @@
       </c>
       <c r="B27" s="15">
         <f>'Отчет за день'!Q33</f>
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="C27" s="15">
         <f>C28+C31</f>
@@ -5507,19 +5552,19 @@
       </c>
       <c r="E27" s="15">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>-249</v>
       </c>
       <c r="F27" s="15">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>-305</v>
       </c>
       <c r="G27" s="19">
         <f t="shared" si="2"/>
-        <v>0.27710843373493976</v>
+        <v>-1</v>
       </c>
       <c r="H27" s="19">
         <f t="shared" si="3"/>
-        <v>4.2622950819672129E-2</v>
+        <v>-1</v>
       </c>
       <c r="I27" s="15">
         <f t="shared" si="4"/>
@@ -5572,7 +5617,7 @@
       </c>
       <c r="B28" s="15">
         <f>'Отчет за день'!Q34</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C28" s="15">
         <f>C29+C30</f>
@@ -5584,19 +5629,19 @@
       </c>
       <c r="E28" s="15">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>-11</v>
       </c>
       <c r="F28" s="15">
         <f t="shared" si="1"/>
-        <v>-85</v>
+        <v>-114</v>
       </c>
       <c r="G28" s="19">
         <f t="shared" si="2"/>
-        <v>1.6363636363636365</v>
+        <v>-1</v>
       </c>
       <c r="H28" s="19">
         <f t="shared" si="3"/>
-        <v>-0.74561403508771928</v>
+        <v>-1</v>
       </c>
       <c r="I28" s="15">
         <f t="shared" si="4"/>
@@ -5646,7 +5691,7 @@
       </c>
       <c r="B29" s="16">
         <f>'Отчет за день'!Q35</f>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C29" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B28:K28)</f>
@@ -5657,19 +5702,19 @@
       </c>
       <c r="E29" s="16">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>-11</v>
       </c>
       <c r="F29" s="16">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>-13</v>
       </c>
       <c r="G29" s="20">
         <f t="shared" si="2"/>
-        <v>1.6363636363636365</v>
+        <v>-1</v>
       </c>
       <c r="H29" s="20">
         <f t="shared" si="3"/>
-        <v>1.2307692307692308</v>
+        <v>-1</v>
       </c>
       <c r="I29" s="16">
         <f t="shared" si="4"/>
@@ -5717,7 +5762,7 @@
         <v>17</v>
       </c>
       <c r="B30" s="16">
-        <f>'Отчет за день'!Q37</f>
+        <f>'Отчет за день'!Q36</f>
         <v>0</v>
       </c>
       <c r="C30" s="16">
@@ -5789,8 +5834,8 @@
         <v>18</v>
       </c>
       <c r="B31" s="15">
-        <f>'Отчет за день'!Q38</f>
-        <v>258</v>
+        <f>'Отчет за день'!Q37</f>
+        <v>0</v>
       </c>
       <c r="C31" s="15">
         <f>C32+C33</f>
@@ -5802,19 +5847,19 @@
       </c>
       <c r="E31" s="15">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>-238</v>
       </c>
       <c r="F31" s="15">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>-191</v>
       </c>
       <c r="G31" s="19">
         <f t="shared" si="2"/>
-        <v>8.4033613445378158E-2</v>
+        <v>-1</v>
       </c>
       <c r="H31" s="19">
         <f t="shared" si="3"/>
-        <v>0.35078534031413611</v>
+        <v>-1</v>
       </c>
       <c r="I31" s="15">
         <f t="shared" si="4"/>
@@ -5866,8 +5911,8 @@
         <v>16</v>
       </c>
       <c r="B32" s="16">
-        <f>'Отчет за день'!Q39</f>
-        <v>17</v>
+        <f>'Отчет за день'!Q38</f>
+        <v>0</v>
       </c>
       <c r="C32" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B31:K31)</f>
@@ -5878,19 +5923,19 @@
       </c>
       <c r="E32" s="16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-16</v>
       </c>
       <c r="F32" s="16">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-18</v>
       </c>
       <c r="G32" s="20">
         <f t="shared" si="2"/>
-        <v>6.25E-2</v>
+        <v>-1</v>
       </c>
       <c r="H32" s="20">
         <f t="shared" si="3"/>
-        <v>-5.5555555555555552E-2</v>
+        <v>-1</v>
       </c>
       <c r="I32" s="16">
         <f t="shared" si="4"/>
@@ -5938,8 +5983,8 @@
         <v>17</v>
       </c>
       <c r="B33" s="16">
-        <f>'Отчет за день'!Q40</f>
-        <v>241</v>
+        <f>'Отчет за день'!Q39</f>
+        <v>0</v>
       </c>
       <c r="C33" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B32:K32)</f>
@@ -5950,19 +5995,19 @@
       </c>
       <c r="E33" s="16">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>-222</v>
       </c>
       <c r="F33" s="16">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>-173</v>
       </c>
       <c r="G33" s="20">
         <f t="shared" si="2"/>
-        <v>8.5585585585585586E-2</v>
+        <v>-1</v>
       </c>
       <c r="H33" s="20">
         <f t="shared" si="3"/>
-        <v>0.39306358381502893</v>
+        <v>-1</v>
       </c>
       <c r="I33" s="16">
         <f t="shared" si="4"/>
@@ -6010,8 +6055,8 @@
         <v>8</v>
       </c>
       <c r="B34" s="15">
-        <f>'Отчет за день'!Q41</f>
-        <v>31</v>
+        <f>'Отчет за день'!Q40</f>
+        <v>0</v>
       </c>
       <c r="C34" s="15">
         <f>C35+C36</f>
@@ -6023,11 +6068,11 @@
       </c>
       <c r="E34" s="15">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F34" s="15">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>-7</v>
       </c>
       <c r="G34" s="19">
         <f t="shared" si="2"/>
@@ -6035,7 +6080,7 @@
       </c>
       <c r="H34" s="19">
         <f t="shared" si="3"/>
-        <v>3.4285714285714284</v>
+        <v>-1</v>
       </c>
       <c r="I34" s="15">
         <f t="shared" si="4"/>
@@ -6087,8 +6132,8 @@
         <v>16</v>
       </c>
       <c r="B35" s="16">
-        <f>'Отчет за день'!Q42</f>
-        <v>31</v>
+        <f>'Отчет за день'!Q41</f>
+        <v>0</v>
       </c>
       <c r="C35" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B34:K34)</f>
@@ -6099,11 +6144,11 @@
       </c>
       <c r="E35" s="16">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F35" s="16">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>-7</v>
       </c>
       <c r="G35" s="20">
         <f t="shared" si="2"/>
@@ -6111,7 +6156,7 @@
       </c>
       <c r="H35" s="20">
         <f t="shared" si="3"/>
-        <v>3.4285714285714284</v>
+        <v>-1</v>
       </c>
       <c r="I35" s="16">
         <f t="shared" si="4"/>
@@ -6159,7 +6204,7 @@
         <v>17</v>
       </c>
       <c r="B36" s="16">
-        <f>'Отчет за день'!Q43</f>
+        <f>'Отчет за день'!Q42</f>
         <v>0</v>
       </c>
       <c r="C36" s="16">
@@ -6231,8 +6276,8 @@
         <v>20</v>
       </c>
       <c r="B37" s="15">
-        <f>'Отчет за день'!Q44</f>
-        <v>205</v>
+        <f>'Отчет за день'!Q43</f>
+        <v>0</v>
       </c>
       <c r="C37" s="15">
         <f>C38+C39+C40+C41</f>
@@ -6244,19 +6289,19 @@
       </c>
       <c r="E37" s="15">
         <f t="shared" ref="E37:E68" si="11">B37-C37</f>
-        <v>14</v>
+        <v>-191</v>
       </c>
       <c r="F37" s="15">
         <f t="shared" ref="F37:F68" si="12">B37-D37</f>
-        <v>-33</v>
+        <v>-238</v>
       </c>
       <c r="G37" s="19">
         <f t="shared" ref="G37:G68" si="13">IFERROR((B37-C37)/C37,0)</f>
-        <v>7.3298429319371722E-2</v>
+        <v>-1</v>
       </c>
       <c r="H37" s="19">
         <f t="shared" ref="H37:H68" si="14">IFERROR((B37-D37)/D37,0)</f>
-        <v>-0.13865546218487396</v>
+        <v>-1</v>
       </c>
       <c r="I37" s="15">
         <f t="shared" ref="I37:I68" si="15">C37-K37</f>
@@ -6308,8 +6353,8 @@
         <v>6</v>
       </c>
       <c r="B38" s="16">
-        <f>'Отчет за день'!Q45</f>
-        <v>144</v>
+        <f>'Отчет за день'!Q44</f>
+        <v>0</v>
       </c>
       <c r="C38" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B37:K37)</f>
@@ -6320,19 +6365,19 @@
       </c>
       <c r="E38" s="16">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>-138</v>
       </c>
       <c r="F38" s="16">
         <f t="shared" si="12"/>
-        <v>-28</v>
+        <v>-172</v>
       </c>
       <c r="G38" s="20">
         <f t="shared" si="13"/>
-        <v>4.3478260869565216E-2</v>
+        <v>-1</v>
       </c>
       <c r="H38" s="20">
         <f t="shared" si="14"/>
-        <v>-0.16279069767441862</v>
+        <v>-1</v>
       </c>
       <c r="I38" s="16">
         <f t="shared" si="15"/>
@@ -6380,8 +6425,8 @@
         <v>7</v>
       </c>
       <c r="B39" s="16">
-        <f>'Отчет за день'!Q46</f>
-        <v>8</v>
+        <f>'Отчет за день'!Q45</f>
+        <v>0</v>
       </c>
       <c r="C39" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B38:K38)</f>
@@ -6392,19 +6437,19 @@
       </c>
       <c r="E39" s="16">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="12"/>
-        <v>-1</v>
+        <v>-9</v>
       </c>
       <c r="G39" s="20">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H39" s="20">
         <f t="shared" si="14"/>
-        <v>-0.1111111111111111</v>
+        <v>-1</v>
       </c>
       <c r="I39" s="16">
         <f t="shared" si="15"/>
@@ -6452,8 +6497,8 @@
         <v>8</v>
       </c>
       <c r="B40" s="16">
-        <f>'Отчет за день'!Q47</f>
-        <v>11</v>
+        <f>'Отчет за день'!Q46</f>
+        <v>0</v>
       </c>
       <c r="C40" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B39:K39)</f>
@@ -6464,19 +6509,19 @@
       </c>
       <c r="E40" s="16">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="F40" s="16">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>-9</v>
       </c>
       <c r="G40" s="20">
         <f t="shared" si="13"/>
-        <v>0.83333333333333337</v>
+        <v>-1</v>
       </c>
       <c r="H40" s="20">
         <f t="shared" si="14"/>
-        <v>0.22222222222222221</v>
+        <v>-1</v>
       </c>
       <c r="I40" s="16">
         <f t="shared" si="15"/>
@@ -6524,8 +6569,8 @@
         <v>9</v>
       </c>
       <c r="B41" s="16">
-        <f>'Отчет за день'!Q48</f>
-        <v>42</v>
+        <f>'Отчет за день'!Q47</f>
+        <v>0</v>
       </c>
       <c r="C41" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B40:K40)</f>
@@ -6536,19 +6581,19 @@
       </c>
       <c r="E41" s="16">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>-39</v>
       </c>
       <c r="F41" s="16">
         <f t="shared" si="12"/>
-        <v>-6</v>
+        <v>-48</v>
       </c>
       <c r="G41" s="20">
         <f t="shared" si="13"/>
-        <v>7.6923076923076927E-2</v>
+        <v>-1</v>
       </c>
       <c r="H41" s="20">
         <f t="shared" si="14"/>
-        <v>-0.125</v>
+        <v>-1</v>
       </c>
       <c r="I41" s="16">
         <f t="shared" si="15"/>
@@ -6596,8 +6641,8 @@
         <v>21</v>
       </c>
       <c r="B42" s="14">
-        <f>'Отчет за день'!Q49</f>
-        <v>1038</v>
+        <f>'Отчет за день'!Q48</f>
+        <v>0</v>
       </c>
       <c r="C42" s="14">
         <f>C43+C55+C64</f>
@@ -6609,19 +6654,19 @@
       </c>
       <c r="E42" s="14">
         <f t="shared" si="11"/>
-        <v>77</v>
+        <v>-961</v>
       </c>
       <c r="F42" s="14">
         <f t="shared" si="12"/>
-        <v>58</v>
+        <v>-980</v>
       </c>
       <c r="G42" s="18">
         <f t="shared" si="13"/>
-        <v>8.0124869927159212E-2</v>
+        <v>-1</v>
       </c>
       <c r="H42" s="18">
         <f t="shared" si="14"/>
-        <v>5.9183673469387757E-2</v>
+        <v>-1</v>
       </c>
       <c r="I42" s="14">
         <f t="shared" si="15"/>
@@ -6673,8 +6718,8 @@
         <v>22</v>
       </c>
       <c r="B43" s="15">
-        <f>'Отчет за день'!Q50</f>
-        <v>779</v>
+        <f>'Отчет за день'!Q49</f>
+        <v>0</v>
       </c>
       <c r="C43" s="15">
         <f>C44+C50</f>
@@ -6686,19 +6731,19 @@
       </c>
       <c r="E43" s="15">
         <f t="shared" si="11"/>
-        <v>58</v>
+        <v>-721</v>
       </c>
       <c r="F43" s="15">
         <f t="shared" si="12"/>
-        <v>82</v>
+        <v>-697</v>
       </c>
       <c r="G43" s="19">
         <f t="shared" si="13"/>
-        <v>8.0443828016643557E-2</v>
+        <v>-1</v>
       </c>
       <c r="H43" s="19">
         <f t="shared" si="14"/>
-        <v>0.11764705882352941</v>
+        <v>-1</v>
       </c>
       <c r="I43" s="15">
         <f t="shared" si="15"/>
@@ -6750,8 +6795,8 @@
         <v>5</v>
       </c>
       <c r="B44" s="15">
-        <f>'Отчет за день'!Q51</f>
-        <v>763</v>
+        <f>'Отчет за день'!Q50</f>
+        <v>0</v>
       </c>
       <c r="C44" s="15">
         <f>C45+C46+C48+C49</f>
@@ -6763,19 +6808,19 @@
       </c>
       <c r="E44" s="15">
         <f t="shared" si="11"/>
-        <v>52</v>
+        <v>-711</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="12"/>
-        <v>94</v>
+        <v>-669</v>
       </c>
       <c r="G44" s="19">
         <f t="shared" si="13"/>
-        <v>7.3136427566807313E-2</v>
+        <v>-1</v>
       </c>
       <c r="H44" s="19">
         <f t="shared" si="14"/>
-        <v>0.14050822122571002</v>
+        <v>-1</v>
       </c>
       <c r="I44" s="15">
         <f t="shared" si="15"/>
@@ -6827,8 +6872,8 @@
         <v>6</v>
       </c>
       <c r="B45" s="16">
-        <f>'Отчет за день'!Q52</f>
-        <v>323</v>
+        <f>'Отчет за день'!Q51</f>
+        <v>0</v>
       </c>
       <c r="C45" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B44:K44)</f>
@@ -6839,19 +6884,19 @@
       </c>
       <c r="E45" s="16">
         <f t="shared" si="11"/>
-        <v>58</v>
+        <v>-265</v>
       </c>
       <c r="F45" s="16">
         <f t="shared" si="12"/>
-        <v>-17</v>
+        <v>-340</v>
       </c>
       <c r="G45" s="20">
         <f t="shared" si="13"/>
-        <v>0.21886792452830189</v>
+        <v>-1</v>
       </c>
       <c r="H45" s="20">
         <f t="shared" si="14"/>
-        <v>-0.05</v>
+        <v>-1</v>
       </c>
       <c r="I45" s="16">
         <f t="shared" si="15"/>
@@ -6899,8 +6944,8 @@
         <v>7</v>
       </c>
       <c r="B46" s="16">
-        <f>'Отчет за день'!Q53</f>
-        <v>329</v>
+        <f>'Отчет за день'!Q52</f>
+        <v>0</v>
       </c>
       <c r="C46" s="16">
         <f>C31+C47</f>
@@ -6912,19 +6957,19 @@
       </c>
       <c r="E46" s="16">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-329</v>
       </c>
       <c r="F46" s="16">
         <f t="shared" si="12"/>
-        <v>70</v>
+        <v>-259</v>
       </c>
       <c r="G46" s="20">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H46" s="20">
         <f t="shared" si="14"/>
-        <v>0.27027027027027029</v>
+        <v>-1</v>
       </c>
       <c r="I46" s="16">
         <f t="shared" si="15"/>
@@ -6976,8 +7021,8 @@
         <v>23</v>
       </c>
       <c r="B47" s="16">
-        <f>'Отчет за день'!Q54</f>
-        <v>71</v>
+        <f>'Отчет за день'!Q53</f>
+        <v>0</v>
       </c>
       <c r="C47" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B46:K46)</f>
@@ -6988,19 +7033,19 @@
       </c>
       <c r="E47" s="16">
         <f t="shared" si="11"/>
-        <v>-20</v>
+        <v>-91</v>
       </c>
       <c r="F47" s="16">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>-68</v>
       </c>
       <c r="G47" s="20">
         <f t="shared" si="13"/>
-        <v>-0.21978021978021978</v>
+        <v>-1</v>
       </c>
       <c r="H47" s="20">
         <f t="shared" si="14"/>
-        <v>4.4117647058823532E-2</v>
+        <v>-1</v>
       </c>
       <c r="I47" s="16">
         <f t="shared" si="15"/>
@@ -7048,8 +7093,8 @@
         <v>8</v>
       </c>
       <c r="B48" s="16">
-        <f>'Отчет за день'!Q55</f>
-        <v>32</v>
+        <f>'Отчет за день'!Q54</f>
+        <v>0</v>
       </c>
       <c r="C48" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B47:K47)</f>
@@ -7060,19 +7105,19 @@
       </c>
       <c r="E48" s="16">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>-13</v>
       </c>
       <c r="F48" s="16">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="G48" s="20">
         <f t="shared" si="13"/>
-        <v>1.4615384615384615</v>
+        <v>-1</v>
       </c>
       <c r="H48" s="20">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I48" s="16">
         <f t="shared" si="15"/>
@@ -7120,8 +7165,8 @@
         <v>9</v>
       </c>
       <c r="B49" s="16">
-        <f>'Отчет за день'!Q56</f>
-        <v>79</v>
+        <f>'Отчет за день'!Q55</f>
+        <v>0</v>
       </c>
       <c r="C49" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B48:K48)</f>
@@ -7132,19 +7177,19 @@
       </c>
       <c r="E49" s="16">
         <f t="shared" si="11"/>
-        <v>-25</v>
+        <v>-104</v>
       </c>
       <c r="F49" s="16">
         <f t="shared" si="12"/>
-        <v>25</v>
+        <v>-54</v>
       </c>
       <c r="G49" s="20">
         <f t="shared" si="13"/>
-        <v>-0.24038461538461539</v>
+        <v>-1</v>
       </c>
       <c r="H49" s="20">
         <f t="shared" si="14"/>
-        <v>0.46296296296296297</v>
+        <v>-1</v>
       </c>
       <c r="I49" s="16">
         <f t="shared" si="15"/>
@@ -7192,8 +7237,8 @@
         <v>10</v>
       </c>
       <c r="B50" s="15">
-        <f>'Отчет за день'!Q57</f>
-        <v>16</v>
+        <f>'Отчет за день'!Q56</f>
+        <v>0</v>
       </c>
       <c r="C50" s="15">
         <f>C51+C52+C53+C54</f>
@@ -7205,19 +7250,19 @@
       </c>
       <c r="E50" s="15">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>-10</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="12"/>
-        <v>-12</v>
+        <v>-28</v>
       </c>
       <c r="G50" s="19">
         <f t="shared" si="13"/>
-        <v>0.6</v>
+        <v>-1</v>
       </c>
       <c r="H50" s="19">
         <f t="shared" si="14"/>
-        <v>-0.42857142857142855</v>
+        <v>-1</v>
       </c>
       <c r="I50" s="15">
         <f t="shared" si="15"/>
@@ -7269,8 +7314,8 @@
         <v>6</v>
       </c>
       <c r="B51" s="16">
-        <f>'Отчет за день'!Q58</f>
-        <v>14</v>
+        <f>'Отчет за день'!Q57</f>
+        <v>0</v>
       </c>
       <c r="C51" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B50:K50)</f>
@@ -7281,19 +7326,19 @@
       </c>
       <c r="E51" s="16">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>-9</v>
       </c>
       <c r="F51" s="16">
         <f t="shared" si="12"/>
-        <v>-4</v>
+        <v>-18</v>
       </c>
       <c r="G51" s="20">
         <f t="shared" si="13"/>
-        <v>0.55555555555555558</v>
+        <v>-1</v>
       </c>
       <c r="H51" s="20">
         <f t="shared" si="14"/>
-        <v>-0.22222222222222221</v>
+        <v>-1</v>
       </c>
       <c r="I51" s="16">
         <f t="shared" si="15"/>
@@ -7341,7 +7386,7 @@
         <v>7</v>
       </c>
       <c r="B52" s="16">
-        <f>'Отчет за день'!Q59</f>
+        <f>'Отчет за день'!Q58</f>
         <v>0</v>
       </c>
       <c r="C52" s="16">
@@ -7413,7 +7458,7 @@
         <v>8</v>
       </c>
       <c r="B53" s="16">
-        <f>'Отчет за день'!Q60</f>
+        <f>'Отчет за день'!Q59</f>
         <v>0</v>
       </c>
       <c r="C53" s="16">
@@ -7485,8 +7530,8 @@
         <v>9</v>
       </c>
       <c r="B54" s="16">
-        <f>'Отчет за день'!Q61</f>
-        <v>2</v>
+        <f>'Отчет за день'!Q60</f>
+        <v>0</v>
       </c>
       <c r="C54" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B53:K53)</f>
@@ -7497,19 +7542,19 @@
       </c>
       <c r="E54" s="16">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F54" s="16">
         <f t="shared" si="12"/>
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="G54" s="20">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H54" s="20">
         <f t="shared" si="14"/>
-        <v>-0.77777777777777779</v>
+        <v>-1</v>
       </c>
       <c r="I54" s="16">
         <f t="shared" si="15"/>
@@ -7557,8 +7602,8 @@
         <v>24</v>
       </c>
       <c r="B55" s="15">
-        <f>'Отчет за день'!Q62</f>
-        <v>259</v>
+        <f>'Отчет за день'!Q61</f>
+        <v>0</v>
       </c>
       <c r="C55" s="15">
         <f>C56+C60</f>
@@ -7570,19 +7615,19 @@
       </c>
       <c r="E55" s="15">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>-240</v>
       </c>
       <c r="F55" s="15">
         <f t="shared" si="12"/>
-        <v>-24</v>
+        <v>-283</v>
       </c>
       <c r="G55" s="19">
         <f t="shared" si="13"/>
-        <v>7.9166666666666663E-2</v>
+        <v>-1</v>
       </c>
       <c r="H55" s="19">
         <f t="shared" si="14"/>
-        <v>-8.4805653710247356E-2</v>
+        <v>-1</v>
       </c>
       <c r="I55" s="15">
         <f t="shared" si="15"/>
@@ -7634,8 +7679,8 @@
         <v>12</v>
       </c>
       <c r="B56" s="15">
-        <f>'Отчет за день'!Q63</f>
-        <v>202</v>
+        <f>'Отчет за день'!Q62</f>
+        <v>0</v>
       </c>
       <c r="C56" s="15">
         <f>C57+C58+C59</f>
@@ -7647,19 +7692,19 @@
       </c>
       <c r="E56" s="15">
         <f t="shared" si="11"/>
-        <v>42</v>
+        <v>-160</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="12"/>
-        <v>-38</v>
+        <v>-240</v>
       </c>
       <c r="G56" s="19">
         <f t="shared" si="13"/>
-        <v>0.26250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="H56" s="19">
         <f t="shared" si="14"/>
-        <v>-0.15833333333333333</v>
+        <v>-1</v>
       </c>
       <c r="I56" s="15">
         <f t="shared" si="15"/>
@@ -7711,8 +7756,8 @@
         <v>6</v>
       </c>
       <c r="B57" s="16">
-        <f>'Отчет за день'!Q64</f>
-        <v>188</v>
+        <f>'Отчет за день'!Q63</f>
+        <v>0</v>
       </c>
       <c r="C57" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B56:K56)</f>
@@ -7723,19 +7768,19 @@
       </c>
       <c r="E57" s="16">
         <f t="shared" si="11"/>
-        <v>42</v>
+        <v>-146</v>
       </c>
       <c r="F57" s="16">
         <f t="shared" si="12"/>
-        <v>-39</v>
+        <v>-227</v>
       </c>
       <c r="G57" s="20">
         <f t="shared" si="13"/>
-        <v>0.28767123287671231</v>
+        <v>-1</v>
       </c>
       <c r="H57" s="20">
         <f t="shared" si="14"/>
-        <v>-0.17180616740088106</v>
+        <v>-1</v>
       </c>
       <c r="I57" s="16">
         <f t="shared" si="15"/>
@@ -7783,8 +7828,8 @@
         <v>8</v>
       </c>
       <c r="B58" s="16">
-        <f>'Отчет за день'!Q65</f>
-        <v>10</v>
+        <f>'Отчет за день'!Q64</f>
+        <v>0</v>
       </c>
       <c r="C58" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B57:K57)</f>
@@ -7795,19 +7840,19 @@
       </c>
       <c r="E58" s="16">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="F58" s="16">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="G58" s="20">
         <f t="shared" si="13"/>
-        <v>0.42857142857142855</v>
+        <v>-1</v>
       </c>
       <c r="H58" s="20">
         <f t="shared" si="14"/>
-        <v>0.42857142857142855</v>
+        <v>-1</v>
       </c>
       <c r="I58" s="16">
         <f t="shared" si="15"/>
@@ -7855,8 +7900,8 @@
         <v>9</v>
       </c>
       <c r="B59" s="16">
-        <f>'Отчет за день'!Q66</f>
-        <v>4</v>
+        <f>'Отчет за день'!Q65</f>
+        <v>0</v>
       </c>
       <c r="C59" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B58:K58)</f>
@@ -7867,19 +7912,19 @@
       </c>
       <c r="E59" s="16">
         <f t="shared" si="11"/>
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="F59" s="16">
         <f t="shared" si="12"/>
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="G59" s="20">
         <f t="shared" si="13"/>
-        <v>-0.42857142857142855</v>
+        <v>-1</v>
       </c>
       <c r="H59" s="20">
         <f t="shared" si="14"/>
-        <v>-0.33333333333333331</v>
+        <v>-1</v>
       </c>
       <c r="I59" s="16">
         <f t="shared" si="15"/>
@@ -7927,8 +7972,8 @@
         <v>13</v>
       </c>
       <c r="B60" s="15">
-        <f>'Отчет за день'!Q67</f>
-        <v>57</v>
+        <f>'Отчет за день'!Q66</f>
+        <v>0</v>
       </c>
       <c r="C60" s="15">
         <f>C61+C62+C63</f>
@@ -7940,19 +7985,19 @@
       </c>
       <c r="E60" s="15">
         <f t="shared" si="11"/>
-        <v>-23</v>
+        <v>-80</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>-43</v>
       </c>
       <c r="G60" s="19">
         <f t="shared" si="13"/>
-        <v>-0.28749999999999998</v>
+        <v>-1</v>
       </c>
       <c r="H60" s="19">
         <f t="shared" si="14"/>
-        <v>0.32558139534883723</v>
+        <v>-1</v>
       </c>
       <c r="I60" s="15">
         <f t="shared" si="15"/>
@@ -8004,8 +8049,8 @@
         <v>6</v>
       </c>
       <c r="B61" s="16">
-        <f>'Отчет за день'!Q68</f>
-        <v>13</v>
+        <f>'Отчет за день'!Q67</f>
+        <v>0</v>
       </c>
       <c r="C61" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B60:K60)</f>
@@ -8016,19 +8061,19 @@
       </c>
       <c r="E61" s="16">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="F61" s="16">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>-11</v>
       </c>
       <c r="G61" s="20">
         <f t="shared" si="13"/>
-        <v>8.3333333333333329E-2</v>
+        <v>-1</v>
       </c>
       <c r="H61" s="20">
         <f t="shared" si="14"/>
-        <v>0.18181818181818182</v>
+        <v>-1</v>
       </c>
       <c r="I61" s="16">
         <f t="shared" si="15"/>
@@ -8076,7 +8121,7 @@
         <v>8</v>
       </c>
       <c r="B62" s="16">
-        <f>'Отчет за день'!Q69</f>
+        <f>'Отчет за день'!Q68</f>
         <v>0</v>
       </c>
       <c r="C62" s="16">
@@ -8148,8 +8193,8 @@
         <v>9</v>
       </c>
       <c r="B63" s="16">
-        <f>'Отчет за день'!Q70</f>
-        <v>44</v>
+        <f>'Отчет за день'!Q69</f>
+        <v>0</v>
       </c>
       <c r="C63" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B62:K62)</f>
@@ -8160,19 +8205,19 @@
       </c>
       <c r="E63" s="16">
         <f t="shared" si="11"/>
-        <v>-24</v>
+        <v>-68</v>
       </c>
       <c r="F63" s="16">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>-32</v>
       </c>
       <c r="G63" s="20">
         <f t="shared" si="13"/>
-        <v>-0.35294117647058826</v>
+        <v>-1</v>
       </c>
       <c r="H63" s="20">
         <f t="shared" si="14"/>
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="I63" s="16">
         <f t="shared" si="15"/>
@@ -8220,7 +8265,7 @@
         <v>37</v>
       </c>
       <c r="B64" s="15">
-        <f>'Отчет за день'!Q71</f>
+        <f>'Отчет за день'!Q70</f>
         <v>0</v>
       </c>
       <c r="C64" s="15">
@@ -8297,7 +8342,7 @@
         <v>12</v>
       </c>
       <c r="B65" s="15">
-        <f>'Отчет за день'!Q72</f>
+        <f>'Отчет за день'!Q71</f>
         <v>0</v>
       </c>
       <c r="C65" s="15">
@@ -8374,7 +8419,7 @@
         <v>6</v>
       </c>
       <c r="B66" s="16">
-        <f>'Отчет за день'!Q73</f>
+        <f>'Отчет за день'!Q72</f>
         <v>0</v>
       </c>
       <c r="C66" s="16">
@@ -8446,7 +8491,7 @@
         <v>8</v>
       </c>
       <c r="B67" s="16">
-        <f>'Отчет за день'!Q74</f>
+        <f>'Отчет за день'!Q73</f>
         <v>0</v>
       </c>
       <c r="C67" s="16">
@@ -8518,7 +8563,7 @@
         <v>9</v>
       </c>
       <c r="B68" s="16">
-        <f>'Отчет за день'!Q75</f>
+        <f>'Отчет за день'!Q74</f>
         <v>0</v>
       </c>
       <c r="C68" s="16">
@@ -8590,7 +8635,7 @@
         <v>13</v>
       </c>
       <c r="B69" s="15">
-        <f>'Отчет за день'!Q76</f>
+        <f>'Отчет за день'!Q75</f>
         <v>0</v>
       </c>
       <c r="C69" s="15">
@@ -8667,7 +8712,7 @@
         <v>6</v>
       </c>
       <c r="B70" s="16">
-        <f>'Отчет за день'!Q77</f>
+        <f>'Отчет за день'!Q76</f>
         <v>0</v>
       </c>
       <c r="C70" s="16">
@@ -8739,7 +8784,7 @@
         <v>8</v>
       </c>
       <c r="B71" s="16">
-        <f>'Отчет за день'!Q78</f>
+        <f>'Отчет за день'!Q77</f>
         <v>0</v>
       </c>
       <c r="C71" s="16">
@@ -8811,7 +8856,7 @@
         <v>9</v>
       </c>
       <c r="B72" s="16">
-        <f>'Отчет за день'!Q79</f>
+        <f>'Отчет за день'!Q78</f>
         <v>0</v>
       </c>
       <c r="C72" s="16">
@@ -8883,8 +8928,8 @@
         <v>26</v>
       </c>
       <c r="B73" s="15">
-        <f>'Отчет за день'!Q80</f>
-        <v>183</v>
+        <f>'Отчет за день'!Q79</f>
+        <v>0</v>
       </c>
       <c r="C73" s="15">
         <f>SUM(C74:C77)</f>
@@ -8896,19 +8941,19 @@
       </c>
       <c r="E73" s="15">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>-170</v>
       </c>
       <c r="F73" s="15">
         <f t="shared" si="22"/>
-        <v>-26</v>
+        <v>-209</v>
       </c>
       <c r="G73" s="19">
         <f t="shared" si="23"/>
-        <v>7.6470588235294124E-2</v>
+        <v>-1</v>
       </c>
       <c r="H73" s="19">
         <f t="shared" si="24"/>
-        <v>-0.12440191387559808</v>
+        <v>-1</v>
       </c>
       <c r="I73" s="15">
         <f t="shared" si="25"/>
@@ -8960,8 +9005,8 @@
         <v>6</v>
       </c>
       <c r="B74" s="16">
-        <f>'Отчет за день'!Q81</f>
-        <v>130</v>
+        <f>'Отчет за день'!Q80</f>
+        <v>0</v>
       </c>
       <c r="C74" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B73:K73)</f>
@@ -8972,19 +9017,19 @@
       </c>
       <c r="E74" s="16">
         <f t="shared" si="21"/>
-        <v>8</v>
+        <v>-122</v>
       </c>
       <c r="F74" s="16">
         <f t="shared" si="22"/>
-        <v>-23</v>
+        <v>-153</v>
       </c>
       <c r="G74" s="20">
         <f t="shared" si="23"/>
-        <v>6.5573770491803282E-2</v>
+        <v>-1</v>
       </c>
       <c r="H74" s="20">
         <f t="shared" si="24"/>
-        <v>-0.15032679738562091</v>
+        <v>-1</v>
       </c>
       <c r="I74" s="16">
         <f t="shared" si="25"/>
@@ -9032,8 +9077,8 @@
         <v>7</v>
       </c>
       <c r="B75" s="16">
-        <f>'Отчет за день'!Q82</f>
-        <v>9</v>
+        <f>'Отчет за день'!Q81</f>
+        <v>0</v>
       </c>
       <c r="C75" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B74:K74)</f>
@@ -9044,19 +9089,19 @@
       </c>
       <c r="E75" s="16">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>-7</v>
       </c>
       <c r="F75" s="16">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="G75" s="20">
         <f t="shared" si="23"/>
-        <v>0.2857142857142857</v>
+        <v>-1</v>
       </c>
       <c r="H75" s="20">
         <f t="shared" si="24"/>
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="I75" s="16">
         <f t="shared" si="25"/>
@@ -9104,8 +9149,8 @@
         <v>8</v>
       </c>
       <c r="B76" s="16">
-        <f>'Отчет за день'!Q83</f>
-        <v>5</v>
+        <f>'Отчет за день'!Q82</f>
+        <v>0</v>
       </c>
       <c r="C76" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B75:K75)</f>
@@ -9116,19 +9161,19 @@
       </c>
       <c r="E76" s="16">
         <f t="shared" si="21"/>
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="F76" s="16">
         <f t="shared" si="22"/>
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="G76" s="20">
         <f t="shared" si="23"/>
-        <v>-0.16666666666666666</v>
+        <v>-1</v>
       </c>
       <c r="H76" s="20">
         <f t="shared" si="24"/>
-        <v>-0.44444444444444442</v>
+        <v>-1</v>
       </c>
       <c r="I76" s="16">
         <f t="shared" si="25"/>
@@ -9176,8 +9221,8 @@
         <v>9</v>
       </c>
       <c r="B77" s="16">
-        <f>'Отчет за день'!Q84</f>
-        <v>39</v>
+        <f>'Отчет за день'!Q83</f>
+        <v>0</v>
       </c>
       <c r="C77" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B76:K76)</f>
@@ -9188,19 +9233,19 @@
       </c>
       <c r="E77" s="16">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>-35</v>
       </c>
       <c r="F77" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-39</v>
       </c>
       <c r="G77" s="20">
         <f t="shared" si="23"/>
-        <v>0.11428571428571428</v>
+        <v>-1</v>
       </c>
       <c r="H77" s="20">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I77" s="16">
         <f t="shared" si="25"/>
@@ -9248,8 +9293,8 @@
         <v>27</v>
       </c>
       <c r="B78" s="14">
-        <f>'Отчет за день'!Q85</f>
-        <v>2038</v>
+        <f>'Отчет за день'!Q84</f>
+        <v>0</v>
       </c>
       <c r="C78" s="14">
         <f>C79+C86</f>
@@ -9261,19 +9306,19 @@
       </c>
       <c r="E78" s="14">
         <f t="shared" si="21"/>
-        <v>-232</v>
+        <v>-2270</v>
       </c>
       <c r="F78" s="14">
         <f t="shared" si="22"/>
-        <v>88</v>
+        <v>-1950</v>
       </c>
       <c r="G78" s="18">
         <f t="shared" si="23"/>
-        <v>-0.10220264317180616</v>
+        <v>-1</v>
       </c>
       <c r="H78" s="18">
         <f t="shared" si="24"/>
-        <v>4.5128205128205132E-2</v>
+        <v>-1</v>
       </c>
       <c r="I78" s="14">
         <f t="shared" si="25"/>
@@ -9325,8 +9370,8 @@
         <v>28</v>
       </c>
       <c r="B79" s="15">
-        <f>'Отчет за день'!Q86</f>
-        <v>1544</v>
+        <f>'Отчет за день'!Q85</f>
+        <v>0</v>
       </c>
       <c r="C79" s="15">
         <f>C80+C83</f>
@@ -9338,19 +9383,19 @@
       </c>
       <c r="E79" s="15">
         <f t="shared" si="21"/>
-        <v>51</v>
+        <v>-1493</v>
       </c>
       <c r="F79" s="15">
         <f t="shared" si="22"/>
-        <v>190</v>
+        <v>-1354</v>
       </c>
       <c r="G79" s="19">
         <f t="shared" si="23"/>
-        <v>3.415941058271936E-2</v>
+        <v>-1</v>
       </c>
       <c r="H79" s="19">
         <f t="shared" si="24"/>
-        <v>0.14032496307237813</v>
+        <v>-1</v>
       </c>
       <c r="I79" s="15">
         <f t="shared" si="25"/>
@@ -9402,8 +9447,8 @@
         <v>12</v>
       </c>
       <c r="B80" s="15">
-        <f>'Отчет за день'!Q87</f>
-        <v>251</v>
+        <f>'Отчет за день'!Q86</f>
+        <v>0</v>
       </c>
       <c r="C80" s="15">
         <f>C81+C82</f>
@@ -9415,19 +9460,19 @@
       </c>
       <c r="E80" s="15">
         <f t="shared" si="21"/>
-        <v>-12</v>
+        <v>-263</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="22"/>
-        <v>46</v>
+        <v>-205</v>
       </c>
       <c r="G80" s="19">
         <f t="shared" si="23"/>
-        <v>-4.5627376425855515E-2</v>
+        <v>-1</v>
       </c>
       <c r="H80" s="19">
         <f t="shared" si="24"/>
-        <v>0.22439024390243903</v>
+        <v>-1</v>
       </c>
       <c r="I80" s="15">
         <f t="shared" si="25"/>
@@ -9479,8 +9524,8 @@
         <v>29</v>
       </c>
       <c r="B81" s="16">
-        <f>'Отчет за день'!Q88</f>
-        <v>99</v>
+        <f>'Отчет за день'!Q87</f>
+        <v>0</v>
       </c>
       <c r="C81" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B80:K80)</f>
@@ -9491,19 +9536,19 @@
       </c>
       <c r="E81" s="16">
         <f t="shared" si="21"/>
-        <v>11</v>
+        <v>-88</v>
       </c>
       <c r="F81" s="16">
         <f t="shared" si="22"/>
-        <v>16</v>
+        <v>-83</v>
       </c>
       <c r="G81" s="20">
         <f t="shared" si="23"/>
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="H81" s="20">
         <f t="shared" si="24"/>
-        <v>0.19277108433734941</v>
+        <v>-1</v>
       </c>
       <c r="I81" s="16">
         <f t="shared" si="25"/>
@@ -9551,8 +9596,8 @@
         <v>30</v>
       </c>
       <c r="B82" s="16">
-        <f>'Отчет за день'!Q89</f>
-        <v>152</v>
+        <f>'Отчет за день'!Q88</f>
+        <v>0</v>
       </c>
       <c r="C82" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B81:K81)</f>
@@ -9563,19 +9608,19 @@
       </c>
       <c r="E82" s="16">
         <f t="shared" si="21"/>
-        <v>-23</v>
+        <v>-175</v>
       </c>
       <c r="F82" s="16">
         <f t="shared" si="22"/>
-        <v>30</v>
+        <v>-122</v>
       </c>
       <c r="G82" s="20">
         <f t="shared" si="23"/>
-        <v>-0.13142857142857142</v>
+        <v>-1</v>
       </c>
       <c r="H82" s="20">
         <f t="shared" si="24"/>
-        <v>0.24590163934426229</v>
+        <v>-1</v>
       </c>
       <c r="I82" s="16">
         <f t="shared" si="25"/>
@@ -9623,8 +9668,8 @@
         <v>13</v>
       </c>
       <c r="B83" s="15">
-        <f>'Отчет за день'!Q90</f>
-        <v>1293</v>
+        <f>'Отчет за день'!Q89</f>
+        <v>0</v>
       </c>
       <c r="C83" s="15">
         <f>C84+C85</f>
@@ -9636,19 +9681,19 @@
       </c>
       <c r="E83" s="15">
         <f t="shared" si="21"/>
-        <v>63</v>
+        <v>-1230</v>
       </c>
       <c r="F83" s="15">
         <f t="shared" si="22"/>
-        <v>144</v>
+        <v>-1149</v>
       </c>
       <c r="G83" s="19">
         <f t="shared" si="23"/>
-        <v>5.1219512195121948E-2</v>
+        <v>-1</v>
       </c>
       <c r="H83" s="19">
         <f t="shared" si="24"/>
-        <v>0.12532637075718014</v>
+        <v>-1</v>
       </c>
       <c r="I83" s="15">
         <f t="shared" si="25"/>
@@ -9700,8 +9745,8 @@
         <v>29</v>
       </c>
       <c r="B84" s="16">
-        <f>'Отчет за день'!Q91</f>
-        <v>1021</v>
+        <f>'Отчет за день'!Q90</f>
+        <v>0</v>
       </c>
       <c r="C84" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B83:K83)</f>
@@ -9712,19 +9757,19 @@
       </c>
       <c r="E84" s="16">
         <f t="shared" si="21"/>
-        <v>39</v>
+        <v>-982</v>
       </c>
       <c r="F84" s="16">
         <f t="shared" si="22"/>
-        <v>153</v>
+        <v>-868</v>
       </c>
       <c r="G84" s="20">
         <f t="shared" si="23"/>
-        <v>3.9714867617107942E-2</v>
+        <v>-1</v>
       </c>
       <c r="H84" s="20">
         <f t="shared" si="24"/>
-        <v>0.17626728110599077</v>
+        <v>-1</v>
       </c>
       <c r="I84" s="16">
         <f t="shared" si="25"/>
@@ -9772,8 +9817,8 @@
         <v>30</v>
       </c>
       <c r="B85" s="16">
-        <f>'Отчет за день'!Q92</f>
-        <v>272</v>
+        <f>'Отчет за день'!Q91</f>
+        <v>0</v>
       </c>
       <c r="C85" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B84:K84)</f>
@@ -9784,19 +9829,19 @@
       </c>
       <c r="E85" s="16">
         <f t="shared" si="21"/>
-        <v>24</v>
+        <v>-248</v>
       </c>
       <c r="F85" s="16">
         <f t="shared" si="22"/>
-        <v>-9</v>
+        <v>-281</v>
       </c>
       <c r="G85" s="20">
         <f t="shared" si="23"/>
-        <v>9.6774193548387094E-2</v>
+        <v>-1</v>
       </c>
       <c r="H85" s="20">
         <f t="shared" si="24"/>
-        <v>-3.2028469750889681E-2</v>
+        <v>-1</v>
       </c>
       <c r="I85" s="16">
         <f t="shared" si="25"/>
@@ -9844,8 +9889,8 @@
         <v>31</v>
       </c>
       <c r="B86" s="15">
-        <f>'Отчет за день'!Q93</f>
-        <v>494</v>
+        <f>'Отчет за день'!Q92</f>
+        <v>0</v>
       </c>
       <c r="C86" s="15">
         <f>C87+C90</f>
@@ -9857,19 +9902,19 @@
       </c>
       <c r="E86" s="15">
         <f t="shared" si="21"/>
-        <v>-283</v>
+        <v>-777</v>
       </c>
       <c r="F86" s="15">
         <f t="shared" si="22"/>
-        <v>-102</v>
+        <v>-596</v>
       </c>
       <c r="G86" s="19">
         <f t="shared" si="23"/>
-        <v>-0.3642213642213642</v>
+        <v>-1</v>
       </c>
       <c r="H86" s="19">
         <f t="shared" si="24"/>
-        <v>-0.17114093959731544</v>
+        <v>-1</v>
       </c>
       <c r="I86" s="15">
         <f t="shared" si="25"/>
@@ -9921,8 +9966,8 @@
         <v>12</v>
       </c>
       <c r="B87" s="15">
-        <f>'Отчет за день'!Q94</f>
-        <v>39</v>
+        <f>'Отчет за день'!Q93</f>
+        <v>0</v>
       </c>
       <c r="C87" s="15">
         <f>C88+C89</f>
@@ -9934,19 +9979,19 @@
       </c>
       <c r="E87" s="15">
         <f t="shared" si="21"/>
-        <v>-1</v>
+        <v>-40</v>
       </c>
       <c r="F87" s="15">
         <f t="shared" si="22"/>
-        <v>-4</v>
+        <v>-43</v>
       </c>
       <c r="G87" s="19">
         <f t="shared" si="23"/>
-        <v>-2.5000000000000001E-2</v>
+        <v>-1</v>
       </c>
       <c r="H87" s="19">
         <f t="shared" si="24"/>
-        <v>-9.3023255813953487E-2</v>
+        <v>-1</v>
       </c>
       <c r="I87" s="15">
         <f t="shared" si="25"/>
@@ -9998,8 +10043,8 @@
         <v>32</v>
       </c>
       <c r="B88" s="16">
-        <f>'Отчет за день'!Q95</f>
-        <v>3</v>
+        <f>'Отчет за день'!Q94</f>
+        <v>0</v>
       </c>
       <c r="C88" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B87:K87)</f>
@@ -10010,19 +10055,19 @@
       </c>
       <c r="E88" s="16">
         <f t="shared" si="21"/>
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="F88" s="16">
         <f t="shared" si="22"/>
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="G88" s="20">
         <f t="shared" si="23"/>
-        <v>-0.4</v>
+        <v>-1</v>
       </c>
       <c r="H88" s="20">
         <f t="shared" si="24"/>
-        <v>-0.5714285714285714</v>
+        <v>-1</v>
       </c>
       <c r="I88" s="16">
         <f t="shared" si="25"/>
@@ -10070,8 +10115,8 @@
         <v>31</v>
       </c>
       <c r="B89" s="16">
-        <f>'Отчет за день'!Q96</f>
-        <v>36</v>
+        <f>'Отчет за день'!Q95</f>
+        <v>0</v>
       </c>
       <c r="C89" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B88:K88)</f>
@@ -10082,19 +10127,19 @@
       </c>
       <c r="E89" s="16">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>-35</v>
       </c>
       <c r="F89" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-36</v>
       </c>
       <c r="G89" s="20">
         <f t="shared" si="23"/>
-        <v>2.8571428571428571E-2</v>
+        <v>-1</v>
       </c>
       <c r="H89" s="20">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I89" s="16">
         <f t="shared" si="25"/>
@@ -10142,8 +10187,8 @@
         <v>13</v>
       </c>
       <c r="B90" s="15">
-        <f>'Отчет за день'!Q97</f>
-        <v>455</v>
+        <f>'Отчет за день'!Q96</f>
+        <v>0</v>
       </c>
       <c r="C90" s="15">
         <f>C91+C92</f>
@@ -10155,19 +10200,19 @@
       </c>
       <c r="E90" s="15">
         <f t="shared" si="21"/>
-        <v>-282</v>
+        <v>-737</v>
       </c>
       <c r="F90" s="15">
         <f t="shared" si="22"/>
-        <v>-98</v>
+        <v>-553</v>
       </c>
       <c r="G90" s="19">
         <f t="shared" si="23"/>
-        <v>-0.38263229308005425</v>
+        <v>-1</v>
       </c>
       <c r="H90" s="19">
         <f t="shared" si="24"/>
-        <v>-0.17721518987341772</v>
+        <v>-1</v>
       </c>
       <c r="I90" s="15">
         <f t="shared" si="25"/>
@@ -10219,8 +10264,8 @@
         <v>32</v>
       </c>
       <c r="B91" s="16">
-        <f>'Отчет за день'!Q98</f>
-        <v>436</v>
+        <f>'Отчет за день'!Q97</f>
+        <v>0</v>
       </c>
       <c r="C91" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B90:K90)</f>
@@ -10231,19 +10276,19 @@
       </c>
       <c r="E91" s="16">
         <f t="shared" si="21"/>
-        <v>-279</v>
+        <v>-715</v>
       </c>
       <c r="F91" s="16">
         <f t="shared" si="22"/>
-        <v>-84</v>
+        <v>-520</v>
       </c>
       <c r="G91" s="20">
         <f t="shared" si="23"/>
-        <v>-0.39020979020979019</v>
+        <v>-1</v>
       </c>
       <c r="H91" s="20">
         <f t="shared" si="24"/>
-        <v>-0.16153846153846155</v>
+        <v>-1</v>
       </c>
       <c r="I91" s="16">
         <f t="shared" si="25"/>
@@ -10291,8 +10336,8 @@
         <v>31</v>
       </c>
       <c r="B92" s="16">
-        <f>'Отчет за день'!Q99</f>
-        <v>19</v>
+        <f>'Отчет за день'!Q98</f>
+        <v>0</v>
       </c>
       <c r="C92" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B91:K91)</f>
@@ -10303,19 +10348,19 @@
       </c>
       <c r="E92" s="16">
         <f t="shared" si="21"/>
-        <v>-3</v>
+        <v>-22</v>
       </c>
       <c r="F92" s="16">
         <f t="shared" si="22"/>
-        <v>-14</v>
+        <v>-33</v>
       </c>
       <c r="G92" s="20">
         <f t="shared" si="23"/>
-        <v>-0.13636363636363635</v>
+        <v>-1</v>
       </c>
       <c r="H92" s="20">
         <f t="shared" si="24"/>
-        <v>-0.42424242424242425</v>
+        <v>-1</v>
       </c>
       <c r="I92" s="16">
         <f t="shared" si="25"/>

--- a/Rep33.Data/ReportsWorksheets/repshablon.xlsx
+++ b/Rep33.Data/ReportsWorksheets/repshablon.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет за день" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,19 @@
     <sheet name="Сравнение показателей грузооб." sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="calc1" localSheetId="1">'Отчет по грузообороту'!$B$4</definedName>
+    <definedName name="calc2" localSheetId="1">'Отчет по грузообороту'!$B$5</definedName>
+    <definedName name="calc3" localSheetId="1">'Отчет по грузообороту'!$B$6</definedName>
+    <definedName name="calc4" localSheetId="1">'Отчет по грузообороту'!$B$7</definedName>
     <definedName name="IssuedAirCargoAeroflot" localSheetId="0">'Отчет за день'!$Q$8</definedName>
     <definedName name="IssuedAirCargoAeroflot" localSheetId="1">'Отчет по грузообороту'!$B$8</definedName>
     <definedName name="IssuedAirCargoAeroflot" localSheetId="2">'Сравнение показателей грузооб.'!$B$9</definedName>
     <definedName name="IssuedAirCargoBridge" localSheetId="0">'Отчет за день'!$Q$9</definedName>
+    <definedName name="IssuedAirCargoBridge" localSheetId="1">'Отчет по грузообороту'!$B$9</definedName>
     <definedName name="IssuedAirCargoNord" localSheetId="0">'Отчет за день'!$Q$10</definedName>
+    <definedName name="IssuedAirCargoNord" localSheetId="1">'Отчет по грузообороту'!$B$10</definedName>
     <definedName name="IssuedAirCargoOther" localSheetId="0">'Отчет за день'!$Q$11</definedName>
+    <definedName name="IssuedAirCargoOther" localSheetId="1">'Отчет по грузообороту'!$B$11</definedName>
     <definedName name="IssuedAirMailAeroflot" localSheetId="0">'Отчет за день'!$Q$13</definedName>
     <definedName name="IssuedAirMailBridge" localSheetId="0">'Отчет за день'!$Q$14</definedName>
     <definedName name="IssuedAirMailNord" localSheetId="0">'Отчет за день'!$Q$15</definedName>
@@ -732,7 +739,7 @@
   </sheetPr>
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="80" workbookViewId="0">
       <selection activeCell="Q98" sqref="Q98"/>
     </sheetView>
   </sheetViews>
@@ -2985,9 +2992,9 @@
   </sheetPr>
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
@@ -3021,7 +3028,7 @@
       </c>
       <c r="B4" s="13">
         <f t="shared" ref="B4" si="0">B5+B41</f>
-        <v>2032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3030,7 +3037,7 @@
       </c>
       <c r="B5" s="14">
         <f t="shared" ref="B5" si="1">B6+B17+B26</f>
-        <v>1071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3039,7 +3046,7 @@
       </c>
       <c r="B6" s="15">
         <f t="shared" ref="B6" si="2">B7+B12</f>
-        <v>406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -3048,7 +3055,7 @@
       </c>
       <c r="B7" s="15">
         <f t="shared" ref="B7" si="3">B8+B9+B10+B11</f>
-        <v>376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -3056,7 +3063,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="16">
-        <v>335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -3064,7 +3071,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="16">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -3072,7 +3079,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="16">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -3080,7 +3087,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="16">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -3089,7 +3096,7 @@
       </c>
       <c r="B12" s="15">
         <f t="shared" ref="B12" si="4">B13+B14+B15+B16</f>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -3097,7 +3104,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="16">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -3121,7 +3128,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="16">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3130,35 +3137,35 @@
       </c>
       <c r="B17" s="15">
         <f t="shared" ref="B17" si="5">B18+B22</f>
-        <v>416</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="15">
         <f t="shared" ref="B18" si="6">B19+B20+B21</f>
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="16">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>9</v>
       </c>
@@ -3172,7 +3179,7 @@
       </c>
       <c r="B22" s="15">
         <f t="shared" ref="B22" si="7">B23+B24+B25</f>
-        <v>259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -3180,7 +3187,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="16">
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -3196,7 +3203,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="16">
-        <v>133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3205,27 +3212,27 @@
       </c>
       <c r="B26" s="15">
         <f t="shared" ref="B26" si="8">B27+B30+B33</f>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="15">
         <f t="shared" ref="B27" si="9">B28+B29</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>17</v>
       </c>
@@ -3233,32 +3240,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="15">
         <f t="shared" ref="B30" si="10">B31+B32</f>
-        <v>238</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="16">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>19</v>
       </c>
@@ -3267,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>16</v>
       </c>
@@ -3275,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>17</v>
       </c>
@@ -3283,45 +3290,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="15">
         <f t="shared" ref="B36" si="12">B37+B38+B39+B40</f>
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="16">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="16">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3330,7 +3337,7 @@
       </c>
       <c r="B41" s="14">
         <f t="shared" ref="B41" si="13">B42+B54+B63</f>
-        <v>961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3339,7 +3346,7 @@
       </c>
       <c r="B42" s="15">
         <f t="shared" ref="B42" si="14">B43+B49</f>
-        <v>721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -3348,7 +3355,7 @@
       </c>
       <c r="B43" s="15">
         <f t="shared" ref="B43" si="15">B44+B45+B47+B48</f>
-        <v>711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -3356,24 +3363,24 @@
         <v>6</v>
       </c>
       <c r="B44" s="16">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B45" s="16">
         <f t="shared" ref="B45" si="16">B30+B46</f>
-        <v>329</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B46" s="16">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -3381,7 +3388,7 @@
         <v>8</v>
       </c>
       <c r="B47" s="16">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -3389,7 +3396,7 @@
         <v>9</v>
       </c>
       <c r="B48" s="16">
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -3398,7 +3405,7 @@
       </c>
       <c r="B49" s="15">
         <f t="shared" ref="B49" si="17">B50+B51+B52+B53</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -3406,7 +3413,7 @@
         <v>6</v>
       </c>
       <c r="B50" s="16">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -3430,7 +3437,7 @@
         <v>9</v>
       </c>
       <c r="B53" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3439,60 +3446,60 @@
       </c>
       <c r="B54" s="15">
         <f t="shared" ref="B54" si="18">B55+B59</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B55" s="15">
         <f t="shared" ref="B55" si="19">B56+B57+B58</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B56" s="16">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B57" s="16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B58" s="16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="15">
         <f t="shared" ref="B59" si="20">B60+B61+B62</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B60" s="16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>8</v>
       </c>
@@ -3500,15 +3507,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B62" s="16">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>37</v>
       </c>
@@ -3517,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>12</v>
       </c>
@@ -3526,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>6</v>
       </c>
@@ -3534,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>8</v>
       </c>
@@ -3542,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>9</v>
       </c>
@@ -3550,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>13</v>
       </c>
@@ -3559,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>6</v>
       </c>
@@ -3567,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>8</v>
       </c>
@@ -3575,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>9</v>
       </c>
@@ -3583,45 +3590,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B72" s="15">
         <f t="shared" ref="B72" si="24">SUM(B73:B76)</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B73" s="16">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B74" s="16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B75" s="16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B76" s="16">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -3630,7 +3637,7 @@
       </c>
       <c r="B77" s="14">
         <f t="shared" ref="B77" si="25">B78+B85</f>
-        <v>2270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3639,57 +3646,57 @@
       </c>
       <c r="B78" s="15">
         <f t="shared" ref="B78" si="26">B79+B82</f>
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B79" s="15">
         <f t="shared" ref="B79" si="27">B80+B81</f>
-        <v>263</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B80" s="16">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B81" s="16">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B82" s="15">
         <f t="shared" ref="B82" si="28">B83+B84</f>
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B83" s="16">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B84" s="16">
-        <v>248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3698,57 +3705,57 @@
       </c>
       <c r="B85" s="15">
         <f t="shared" ref="B85" si="29">B86+B89</f>
-        <v>777</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B86" s="15">
         <f t="shared" ref="B86" si="30">B87+B88</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B87" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B88" s="16">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B89" s="15">
         <f t="shared" ref="B89" si="31">B90+B91</f>
-        <v>737</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B90" s="16">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B91" s="16">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3920,7 +3927,7 @@
       </c>
       <c r="C5" s="13">
         <f>C6+C42</f>
-        <v>2049</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13">
         <f>D6+D42</f>
@@ -3928,7 +3935,7 @@
       </c>
       <c r="E5" s="13">
         <f t="shared" ref="E5:E36" si="0">B5-C5</f>
-        <v>-2049</v>
+        <v>0</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" ref="F5:F36" si="1">B5-D5</f>
@@ -3936,7 +3943,7 @@
       </c>
       <c r="G5" s="17">
         <f t="shared" ref="G5:G36" si="2">IFERROR((B5-C5)/C5,0)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="17">
         <f t="shared" ref="H5:H36" si="3">IFERROR((B5-D5)/D5,0)</f>
@@ -3944,11 +3951,11 @@
       </c>
       <c r="I5" s="13">
         <f t="shared" ref="I5:I36" si="4">C5-K5</f>
-        <v>216</v>
+        <v>-1833</v>
       </c>
       <c r="J5" s="17">
         <f t="shared" ref="J5:J36" si="5">IFERROR((C5-K5)/K5,0)</f>
-        <v>0.11783960720130933</v>
+        <v>-1</v>
       </c>
       <c r="K5" s="13">
         <f>K6+K42</f>
@@ -3960,19 +3967,19 @@
       </c>
       <c r="M5" s="17">
         <f t="shared" ref="M5:M43" si="6">IFERROR((C5-Q5)/Q5,0)</f>
-        <v>0.20742486741308191</v>
+        <v>-1</v>
       </c>
       <c r="N5" s="13">
         <f t="shared" ref="N5:N36" si="7">P5-L5</f>
-        <v>-33566</v>
+        <v>-35598</v>
       </c>
       <c r="O5" s="17">
         <f t="shared" ref="O5:O36" si="8">IFERROR((P5-L5)/L5,0)</f>
-        <v>-0.94291814146862185</v>
+        <v>-1</v>
       </c>
       <c r="P5" s="13">
         <f>P6+P42</f>
-        <v>2032</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="13">
         <f>Q6+Q42</f>
@@ -3984,7 +3991,7 @@
       </c>
       <c r="S5" s="17">
         <f t="shared" ref="S5:S22" si="9">IFERROR((P5-R5)/R5,0)</f>
-        <v>-0.95305424637279368</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -3997,7 +4004,7 @@
       </c>
       <c r="C6" s="14">
         <f>C7+C18+C27</f>
-        <v>1088</v>
+        <v>0</v>
       </c>
       <c r="D6" s="14">
         <f>D7+D18+D27</f>
@@ -4005,7 +4012,7 @@
       </c>
       <c r="E6" s="14">
         <f t="shared" si="0"/>
-        <v>-1088</v>
+        <v>0</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="1"/>
@@ -4013,7 +4020,7 @@
       </c>
       <c r="G6" s="18">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="18">
         <f t="shared" si="3"/>
@@ -4021,11 +4028,11 @@
       </c>
       <c r="I6" s="14">
         <f t="shared" si="4"/>
-        <v>248</v>
+        <v>-840</v>
       </c>
       <c r="J6" s="18">
         <f t="shared" si="5"/>
-        <v>0.29523809523809524</v>
+        <v>-1</v>
       </c>
       <c r="K6" s="14">
         <f>K7+K18+K27</f>
@@ -4037,19 +4044,19 @@
       </c>
       <c r="M6" s="18">
         <f t="shared" si="6"/>
-        <v>0.22799097065462753</v>
+        <v>-1</v>
       </c>
       <c r="N6" s="14">
         <f t="shared" si="7"/>
-        <v>-16935</v>
+        <v>-18006</v>
       </c>
       <c r="O6" s="18">
         <f t="shared" si="8"/>
-        <v>-0.94051982672442525</v>
+        <v>-1</v>
       </c>
       <c r="P6" s="14">
         <f>P7+P18+P27</f>
-        <v>1071</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="14">
         <f>Q7+Q18+Q27</f>
@@ -4061,7 +4068,7 @@
       </c>
       <c r="S6" s="18">
         <f t="shared" si="9"/>
-        <v>-0.93901952969310487</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4074,7 +4081,7 @@
       </c>
       <c r="C7" s="15">
         <f>C8+C13</f>
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="D7" s="15">
         <f>D8+D13</f>
@@ -4082,7 +4089,7 @@
       </c>
       <c r="E7" s="15">
         <f t="shared" si="0"/>
-        <v>-423</v>
+        <v>0</v>
       </c>
       <c r="F7" s="15">
         <f t="shared" si="1"/>
@@ -4090,7 +4097,7 @@
       </c>
       <c r="G7" s="19">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="19">
         <f t="shared" si="3"/>
@@ -4098,11 +4105,11 @@
       </c>
       <c r="I7" s="15">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>-418</v>
       </c>
       <c r="J7" s="19">
         <f t="shared" si="5"/>
-        <v>1.1961722488038277E-2</v>
+        <v>-1</v>
       </c>
       <c r="K7" s="15">
         <f>K8+K13</f>
@@ -4114,19 +4121,19 @@
       </c>
       <c r="M7" s="19">
         <f t="shared" si="6"/>
-        <v>-2.3584905660377358E-3</v>
+        <v>-1</v>
       </c>
       <c r="N7" s="15">
         <f t="shared" si="7"/>
-        <v>-8449</v>
+        <v>-8855</v>
       </c>
       <c r="O7" s="19">
         <f t="shared" si="8"/>
-        <v>-0.95415019762845854</v>
+        <v>-1</v>
       </c>
       <c r="P7" s="15">
         <f>P8+P13</f>
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="15">
         <f>Q8+Q13</f>
@@ -4138,7 +4145,7 @@
       </c>
       <c r="S7" s="19">
         <f t="shared" si="9"/>
-        <v>-0.95522717247463607</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:19" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4151,7 +4158,7 @@
       </c>
       <c r="C8" s="15">
         <f>C9+C10+C11+C12</f>
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="D8" s="15">
         <f>D9+D10+D11+D12</f>
@@ -4159,7 +4166,7 @@
       </c>
       <c r="E8" s="15">
         <f t="shared" si="0"/>
-        <v>-370</v>
+        <v>0</v>
       </c>
       <c r="F8" s="15">
         <f t="shared" si="1"/>
@@ -4167,7 +4174,7 @@
       </c>
       <c r="G8" s="19">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="19">
         <f t="shared" si="3"/>
@@ -4175,11 +4182,11 @@
       </c>
       <c r="I8" s="15">
         <f t="shared" si="4"/>
-        <v>-16</v>
+        <v>-386</v>
       </c>
       <c r="J8" s="19">
         <f t="shared" si="5"/>
-        <v>-4.145077720207254E-2</v>
+        <v>-1</v>
       </c>
       <c r="K8" s="15">
         <f>K9+K10+K11+K12</f>
@@ -4191,19 +4198,19 @@
       </c>
       <c r="M8" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N8" s="15">
         <f t="shared" si="7"/>
-        <v>-7759</v>
+        <v>-8135</v>
       </c>
       <c r="O8" s="19">
         <f t="shared" si="8"/>
-        <v>-0.95377996312231095</v>
+        <v>-1</v>
       </c>
       <c r="P8" s="15">
         <f>P9+P10+P11+P12</f>
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="15">
         <f>Q9+Q10+Q11+Q12</f>
@@ -4215,7 +4222,7 @@
       </c>
       <c r="S8" s="19">
         <f t="shared" si="9"/>
-        <v>-0.95239301088883266</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -4228,14 +4235,14 @@
       </c>
       <c r="C9" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B8:K8)</f>
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="D9" s="16">
         <v>412</v>
       </c>
       <c r="E9" s="16">
         <f t="shared" si="0"/>
-        <v>-335</v>
+        <v>0</v>
       </c>
       <c r="F9" s="16">
         <f t="shared" si="1"/>
@@ -4243,7 +4250,7 @@
       </c>
       <c r="G9" s="20">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="20">
         <f t="shared" si="3"/>
@@ -4251,11 +4258,11 @@
       </c>
       <c r="I9" s="16">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>-320</v>
       </c>
       <c r="J9" s="20">
         <f t="shared" si="5"/>
-        <v>4.6875E-2</v>
+        <v>-1</v>
       </c>
       <c r="K9" s="16">
         <v>320</v>
@@ -4265,19 +4272,19 @@
       </c>
       <c r="M9" s="20">
         <f t="shared" si="6"/>
-        <v>-4.0114613180515762E-2</v>
+        <v>-1</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" si="7"/>
-        <v>-6553</v>
+        <v>-6888</v>
       </c>
       <c r="O9" s="20">
         <f t="shared" si="8"/>
-        <v>-0.95136469221835074</v>
+        <v>-1</v>
       </c>
       <c r="P9" s="16">
         <f>SUM('Отчет по грузообороту'!B8:K8)</f>
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="16">
         <v>349</v>
@@ -4287,7 +4294,7 @@
       </c>
       <c r="S9" s="20">
         <f t="shared" si="9"/>
-        <v>-0.95508781337980964</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -4300,14 +4307,14 @@
       </c>
       <c r="C10" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B9:K9)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D10" s="16">
         <v>26</v>
       </c>
       <c r="E10" s="16">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="F10" s="16">
         <f t="shared" si="1"/>
@@ -4315,7 +4322,7 @@
       </c>
       <c r="G10" s="20">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="20">
         <f t="shared" si="3"/>
@@ -4323,11 +4330,11 @@
       </c>
       <c r="I10" s="16">
         <f t="shared" si="4"/>
-        <v>-11</v>
+        <v>-26</v>
       </c>
       <c r="J10" s="20">
         <f t="shared" si="5"/>
-        <v>-0.42307692307692307</v>
+        <v>-1</v>
       </c>
       <c r="K10" s="16">
         <v>26</v>
@@ -4337,19 +4344,19 @@
       </c>
       <c r="M10" s="20">
         <f t="shared" si="6"/>
-        <v>-0.21052631578947367</v>
+        <v>-1</v>
       </c>
       <c r="N10" s="16">
         <f t="shared" si="7"/>
-        <v>-423</v>
+        <v>-438</v>
       </c>
       <c r="O10" s="20">
         <f t="shared" si="8"/>
-        <v>-0.96575342465753422</v>
+        <v>-1</v>
       </c>
       <c r="P10" s="16">
         <f>SUM('Отчет по грузообороту'!B9:K9)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="16">
         <v>19</v>
@@ -4359,7 +4366,7 @@
       </c>
       <c r="S10" s="20">
         <f t="shared" si="9"/>
-        <v>-0.96359223300970875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -4372,14 +4379,14 @@
       </c>
       <c r="C11" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B10:K10)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D11" s="16">
         <v>7</v>
       </c>
       <c r="E11" s="16">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F11" s="16">
         <f t="shared" si="1"/>
@@ -4387,7 +4394,7 @@
       </c>
       <c r="G11" s="20">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="20">
         <f t="shared" si="3"/>
@@ -4395,11 +4402,11 @@
       </c>
       <c r="I11" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J11" s="20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K11" s="16">
         <v>10</v>
@@ -4413,15 +4420,15 @@
       </c>
       <c r="N11" s="16">
         <f t="shared" si="7"/>
-        <v>-239</v>
+        <v>-249</v>
       </c>
       <c r="O11" s="20">
         <f t="shared" si="8"/>
-        <v>-0.95983935742971882</v>
+        <v>-1</v>
       </c>
       <c r="P11" s="16">
         <f>SUM('Отчет по грузообороту'!B10:K10)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="16">
         <v>0</v>
@@ -4444,14 +4451,14 @@
       </c>
       <c r="C12" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B10:K10)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D12" s="16">
         <v>22</v>
       </c>
       <c r="E12" s="16">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F12" s="16">
         <f t="shared" si="1"/>
@@ -4459,7 +4466,7 @@
       </c>
       <c r="G12" s="20">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="20">
         <f t="shared" si="3"/>
@@ -4467,11 +4474,11 @@
       </c>
       <c r="I12" s="16">
         <f t="shared" si="4"/>
-        <v>-20</v>
+        <v>-30</v>
       </c>
       <c r="J12" s="20">
         <f t="shared" si="5"/>
-        <v>-0.66666666666666663</v>
+        <v>-1</v>
       </c>
       <c r="K12" s="16">
         <v>30</v>
@@ -4481,19 +4488,19 @@
       </c>
       <c r="M12" s="20">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="N12" s="16">
         <f t="shared" si="7"/>
-        <v>-544</v>
+        <v>-560</v>
       </c>
       <c r="O12" s="20">
         <f t="shared" si="8"/>
-        <v>-0.97142857142857142</v>
+        <v>-1</v>
       </c>
       <c r="P12" s="16">
         <f>SUM('Отчет по грузообороту'!B11:K11)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="16">
         <v>2</v>
@@ -4503,7 +4510,7 @@
       </c>
       <c r="S12" s="20">
         <f t="shared" si="9"/>
-        <v>-0.40740740740740738</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:19" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -4516,7 +4523,7 @@
       </c>
       <c r="C13" s="15">
         <f>C14+C15+C16+C17</f>
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D13" s="15">
         <f>D14+D15+D16+D17</f>
@@ -4524,7 +4531,7 @@
       </c>
       <c r="E13" s="15">
         <f t="shared" si="0"/>
-        <v>-53</v>
+        <v>0</v>
       </c>
       <c r="F13" s="15">
         <f t="shared" si="1"/>
@@ -4532,7 +4539,7 @@
       </c>
       <c r="G13" s="19">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="19">
         <f t="shared" si="3"/>
@@ -4540,11 +4547,11 @@
       </c>
       <c r="I13" s="15">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>-32</v>
       </c>
       <c r="J13" s="19">
         <f t="shared" si="5"/>
-        <v>0.65625</v>
+        <v>-1</v>
       </c>
       <c r="K13" s="15">
         <f>K14+K15+K16+K17</f>
@@ -4556,19 +4563,19 @@
       </c>
       <c r="M13" s="19">
         <f t="shared" si="6"/>
-        <v>-1.8518518518518517E-2</v>
+        <v>-1</v>
       </c>
       <c r="N13" s="15">
         <f t="shared" si="7"/>
-        <v>-690</v>
+        <v>-720</v>
       </c>
       <c r="O13" s="19">
         <f t="shared" si="8"/>
-        <v>-0.95833333333333337</v>
+        <v>-1</v>
       </c>
       <c r="P13" s="15">
         <f>P14+P15+P16+P17</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="15">
         <f>Q14+Q15+Q16+Q17</f>
@@ -4580,7 +4587,7 @@
       </c>
       <c r="S13" s="19">
         <f t="shared" si="9"/>
-        <v>-0.97435897435897434</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -4593,14 +4600,14 @@
       </c>
       <c r="C14" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B13:K13)</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D14" s="16">
         <v>28</v>
       </c>
       <c r="E14" s="16">
         <f t="shared" si="0"/>
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="F14" s="16">
         <f t="shared" si="1"/>
@@ -4608,7 +4615,7 @@
       </c>
       <c r="G14" s="20">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="20">
         <f t="shared" si="3"/>
@@ -4616,11 +4623,11 @@
       </c>
       <c r="I14" s="16">
         <f t="shared" si="4"/>
-        <v>-2</v>
+        <v>-25</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" si="5"/>
-        <v>-0.08</v>
+        <v>-1</v>
       </c>
       <c r="K14" s="16">
         <v>25</v>
@@ -4630,19 +4637,19 @@
       </c>
       <c r="M14" s="20">
         <f t="shared" si="6"/>
-        <v>-0.52083333333333337</v>
+        <v>-1</v>
       </c>
       <c r="N14" s="16">
         <f t="shared" si="7"/>
-        <v>-531</v>
+        <v>-554</v>
       </c>
       <c r="O14" s="20">
         <f t="shared" si="8"/>
-        <v>-0.95848375451263534</v>
+        <v>-1</v>
       </c>
       <c r="P14" s="16">
         <f>SUM('Отчет по грузообороту'!B13:K13)</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="16">
         <v>48</v>
@@ -4652,7 +4659,7 @@
       </c>
       <c r="S14" s="20">
         <f t="shared" si="9"/>
-        <v>-0.9777131782945736</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -4665,14 +4672,14 @@
       </c>
       <c r="C15" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B13:K13)</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D15" s="16">
         <v>0</v>
       </c>
       <c r="E15" s="16">
         <f t="shared" si="0"/>
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="F15" s="16">
         <f t="shared" si="1"/>
@@ -4680,7 +4687,7 @@
       </c>
       <c r="G15" s="20">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="20">
         <f t="shared" si="3"/>
@@ -4688,11 +4695,11 @@
       </c>
       <c r="I15" s="16">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" si="5"/>
-        <v>10.5</v>
+        <v>-1</v>
       </c>
       <c r="K15" s="16">
         <v>2</v>
@@ -4809,14 +4816,14 @@
       </c>
       <c r="C17" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B16:K16)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D17" s="16">
         <v>7</v>
       </c>
       <c r="E17" s="16">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="F17" s="16">
         <f t="shared" si="1"/>
@@ -4824,7 +4831,7 @@
       </c>
       <c r="G17" s="20">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="20">
         <f t="shared" si="3"/>
@@ -4832,11 +4839,11 @@
       </c>
       <c r="I17" s="16">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="J17" s="20">
         <f t="shared" si="5"/>
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="K17" s="16">
         <v>5</v>
@@ -4846,19 +4853,19 @@
       </c>
       <c r="M17" s="20">
         <f t="shared" si="6"/>
-        <v>0.16666666666666666</v>
+        <v>-1</v>
       </c>
       <c r="N17" s="16">
         <f t="shared" si="7"/>
-        <v>-117</v>
+        <v>-124</v>
       </c>
       <c r="O17" s="20">
         <f t="shared" si="8"/>
-        <v>-0.94354838709677424</v>
+        <v>-1</v>
       </c>
       <c r="P17" s="16">
         <f>SUM('Отчет по грузообороту'!B16:K16)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="16">
         <v>6</v>
@@ -4868,7 +4875,7 @@
       </c>
       <c r="S17" s="20">
         <f t="shared" si="9"/>
-        <v>-0.94927536231884058</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4881,7 +4888,7 @@
       </c>
       <c r="C18" s="15">
         <f>C19+C23</f>
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="D18" s="15">
         <f>D19+D23</f>
@@ -4889,7 +4896,7 @@
       </c>
       <c r="E18" s="15">
         <f t="shared" si="0"/>
-        <v>-416</v>
+        <v>0</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" si="1"/>
@@ -4897,7 +4904,7 @@
       </c>
       <c r="G18" s="19">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="19">
         <f t="shared" si="3"/>
@@ -4905,11 +4912,11 @@
       </c>
       <c r="I18" s="15">
         <f t="shared" si="4"/>
-        <v>166</v>
+        <v>-250</v>
       </c>
       <c r="J18" s="19">
         <f t="shared" si="5"/>
-        <v>0.66400000000000003</v>
+        <v>-1</v>
       </c>
       <c r="K18" s="15">
         <f>K19+K23</f>
@@ -4921,19 +4928,19 @@
       </c>
       <c r="M18" s="19">
         <f t="shared" si="6"/>
-        <v>1.3502824858757063</v>
+        <v>-1</v>
       </c>
       <c r="N18" s="15">
         <f t="shared" si="7"/>
-        <v>-5012</v>
+        <v>-5428</v>
       </c>
       <c r="O18" s="19">
         <f t="shared" si="8"/>
-        <v>-0.92336035372144432</v>
+        <v>-1</v>
       </c>
       <c r="P18" s="15">
         <f>P19+P23</f>
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="15">
         <f>Q19+Q23</f>
@@ -4945,7 +4952,7 @@
       </c>
       <c r="S18" s="19">
         <f t="shared" si="9"/>
-        <v>-0.89231167486409524</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:19" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
@@ -4958,7 +4965,7 @@
       </c>
       <c r="C19" s="15">
         <f>C20+C21+C22</f>
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="D19" s="15">
         <f>D20+D21+D22</f>
@@ -4966,7 +4973,7 @@
       </c>
       <c r="E19" s="15">
         <f t="shared" si="0"/>
-        <v>-157</v>
+        <v>0</v>
       </c>
       <c r="F19" s="15">
         <f t="shared" si="1"/>
@@ -4974,7 +4981,7 @@
       </c>
       <c r="G19" s="19">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="19">
         <f t="shared" si="3"/>
@@ -4982,11 +4989,11 @@
       </c>
       <c r="I19" s="15">
         <f t="shared" si="4"/>
-        <v>84</v>
+        <v>-73</v>
       </c>
       <c r="J19" s="19">
         <f t="shared" si="5"/>
-        <v>1.1506849315068493</v>
+        <v>-1</v>
       </c>
       <c r="K19" s="15">
         <f>K20+K21+K22</f>
@@ -4998,19 +5005,19 @@
       </c>
       <c r="M19" s="19">
         <f t="shared" si="6"/>
-        <v>2.204081632653061</v>
+        <v>-1</v>
       </c>
       <c r="N19" s="15">
         <f t="shared" si="7"/>
-        <v>-1501</v>
+        <v>-1658</v>
       </c>
       <c r="O19" s="19">
         <f t="shared" si="8"/>
-        <v>-0.90530759951749096</v>
+        <v>-1</v>
       </c>
       <c r="P19" s="15">
         <f>P20+P21+P22</f>
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="15">
         <f>Q20+Q21+Q22</f>
@@ -5022,7 +5029,7 @@
       </c>
       <c r="S19" s="19">
         <f t="shared" si="9"/>
-        <v>-0.85529953917050694</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -5035,14 +5042,14 @@
       </c>
       <c r="C20" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B19:K19)</f>
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="D20" s="16">
         <v>101</v>
       </c>
       <c r="E20" s="16">
         <f t="shared" si="0"/>
-        <v>-148</v>
+        <v>0</v>
       </c>
       <c r="F20" s="16">
         <f t="shared" si="1"/>
@@ -5050,7 +5057,7 @@
       </c>
       <c r="G20" s="20">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="20">
         <f t="shared" si="3"/>
@@ -5058,11 +5065,11 @@
       </c>
       <c r="I20" s="16">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>-70</v>
       </c>
       <c r="J20" s="20">
         <f t="shared" si="5"/>
-        <v>1.1142857142857143</v>
+        <v>-1</v>
       </c>
       <c r="K20" s="16">
         <v>70</v>
@@ -5072,19 +5079,19 @@
       </c>
       <c r="M20" s="20">
         <f t="shared" si="6"/>
-        <v>2.0204081632653059</v>
+        <v>-1</v>
       </c>
       <c r="N20" s="16">
         <f t="shared" si="7"/>
-        <v>-1441</v>
+        <v>-1589</v>
       </c>
       <c r="O20" s="20">
         <f t="shared" si="8"/>
-        <v>-0.90685966016362496</v>
+        <v>-1</v>
       </c>
       <c r="P20" s="16">
         <f>SUM('Отчет по грузообороту'!B19:K19)</f>
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="16">
         <v>49</v>
@@ -5094,7 +5101,7 @@
       </c>
       <c r="S20" s="20">
         <f t="shared" si="9"/>
-        <v>-0.86359447004608292</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -5107,14 +5114,14 @@
       </c>
       <c r="C21" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B20:K20)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D21" s="16">
         <v>5</v>
       </c>
       <c r="E21" s="16">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="F21" s="16">
         <f t="shared" si="1"/>
@@ -5122,7 +5129,7 @@
       </c>
       <c r="G21" s="20">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="20">
         <f t="shared" si="3"/>
@@ -5130,11 +5137,11 @@
       </c>
       <c r="I21" s="16">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="J21" s="20">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K21" s="16">
         <v>3</v>
@@ -5148,15 +5155,15 @@
       </c>
       <c r="N21" s="16">
         <f t="shared" si="7"/>
-        <v>-60</v>
+        <v>-69</v>
       </c>
       <c r="O21" s="20">
         <f t="shared" si="8"/>
-        <v>-0.86956521739130432</v>
+        <v>-1</v>
       </c>
       <c r="P21" s="16">
         <f>SUM('Отчет по грузообороту'!B20:K20)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="16">
         <v>0</v>
@@ -5251,7 +5258,7 @@
       </c>
       <c r="C23" s="15">
         <f>C24+C25+C26</f>
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="D23" s="15">
         <f>D24+D25+D26</f>
@@ -5259,7 +5266,7 @@
       </c>
       <c r="E23" s="15">
         <f t="shared" si="0"/>
-        <v>-259</v>
+        <v>0</v>
       </c>
       <c r="F23" s="15">
         <f t="shared" si="1"/>
@@ -5267,7 +5274,7 @@
       </c>
       <c r="G23" s="19">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="19">
         <f t="shared" si="3"/>
@@ -5275,11 +5282,11 @@
       </c>
       <c r="I23" s="15">
         <f t="shared" si="4"/>
-        <v>82</v>
+        <v>-177</v>
       </c>
       <c r="J23" s="19">
         <f t="shared" si="5"/>
-        <v>0.4632768361581921</v>
+        <v>-1</v>
       </c>
       <c r="K23" s="15">
         <f>K24+K25+K26</f>
@@ -5291,19 +5298,19 @@
       </c>
       <c r="M23" s="19">
         <f t="shared" si="6"/>
-        <v>1.0234375</v>
+        <v>-1</v>
       </c>
       <c r="N23" s="15">
         <f t="shared" si="7"/>
-        <v>-3511</v>
+        <v>-3770</v>
       </c>
       <c r="O23" s="19">
         <f t="shared" si="8"/>
-        <v>-0.93129973474801064</v>
+        <v>-1</v>
       </c>
       <c r="P23" s="15">
         <f>P24+P25+P26</f>
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="15">
         <f>Q24+Q25+Q26</f>
@@ -5315,7 +5322,7 @@
       </c>
       <c r="S23" s="19">
         <f>IFERROR((O23-Q23)/Q23,0)</f>
-        <v>-1.0072757791777189</v>
+        <v>-1.0078125</v>
       </c>
     </row>
     <row r="24" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -5328,14 +5335,14 @@
       </c>
       <c r="C24" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B23:K23)</f>
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D24" s="16">
         <v>70</v>
       </c>
       <c r="E24" s="16">
         <f t="shared" si="0"/>
-        <v>-126</v>
+        <v>0</v>
       </c>
       <c r="F24" s="16">
         <f t="shared" si="1"/>
@@ -5343,7 +5350,7 @@
       </c>
       <c r="G24" s="20">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="20">
         <f t="shared" si="3"/>
@@ -5351,11 +5358,11 @@
       </c>
       <c r="I24" s="16">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>-88</v>
       </c>
       <c r="J24" s="20">
         <f t="shared" si="5"/>
-        <v>0.43181818181818182</v>
+        <v>-1</v>
       </c>
       <c r="K24" s="16">
         <v>88</v>
@@ -5365,19 +5372,19 @@
       </c>
       <c r="M24" s="20">
         <f t="shared" si="6"/>
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="N24" s="16">
         <f t="shared" si="7"/>
-        <v>-1794</v>
+        <v>-1920</v>
       </c>
       <c r="O24" s="20">
         <f t="shared" si="8"/>
-        <v>-0.93437499999999996</v>
+        <v>-1</v>
       </c>
       <c r="P24" s="16">
         <f>SUM('Отчет по грузообороту'!B23:K23)</f>
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="16">
         <v>70</v>
@@ -5387,7 +5394,7 @@
       </c>
       <c r="S24" s="20">
         <f t="shared" ref="S24:S55" si="10">IFERROR((P24-R24)/R24,0)</f>
-        <v>-0.91743119266055051</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -5472,14 +5479,14 @@
       </c>
       <c r="C26" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B25:K25)</f>
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="D26" s="16">
         <v>103</v>
       </c>
       <c r="E26" s="16">
         <f t="shared" si="0"/>
-        <v>-133</v>
+        <v>0</v>
       </c>
       <c r="F26" s="16">
         <f t="shared" si="1"/>
@@ -5487,7 +5494,7 @@
       </c>
       <c r="G26" s="20">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="20">
         <f t="shared" si="3"/>
@@ -5495,11 +5502,11 @@
       </c>
       <c r="I26" s="16">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>-83</v>
       </c>
       <c r="J26" s="20">
         <f t="shared" si="5"/>
-        <v>0.60240963855421692</v>
+        <v>-1</v>
       </c>
       <c r="K26" s="16">
         <v>83</v>
@@ -5509,19 +5516,19 @@
       </c>
       <c r="M26" s="20">
         <f t="shared" si="6"/>
-        <v>1.2931034482758621</v>
+        <v>-1</v>
       </c>
       <c r="N26" s="16">
         <f t="shared" si="7"/>
-        <v>-1602</v>
+        <v>-1735</v>
       </c>
       <c r="O26" s="20">
         <f t="shared" si="8"/>
-        <v>-0.923342939481268</v>
+        <v>-1</v>
       </c>
       <c r="P26" s="16">
         <f>SUM('Отчет по грузообороту'!B25:K25)</f>
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="16">
         <v>58</v>
@@ -5531,7 +5538,7 @@
       </c>
       <c r="S26" s="20">
         <f t="shared" si="10"/>
-        <v>-0.89376996805111819</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5544,7 +5551,7 @@
       </c>
       <c r="C27" s="15">
         <f>C28+C31</f>
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="D27" s="15">
         <f>D28+D31</f>
@@ -5552,7 +5559,7 @@
       </c>
       <c r="E27" s="15">
         <f t="shared" si="0"/>
-        <v>-249</v>
+        <v>0</v>
       </c>
       <c r="F27" s="15">
         <f t="shared" si="1"/>
@@ -5560,7 +5567,7 @@
       </c>
       <c r="G27" s="19">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="19">
         <f t="shared" si="3"/>
@@ -5568,11 +5575,11 @@
       </c>
       <c r="I27" s="15">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>-172</v>
       </c>
       <c r="J27" s="19">
         <f t="shared" si="5"/>
-        <v>0.44767441860465118</v>
+        <v>-1</v>
       </c>
       <c r="K27" s="15">
         <f>K28+K31</f>
@@ -5584,19 +5591,19 @@
       </c>
       <c r="M27" s="19">
         <f t="shared" si="6"/>
-        <v>-0.12631578947368421</v>
+        <v>-1</v>
       </c>
       <c r="N27" s="15">
         <f t="shared" si="7"/>
-        <v>-3474</v>
+        <v>-3723</v>
       </c>
       <c r="O27" s="19">
         <f t="shared" si="8"/>
-        <v>-0.93311845286059625</v>
+        <v>-1</v>
       </c>
       <c r="P27" s="15">
         <f>P28+P31</f>
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="15">
         <f>Q28+Q31</f>
@@ -5608,7 +5615,7 @@
       </c>
       <c r="S27" s="19">
         <f t="shared" si="10"/>
-        <v>-0.94624352331606221</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:19" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
@@ -5621,7 +5628,7 @@
       </c>
       <c r="C28" s="15">
         <f>C29+C30</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D28" s="15">
         <f>D29+D20</f>
@@ -5629,7 +5636,7 @@
       </c>
       <c r="E28" s="15">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="F28" s="15">
         <f t="shared" si="1"/>
@@ -5637,7 +5644,7 @@
       </c>
       <c r="G28" s="19">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="19">
         <f t="shared" si="3"/>
@@ -5645,11 +5652,11 @@
       </c>
       <c r="I28" s="15">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>-5</v>
       </c>
       <c r="J28" s="19">
         <f t="shared" si="5"/>
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="K28" s="15">
         <f>K29+K30</f>
@@ -5661,19 +5668,19 @@
       </c>
       <c r="M28" s="19">
         <f t="shared" si="6"/>
-        <v>-0.83076923076923082</v>
+        <v>-1</v>
       </c>
       <c r="N28" s="15">
         <f t="shared" si="7"/>
-        <v>-89</v>
+        <v>-100</v>
       </c>
       <c r="O28" s="19">
         <f t="shared" si="8"/>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="P28" s="15">
         <f>P29+P30</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="15">
         <f>R29+R30</f>
@@ -5695,14 +5702,14 @@
       </c>
       <c r="C29" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B28:K28)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D29" s="16">
         <v>13</v>
       </c>
       <c r="E29" s="16">
         <f t="shared" si="0"/>
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="F29" s="16">
         <f t="shared" si="1"/>
@@ -5710,7 +5717,7 @@
       </c>
       <c r="G29" s="20">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="20">
         <f t="shared" si="3"/>
@@ -5718,11 +5725,11 @@
       </c>
       <c r="I29" s="16">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>-5</v>
       </c>
       <c r="J29" s="20">
         <f t="shared" si="5"/>
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="K29" s="16">
         <v>5</v>
@@ -5732,19 +5739,19 @@
       </c>
       <c r="M29" s="20">
         <f t="shared" si="6"/>
-        <v>2.6666666666666665</v>
+        <v>-1</v>
       </c>
       <c r="N29" s="16">
         <f t="shared" si="7"/>
-        <v>-89</v>
+        <v>-100</v>
       </c>
       <c r="O29" s="20">
         <f t="shared" si="8"/>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="P29" s="16">
         <f>SUM('Отчет по грузообороту'!B28:K28)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="16">
         <v>3</v>
@@ -5754,7 +5761,7 @@
       </c>
       <c r="S29" s="20">
         <f t="shared" si="10"/>
-        <v>-0.8035714285714286</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -5839,7 +5846,7 @@
       </c>
       <c r="C31" s="15">
         <f>C32+C33</f>
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="D31" s="15">
         <f>D32+D33</f>
@@ -5847,7 +5854,7 @@
       </c>
       <c r="E31" s="15">
         <f t="shared" si="0"/>
-        <v>-238</v>
+        <v>0</v>
       </c>
       <c r="F31" s="15">
         <f t="shared" si="1"/>
@@ -5855,7 +5862,7 @@
       </c>
       <c r="G31" s="19">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="19">
         <f t="shared" si="3"/>
@@ -5863,11 +5870,11 @@
       </c>
       <c r="I31" s="15">
         <f t="shared" si="4"/>
-        <v>71</v>
+        <v>-167</v>
       </c>
       <c r="J31" s="19">
         <f t="shared" si="5"/>
-        <v>0.42514970059880242</v>
+        <v>-1</v>
       </c>
       <c r="K31" s="15">
         <f>K32+K33</f>
@@ -5879,19 +5886,19 @@
       </c>
       <c r="M31" s="19">
         <f t="shared" si="6"/>
-        <v>8.1818181818181818E-2</v>
+        <v>-1</v>
       </c>
       <c r="N31" s="15">
         <f t="shared" si="7"/>
-        <v>-3385</v>
+        <v>-3623</v>
       </c>
       <c r="O31" s="19">
         <f t="shared" si="8"/>
-        <v>-0.93430858404637041</v>
+        <v>-1</v>
       </c>
       <c r="P31" s="15">
         <f>P32+P33</f>
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="15">
         <f>Q32+Q33</f>
@@ -5903,7 +5910,7 @@
       </c>
       <c r="S31" s="19">
         <f t="shared" si="10"/>
-        <v>-0.94861830742659758</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -5916,14 +5923,14 @@
       </c>
       <c r="C32" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B31:K31)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D32" s="16">
         <v>18</v>
       </c>
       <c r="E32" s="16">
         <f t="shared" si="0"/>
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="F32" s="16">
         <f t="shared" si="1"/>
@@ -5931,7 +5938,7 @@
       </c>
       <c r="G32" s="20">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="20">
         <f t="shared" si="3"/>
@@ -5939,11 +5946,11 @@
       </c>
       <c r="I32" s="16">
         <f t="shared" si="4"/>
-        <v>-27</v>
+        <v>-43</v>
       </c>
       <c r="J32" s="20">
         <f t="shared" si="5"/>
-        <v>-0.62790697674418605</v>
+        <v>-1</v>
       </c>
       <c r="K32" s="16">
         <v>43</v>
@@ -5953,19 +5960,19 @@
       </c>
       <c r="M32" s="20">
         <f t="shared" si="6"/>
-        <v>-0.64444444444444449</v>
+        <v>-1</v>
       </c>
       <c r="N32" s="16">
         <f t="shared" si="7"/>
-        <v>-937</v>
+        <v>-953</v>
       </c>
       <c r="O32" s="20">
         <f t="shared" si="8"/>
-        <v>-0.98321091290661067</v>
+        <v>-1</v>
       </c>
       <c r="P32" s="16">
         <f>SUM('Отчет по грузообороту'!B31:K31)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="16">
         <v>45</v>
@@ -5975,7 +5982,7 @@
       </c>
       <c r="S32" s="20">
         <f t="shared" si="10"/>
-        <v>-0.98353909465020573</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -5988,14 +5995,14 @@
       </c>
       <c r="C33" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B32:K32)</f>
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="D33" s="16">
         <v>173</v>
       </c>
       <c r="E33" s="16">
         <f t="shared" si="0"/>
-        <v>-222</v>
+        <v>0</v>
       </c>
       <c r="F33" s="16">
         <f t="shared" si="1"/>
@@ -6003,7 +6010,7 @@
       </c>
       <c r="G33" s="20">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="20">
         <f t="shared" si="3"/>
@@ -6011,11 +6018,11 @@
       </c>
       <c r="I33" s="16">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>-124</v>
       </c>
       <c r="J33" s="20">
         <f t="shared" si="5"/>
-        <v>0.79032258064516125</v>
+        <v>-1</v>
       </c>
       <c r="K33" s="16">
         <v>124</v>
@@ -6025,19 +6032,19 @@
       </c>
       <c r="M33" s="20">
         <f t="shared" si="6"/>
-        <v>0.26857142857142857</v>
+        <v>-1</v>
       </c>
       <c r="N33" s="16">
         <f t="shared" si="7"/>
-        <v>-2448</v>
+        <v>-2670</v>
       </c>
       <c r="O33" s="20">
         <f t="shared" si="8"/>
-        <v>-0.91685393258426962</v>
+        <v>-1</v>
       </c>
       <c r="P33" s="16">
         <f>SUM('Отчет по грузообороту'!B32:K32)</f>
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="16">
         <v>175</v>
@@ -6047,7 +6054,7 @@
       </c>
       <c r="S33" s="20">
         <f t="shared" si="10"/>
-        <v>-0.93934426229508194</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:19" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
@@ -6281,7 +6288,7 @@
       </c>
       <c r="C37" s="15">
         <f>C38+C39+C40+C41</f>
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="D37" s="15">
         <f>D38+D39+D40+D41</f>
@@ -6289,7 +6296,7 @@
       </c>
       <c r="E37" s="15">
         <f t="shared" ref="E37:E68" si="11">B37-C37</f>
-        <v>-191</v>
+        <v>0</v>
       </c>
       <c r="F37" s="15">
         <f t="shared" ref="F37:F68" si="12">B37-D37</f>
@@ -6297,7 +6304,7 @@
       </c>
       <c r="G37" s="19">
         <f t="shared" ref="G37:G68" si="13">IFERROR((B37-C37)/C37,0)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="19">
         <f t="shared" ref="H37:H68" si="14">IFERROR((B37-D37)/D37,0)</f>
@@ -6305,11 +6312,11 @@
       </c>
       <c r="I37" s="15">
         <f t="shared" ref="I37:I68" si="15">C37-K37</f>
-        <v>35</v>
+        <v>-156</v>
       </c>
       <c r="J37" s="19">
         <f t="shared" ref="J37:J68" si="16">IFERROR((C37-K37)/K37,0)</f>
-        <v>0.22435897435897437</v>
+        <v>-1</v>
       </c>
       <c r="K37" s="15">
         <f>K38+K39+K40+K41</f>
@@ -6321,19 +6328,19 @@
       </c>
       <c r="M37" s="19">
         <f t="shared" si="6"/>
-        <v>-0.35690235690235689</v>
+        <v>-1</v>
       </c>
       <c r="N37" s="15">
         <f t="shared" ref="N37:N68" si="17">P37-L37</f>
-        <v>-3278</v>
+        <v>-3469</v>
       </c>
       <c r="O37" s="19">
         <f t="shared" ref="O37:O68" si="18">IFERROR((P37-L37)/L37,0)</f>
-        <v>-0.94494090515998852</v>
+        <v>-1</v>
       </c>
       <c r="P37" s="15">
         <f>P38+P39+P40+P41</f>
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="15">
         <f>Q38+Q39+Q40+Q41</f>
@@ -6345,7 +6352,7 @@
       </c>
       <c r="S37" s="19">
         <f t="shared" si="10"/>
-        <v>-0.9705337858685591</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -6358,14 +6365,14 @@
       </c>
       <c r="C38" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B37:K37)</f>
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="D38" s="16">
         <v>172</v>
       </c>
       <c r="E38" s="16">
         <f t="shared" si="11"/>
-        <v>-138</v>
+        <v>0</v>
       </c>
       <c r="F38" s="16">
         <f t="shared" si="12"/>
@@ -6373,7 +6380,7 @@
       </c>
       <c r="G38" s="20">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="20">
         <f t="shared" si="14"/>
@@ -6381,11 +6388,11 @@
       </c>
       <c r="I38" s="16">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>-136</v>
       </c>
       <c r="J38" s="20">
         <f t="shared" si="16"/>
-        <v>1.4705882352941176E-2</v>
+        <v>-1</v>
       </c>
       <c r="K38" s="16">
         <v>136</v>
@@ -6395,19 +6402,19 @@
       </c>
       <c r="M38" s="20">
         <f t="shared" si="6"/>
-        <v>-0.49635036496350365</v>
+        <v>-1</v>
       </c>
       <c r="N38" s="16">
         <f t="shared" si="17"/>
-        <v>-2860</v>
+        <v>-2998</v>
       </c>
       <c r="O38" s="20">
         <f t="shared" si="18"/>
-        <v>-0.95396931287525022</v>
+        <v>-1</v>
       </c>
       <c r="P38" s="16">
         <f>SUM('Отчет по грузообороту'!B37:K37)</f>
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="16">
         <v>274</v>
@@ -6417,7 +6424,7 @@
       </c>
       <c r="S38" s="20">
         <f t="shared" si="10"/>
-        <v>-0.97689603214465093</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -6430,14 +6437,14 @@
       </c>
       <c r="C39" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B38:K38)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D39" s="16">
         <v>9</v>
       </c>
       <c r="E39" s="16">
         <f t="shared" si="11"/>
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="12"/>
@@ -6445,7 +6452,7 @@
       </c>
       <c r="G39" s="20">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="20">
         <f t="shared" si="14"/>
@@ -6453,11 +6460,11 @@
       </c>
       <c r="I39" s="16">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="J39" s="20">
         <f t="shared" si="16"/>
-        <v>0.14285714285714285</v>
+        <v>-1</v>
       </c>
       <c r="K39" s="16">
         <v>7</v>
@@ -6467,19 +6474,19 @@
       </c>
       <c r="M39" s="20">
         <f t="shared" si="6"/>
-        <v>-0.46666666666666667</v>
+        <v>-1</v>
       </c>
       <c r="N39" s="16">
         <f t="shared" si="17"/>
-        <v>-147</v>
+        <v>-155</v>
       </c>
       <c r="O39" s="20">
         <f t="shared" si="18"/>
-        <v>-0.94838709677419353</v>
+        <v>-1</v>
       </c>
       <c r="P39" s="16">
         <f>SUM('Отчет по грузообороту'!B38:K38)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="16">
         <v>15</v>
@@ -6489,7 +6496,7 @@
       </c>
       <c r="S39" s="20">
         <f t="shared" si="10"/>
-        <v>-0.97647058823529409</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -6502,14 +6509,14 @@
       </c>
       <c r="C40" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B39:K39)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D40" s="16">
         <v>9</v>
       </c>
       <c r="E40" s="16">
         <f t="shared" si="11"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="F40" s="16">
         <f t="shared" si="12"/>
@@ -6517,7 +6524,7 @@
       </c>
       <c r="G40" s="20">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="20">
         <f t="shared" si="14"/>
@@ -6525,11 +6532,11 @@
       </c>
       <c r="I40" s="16">
         <f t="shared" si="15"/>
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="J40" s="20">
         <f t="shared" si="16"/>
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="K40" s="16">
         <v>8</v>
@@ -6543,15 +6550,15 @@
       </c>
       <c r="N40" s="16">
         <f t="shared" si="17"/>
-        <v>-205</v>
+        <v>-211</v>
       </c>
       <c r="O40" s="20">
         <f t="shared" si="18"/>
-        <v>-0.97156398104265407</v>
+        <v>-1</v>
       </c>
       <c r="P40" s="16">
         <f>SUM('Отчет по грузообороту'!B39:K39)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="16">
         <v>0</v>
@@ -6574,14 +6581,14 @@
       </c>
       <c r="C41" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B40:K40)</f>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D41" s="16">
         <v>48</v>
       </c>
       <c r="E41" s="16">
         <f t="shared" si="11"/>
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="F41" s="16">
         <f t="shared" si="12"/>
@@ -6589,7 +6596,7 @@
       </c>
       <c r="G41" s="20">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="20">
         <f t="shared" si="14"/>
@@ -6597,11 +6604,11 @@
       </c>
       <c r="I41" s="16">
         <f t="shared" si="15"/>
-        <v>34</v>
+        <v>-5</v>
       </c>
       <c r="J41" s="20">
         <f t="shared" si="16"/>
-        <v>6.8</v>
+        <v>-1</v>
       </c>
       <c r="K41" s="16">
         <v>5</v>
@@ -6611,19 +6618,19 @@
       </c>
       <c r="M41" s="20">
         <f t="shared" si="6"/>
-        <v>3.875</v>
+        <v>-1</v>
       </c>
       <c r="N41" s="16">
         <f t="shared" si="17"/>
-        <v>-66</v>
+        <v>-105</v>
       </c>
       <c r="O41" s="20">
         <f t="shared" si="18"/>
-        <v>-0.62857142857142856</v>
+        <v>-1</v>
       </c>
       <c r="P41" s="16">
         <f>SUM('Отчет по грузообороту'!B40:K40)</f>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="16">
         <v>8</v>
@@ -6633,7 +6640,7 @@
       </c>
       <c r="S41" s="20">
         <f t="shared" si="10"/>
-        <v>-0.76923076923076927</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -6646,7 +6653,7 @@
       </c>
       <c r="C42" s="14">
         <f>C43+C55+C64</f>
-        <v>961</v>
+        <v>0</v>
       </c>
       <c r="D42" s="14">
         <f>D43+D55+D64</f>
@@ -6654,7 +6661,7 @@
       </c>
       <c r="E42" s="14">
         <f t="shared" si="11"/>
-        <v>-961</v>
+        <v>0</v>
       </c>
       <c r="F42" s="14">
         <f t="shared" si="12"/>
@@ -6662,7 +6669,7 @@
       </c>
       <c r="G42" s="18">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="18">
         <f t="shared" si="14"/>
@@ -6670,11 +6677,11 @@
       </c>
       <c r="I42" s="14">
         <f t="shared" si="15"/>
-        <v>-32</v>
+        <v>-993</v>
       </c>
       <c r="J42" s="18">
         <f t="shared" si="16"/>
-        <v>-3.2225579053373615E-2</v>
+        <v>-1</v>
       </c>
       <c r="K42" s="14">
         <f>K43+K55+K64</f>
@@ -6686,19 +6693,19 @@
       </c>
       <c r="M42" s="18">
         <f t="shared" si="6"/>
-        <v>0.18495684340320592</v>
+        <v>-1</v>
       </c>
       <c r="N42" s="14">
         <f t="shared" si="17"/>
-        <v>-16631</v>
+        <v>-17592</v>
       </c>
       <c r="O42" s="18">
         <f t="shared" si="18"/>
-        <v>-0.94537289677125969</v>
+        <v>-1</v>
       </c>
       <c r="P42" s="14">
         <f>P43+P55+P64</f>
-        <v>961</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="14">
         <f>Q43+Q55+Q64</f>
@@ -6710,7 +6717,7 @@
       </c>
       <c r="S42" s="18">
         <f t="shared" si="10"/>
-        <v>-0.96263753353291082</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6723,7 +6730,7 @@
       </c>
       <c r="C43" s="15">
         <f>C44+C50</f>
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="D43" s="15">
         <f>ROUND(D44,0)+ROUND(D50,0)</f>
@@ -6731,7 +6738,7 @@
       </c>
       <c r="E43" s="15">
         <f t="shared" si="11"/>
-        <v>-721</v>
+        <v>0</v>
       </c>
       <c r="F43" s="15">
         <f t="shared" si="12"/>
@@ -6739,7 +6746,7 @@
       </c>
       <c r="G43" s="19">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="19">
         <f t="shared" si="14"/>
@@ -6747,11 +6754,11 @@
       </c>
       <c r="I43" s="15">
         <f t="shared" si="15"/>
-        <v>128</v>
+        <v>-593</v>
       </c>
       <c r="J43" s="19">
         <f t="shared" si="16"/>
-        <v>0.21585160202360876</v>
+        <v>-1</v>
       </c>
       <c r="K43" s="15">
         <f>K44+K50</f>
@@ -6763,19 +6770,19 @@
       </c>
       <c r="M43" s="19">
         <f t="shared" si="6"/>
-        <v>0.15544871794871795</v>
+        <v>-1</v>
       </c>
       <c r="N43" s="15">
         <f t="shared" si="17"/>
-        <v>-12119</v>
+        <v>-12840</v>
       </c>
       <c r="O43" s="19">
         <f t="shared" si="18"/>
-        <v>-0.94384735202492209</v>
+        <v>-1</v>
       </c>
       <c r="P43" s="15">
         <f>P44+P50</f>
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="15">
         <f>Q44+Q50</f>
@@ -6787,7 +6794,7 @@
       </c>
       <c r="S43" s="19">
         <f t="shared" si="10"/>
-        <v>-0.94628622513596061</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:19" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -6800,7 +6807,7 @@
       </c>
       <c r="C44" s="15">
         <f>C45+C46+C48+C49</f>
-        <v>711</v>
+        <v>0</v>
       </c>
       <c r="D44" s="15">
         <f>D45+D46+D48+D49</f>
@@ -6808,7 +6815,7 @@
       </c>
       <c r="E44" s="15">
         <f t="shared" si="11"/>
-        <v>-711</v>
+        <v>0</v>
       </c>
       <c r="F44" s="15">
         <f t="shared" si="12"/>
@@ -6816,7 +6823,7 @@
       </c>
       <c r="G44" s="19">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="19">
         <f t="shared" si="14"/>
@@ -6824,11 +6831,11 @@
       </c>
       <c r="I44" s="15">
         <f t="shared" si="15"/>
-        <v>144</v>
+        <v>-567</v>
       </c>
       <c r="J44" s="19">
         <f t="shared" si="16"/>
-        <v>0.25396825396825395</v>
+        <v>-1</v>
       </c>
       <c r="K44" s="15">
         <f>K45+K46+K48+K49</f>
@@ -6840,19 +6847,19 @@
       </c>
       <c r="M44" s="19">
         <f>IFERROR((C44-Q44)/P44,0)</f>
-        <v>0.1940928270042194</v>
+        <v>0</v>
       </c>
       <c r="N44" s="15">
         <f t="shared" si="17"/>
-        <v>-11565</v>
+        <v>-12276</v>
       </c>
       <c r="O44" s="19">
         <f t="shared" si="18"/>
-        <v>-0.9420821114369502</v>
+        <v>-1</v>
       </c>
       <c r="P44" s="15">
         <f>P45+P46+P48+P49</f>
-        <v>711</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="15">
         <f>Q45+Q46+Q48+Q49</f>
@@ -6864,7 +6871,7 @@
       </c>
       <c r="S44" s="19">
         <f t="shared" si="10"/>
-        <v>-0.94218572125548872</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -6877,14 +6884,14 @@
       </c>
       <c r="C45" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B44:K44)</f>
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="D45" s="16">
         <v>340</v>
       </c>
       <c r="E45" s="16">
         <f t="shared" si="11"/>
-        <v>-265</v>
+        <v>0</v>
       </c>
       <c r="F45" s="16">
         <f t="shared" si="12"/>
@@ -6892,7 +6899,7 @@
       </c>
       <c r="G45" s="20">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="20">
         <f t="shared" si="14"/>
@@ -6900,11 +6907,11 @@
       </c>
       <c r="I45" s="16">
         <f t="shared" si="15"/>
-        <v>-5</v>
+        <v>-270</v>
       </c>
       <c r="J45" s="20">
         <f t="shared" si="16"/>
-        <v>-1.8518518518518517E-2</v>
+        <v>-1</v>
       </c>
       <c r="K45" s="16">
         <v>270</v>
@@ -6914,19 +6921,19 @@
       </c>
       <c r="M45" s="20">
         <f>IFERROR((C45-Q45)/P45,0)</f>
-        <v>-0.1169811320754717</v>
+        <v>0</v>
       </c>
       <c r="N45" s="16">
         <f t="shared" si="17"/>
-        <v>-5620</v>
+        <v>-5885</v>
       </c>
       <c r="O45" s="20">
         <f t="shared" si="18"/>
-        <v>-0.95497026338147828</v>
+        <v>-1</v>
       </c>
       <c r="P45" s="16">
         <f>SUM('Отчет по грузообороту'!B44:K44)</f>
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="16">
         <v>296</v>
@@ -6936,7 +6943,7 @@
       </c>
       <c r="S45" s="20">
         <f t="shared" si="10"/>
-        <v>-0.95875486381322961</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:19" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -6949,7 +6956,7 @@
       </c>
       <c r="C46" s="16">
         <f>C31+C47</f>
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="D46" s="16">
         <f>D31+D47</f>
@@ -6957,7 +6964,7 @@
       </c>
       <c r="E46" s="16">
         <f t="shared" si="11"/>
-        <v>-329</v>
+        <v>0</v>
       </c>
       <c r="F46" s="16">
         <f t="shared" si="12"/>
@@ -6965,7 +6972,7 @@
       </c>
       <c r="G46" s="20">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="20">
         <f t="shared" si="14"/>
@@ -6973,11 +6980,11 @@
       </c>
       <c r="I46" s="16">
         <f t="shared" si="15"/>
-        <v>96</v>
+        <v>-233</v>
       </c>
       <c r="J46" s="20">
         <f t="shared" si="16"/>
-        <v>0.41201716738197425</v>
+        <v>-1</v>
       </c>
       <c r="K46" s="16">
         <f>K31+K47</f>
@@ -6989,19 +6996,19 @@
       </c>
       <c r="M46" s="20">
         <f t="shared" ref="M46:M92" si="19">IFERROR((C46-Q46)/Q46,0)</f>
-        <v>0.22761194029850745</v>
+        <v>-1</v>
       </c>
       <c r="N46" s="16">
         <f t="shared" si="17"/>
-        <v>-4790</v>
+        <v>-5119</v>
       </c>
       <c r="O46" s="20">
         <f t="shared" si="18"/>
-        <v>-0.93572963469427628</v>
+        <v>-1</v>
       </c>
       <c r="P46" s="16">
         <f>P31+P47</f>
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="16">
         <f>Q31+Q47</f>
@@ -7013,7 +7020,7 @@
       </c>
       <c r="S46" s="20">
         <f t="shared" si="10"/>
-        <v>-0.94152150728759332</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:19" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
@@ -7026,14 +7033,14 @@
       </c>
       <c r="C47" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B46:K46)</f>
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D47" s="16">
         <v>68</v>
       </c>
       <c r="E47" s="16">
         <f t="shared" si="11"/>
-        <v>-91</v>
+        <v>0</v>
       </c>
       <c r="F47" s="16">
         <f t="shared" si="12"/>
@@ -7041,7 +7048,7 @@
       </c>
       <c r="G47" s="20">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="20">
         <f t="shared" si="14"/>
@@ -7049,11 +7056,11 @@
       </c>
       <c r="I47" s="16">
         <f t="shared" si="15"/>
-        <v>25</v>
+        <v>-66</v>
       </c>
       <c r="J47" s="20">
         <f t="shared" si="16"/>
-        <v>0.37878787878787878</v>
+        <v>-1</v>
       </c>
       <c r="K47" s="16">
         <v>66</v>
@@ -7063,19 +7070,19 @@
       </c>
       <c r="M47" s="20">
         <f t="shared" si="19"/>
-        <v>0.89583333333333337</v>
+        <v>-1</v>
       </c>
       <c r="N47" s="16">
         <f t="shared" si="17"/>
-        <v>-1405</v>
+        <v>-1496</v>
       </c>
       <c r="O47" s="20">
         <f t="shared" si="18"/>
-        <v>-0.93917112299465244</v>
+        <v>-1</v>
       </c>
       <c r="P47" s="16">
         <f>SUM('Отчет по грузообороту'!B46:K46)</f>
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="16">
         <v>48</v>
@@ -7085,7 +7092,7 @@
       </c>
       <c r="S47" s="20">
         <f t="shared" si="10"/>
-        <v>-0.90845070422535212</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -7098,14 +7105,14 @@
       </c>
       <c r="C48" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B47:K47)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D48" s="16">
         <v>16</v>
       </c>
       <c r="E48" s="16">
         <f t="shared" si="11"/>
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="F48" s="16">
         <f t="shared" si="12"/>
@@ -7113,7 +7120,7 @@
       </c>
       <c r="G48" s="20">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="20">
         <f t="shared" si="14"/>
@@ -7121,11 +7128,11 @@
       </c>
       <c r="I48" s="16">
         <f t="shared" si="15"/>
-        <v>-2</v>
+        <v>-15</v>
       </c>
       <c r="J48" s="20">
         <f t="shared" si="16"/>
-        <v>-0.13333333333333333</v>
+        <v>-1</v>
       </c>
       <c r="K48" s="16">
         <v>15</v>
@@ -7139,15 +7146,15 @@
       </c>
       <c r="N48" s="16">
         <f t="shared" si="17"/>
-        <v>-211</v>
+        <v>-224</v>
       </c>
       <c r="O48" s="20">
         <f t="shared" si="18"/>
-        <v>-0.9419642857142857</v>
+        <v>-1</v>
       </c>
       <c r="P48" s="16">
         <f>SUM('Отчет по грузообороту'!B47:K47)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="16">
         <v>0</v>
@@ -7170,14 +7177,14 @@
       </c>
       <c r="C49" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B48:K48)</f>
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D49" s="16">
         <v>54</v>
       </c>
       <c r="E49" s="16">
         <f t="shared" si="11"/>
-        <v>-104</v>
+        <v>0</v>
       </c>
       <c r="F49" s="16">
         <f t="shared" si="12"/>
@@ -7185,7 +7192,7 @@
       </c>
       <c r="G49" s="20">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="20">
         <f t="shared" si="14"/>
@@ -7193,11 +7200,11 @@
       </c>
       <c r="I49" s="16">
         <f t="shared" si="15"/>
-        <v>55</v>
+        <v>-49</v>
       </c>
       <c r="J49" s="20">
         <f t="shared" si="16"/>
-        <v>1.1224489795918366</v>
+        <v>-1</v>
       </c>
       <c r="K49" s="16">
         <v>49</v>
@@ -7207,19 +7214,19 @@
       </c>
       <c r="M49" s="20">
         <f t="shared" si="19"/>
-        <v>10.555555555555555</v>
+        <v>-1</v>
       </c>
       <c r="N49" s="16">
         <f t="shared" si="17"/>
-        <v>-944</v>
+        <v>-1048</v>
       </c>
       <c r="O49" s="20">
         <f t="shared" si="18"/>
-        <v>-0.9007633587786259</v>
+        <v>-1</v>
       </c>
       <c r="P49" s="16">
         <f>SUM('Отчет по грузообороту'!B48:K48)</f>
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="16">
         <v>9</v>
@@ -7229,7 +7236,7 @@
       </c>
       <c r="S49" s="20">
         <f t="shared" si="10"/>
-        <v>-0.57894736842105265</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:19" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -7242,7 +7249,7 @@
       </c>
       <c r="C50" s="15">
         <f>C51+C52+C53+C54</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D50" s="15">
         <f>D51+D52+D53+D54</f>
@@ -7250,7 +7257,7 @@
       </c>
       <c r="E50" s="15">
         <f t="shared" si="11"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F50" s="15">
         <f t="shared" si="12"/>
@@ -7258,7 +7265,7 @@
       </c>
       <c r="G50" s="19">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="19">
         <f t="shared" si="14"/>
@@ -7266,11 +7273,11 @@
       </c>
       <c r="I50" s="15">
         <f t="shared" si="15"/>
-        <v>-16</v>
+        <v>-26</v>
       </c>
       <c r="J50" s="19">
         <f t="shared" si="16"/>
-        <v>-0.61538461538461542</v>
+        <v>-1</v>
       </c>
       <c r="K50" s="15">
         <f>K51+K52+K53+K54</f>
@@ -7282,19 +7289,19 @@
       </c>
       <c r="M50" s="19">
         <f t="shared" si="19"/>
-        <v>-0.80392156862745101</v>
+        <v>-1</v>
       </c>
       <c r="N50" s="15">
         <f t="shared" si="17"/>
-        <v>-554</v>
+        <v>-564</v>
       </c>
       <c r="O50" s="19">
         <f t="shared" si="18"/>
-        <v>-0.98226950354609932</v>
+        <v>-1</v>
       </c>
       <c r="P50" s="15">
         <f>P51+P52+P53+P54</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="15">
         <f>Q51+Q52+Q53+Q54</f>
@@ -7306,7 +7313,7 @@
       </c>
       <c r="S50" s="19">
         <f t="shared" si="10"/>
-        <v>-0.99111111111111116</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -7319,14 +7326,14 @@
       </c>
       <c r="C51" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B50:K50)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D51" s="16">
         <v>18</v>
       </c>
       <c r="E51" s="16">
         <f t="shared" si="11"/>
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="F51" s="16">
         <f t="shared" si="12"/>
@@ -7334,7 +7341,7 @@
       </c>
       <c r="G51" s="20">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="20">
         <f t="shared" si="14"/>
@@ -7342,11 +7349,11 @@
       </c>
       <c r="I51" s="16">
         <f t="shared" si="15"/>
-        <v>-13</v>
+        <v>-22</v>
       </c>
       <c r="J51" s="20">
         <f t="shared" si="16"/>
-        <v>-0.59090909090909094</v>
+        <v>-1</v>
       </c>
       <c r="K51" s="16">
         <v>22</v>
@@ -7356,19 +7363,19 @@
       </c>
       <c r="M51" s="20">
         <f t="shared" si="19"/>
-        <v>-0.76315789473684215</v>
+        <v>-1</v>
       </c>
       <c r="N51" s="16">
         <f t="shared" si="17"/>
-        <v>-466</v>
+        <v>-475</v>
       </c>
       <c r="O51" s="20">
         <f t="shared" si="18"/>
-        <v>-0.9810526315789474</v>
+        <v>-1</v>
       </c>
       <c r="P51" s="16">
         <f>SUM('Отчет по грузообороту'!B50:K50)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="16">
         <v>38</v>
@@ -7378,7 +7385,7 @@
       </c>
       <c r="S51" s="20">
         <f t="shared" si="10"/>
-        <v>-0.98976109215017061</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
@@ -7535,14 +7542,14 @@
       </c>
       <c r="C54" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B53:K53)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="16">
         <v>9</v>
       </c>
       <c r="E54" s="16">
         <f t="shared" si="11"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="16">
         <f t="shared" si="12"/>
@@ -7550,7 +7557,7 @@
       </c>
       <c r="G54" s="20">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="20">
         <f t="shared" si="14"/>
@@ -7558,11 +7565,11 @@
       </c>
       <c r="I54" s="16">
         <f t="shared" si="15"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="J54" s="20">
         <f t="shared" si="16"/>
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="K54" s="16">
         <v>4</v>
@@ -7572,19 +7579,19 @@
       </c>
       <c r="M54" s="20">
         <f t="shared" si="19"/>
-        <v>-0.66666666666666663</v>
+        <v>-1</v>
       </c>
       <c r="N54" s="16">
         <f t="shared" si="17"/>
-        <v>-88</v>
+        <v>-89</v>
       </c>
       <c r="O54" s="20">
         <f t="shared" si="18"/>
-        <v>-0.9887640449438202</v>
+        <v>-1</v>
       </c>
       <c r="P54" s="16">
         <f>SUM('Отчет по грузообороту'!B53:K53)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="16">
         <v>3</v>
@@ -7594,7 +7601,7 @@
       </c>
       <c r="S54" s="20">
         <f t="shared" si="10"/>
-        <v>-0.97297297297297303</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7607,7 +7614,7 @@
       </c>
       <c r="C55" s="15">
         <f>C56+C60</f>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="D55" s="15">
         <f>D56+D60</f>
@@ -7615,7 +7622,7 @@
       </c>
       <c r="E55" s="15">
         <f t="shared" si="11"/>
-        <v>-240</v>
+        <v>0</v>
       </c>
       <c r="F55" s="15">
         <f t="shared" si="12"/>
@@ -7623,7 +7630,7 @@
       </c>
       <c r="G55" s="19">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="19">
         <f t="shared" si="14"/>
@@ -7631,11 +7638,11 @@
       </c>
       <c r="I55" s="15">
         <f t="shared" si="15"/>
-        <v>21</v>
+        <v>-219</v>
       </c>
       <c r="J55" s="19">
         <f t="shared" si="16"/>
-        <v>9.5890410958904104E-2</v>
+        <v>-1</v>
       </c>
       <c r="K55" s="15">
         <f>K56+K60</f>
@@ -7647,19 +7654,19 @@
       </c>
       <c r="M55" s="19">
         <f t="shared" si="19"/>
-        <v>0.28342245989304815</v>
+        <v>-1</v>
       </c>
       <c r="N55" s="15">
         <f t="shared" si="17"/>
-        <v>-4512</v>
+        <v>-4752</v>
       </c>
       <c r="O55" s="19">
         <f t="shared" si="18"/>
-        <v>-0.9494949494949495</v>
+        <v>-1</v>
       </c>
       <c r="P55" s="15">
         <f>P56+P60</f>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="15">
         <f>Q56+Q60</f>
@@ -7671,7 +7678,7 @@
       </c>
       <c r="S55" s="19">
         <f t="shared" si="10"/>
-        <v>-0.94079921065614203</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:19" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
@@ -7684,7 +7691,7 @@
       </c>
       <c r="C56" s="15">
         <f>C57+C58+C59</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="D56" s="15">
         <f>D57+D58+D59</f>
@@ -7692,7 +7699,7 @@
       </c>
       <c r="E56" s="15">
         <f t="shared" si="11"/>
-        <v>-160</v>
+        <v>0</v>
       </c>
       <c r="F56" s="15">
         <f t="shared" si="12"/>
@@ -7700,7 +7707,7 @@
       </c>
       <c r="G56" s="19">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="19">
         <f t="shared" si="14"/>
@@ -7708,11 +7715,11 @@
       </c>
       <c r="I56" s="15">
         <f t="shared" si="15"/>
-        <v>-21</v>
+        <v>-181</v>
       </c>
       <c r="J56" s="19">
         <f t="shared" si="16"/>
-        <v>-0.11602209944751381</v>
+        <v>-1</v>
       </c>
       <c r="K56" s="15">
         <f>K57+K58+K59</f>
@@ -7724,19 +7731,19 @@
       </c>
       <c r="M56" s="19">
         <f t="shared" si="19"/>
-        <v>1.2658227848101266E-2</v>
+        <v>-1</v>
       </c>
       <c r="N56" s="15">
         <f t="shared" si="17"/>
-        <v>-3713</v>
+        <v>-3873</v>
       </c>
       <c r="O56" s="19">
         <f t="shared" si="18"/>
-        <v>-0.95868835528014462</v>
+        <v>-1</v>
       </c>
       <c r="P56" s="15">
         <f>P57+P58+P59</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="15">
         <f>Q57+Q58+Q59</f>
@@ -7748,7 +7755,7 @@
       </c>
       <c r="S56" s="19">
         <f t="shared" ref="S56:S87" si="20">IFERROR((P56-R56)/R56,0)</f>
-        <v>-0.95276055506347801</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -7761,14 +7768,14 @@
       </c>
       <c r="C57" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B56:K56)</f>
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="D57" s="16">
         <v>227</v>
       </c>
       <c r="E57" s="16">
         <f t="shared" si="11"/>
-        <v>-146</v>
+        <v>0</v>
       </c>
       <c r="F57" s="16">
         <f t="shared" si="12"/>
@@ -7776,7 +7783,7 @@
       </c>
       <c r="G57" s="20">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="20">
         <f t="shared" si="14"/>
@@ -7784,11 +7791,11 @@
       </c>
       <c r="I57" s="16">
         <f t="shared" si="15"/>
-        <v>-6</v>
+        <v>-152</v>
       </c>
       <c r="J57" s="20">
         <f t="shared" si="16"/>
-        <v>-3.9473684210526314E-2</v>
+        <v>-1</v>
       </c>
       <c r="K57" s="16">
         <v>152</v>
@@ -7798,19 +7805,19 @@
       </c>
       <c r="M57" s="20">
         <f t="shared" si="19"/>
-        <v>-5.8064516129032261E-2</v>
+        <v>-1</v>
       </c>
       <c r="N57" s="16">
         <f t="shared" si="17"/>
-        <v>-3185</v>
+        <v>-3331</v>
       </c>
       <c r="O57" s="20">
         <f t="shared" si="18"/>
-        <v>-0.95616931852296605</v>
+        <v>-1</v>
       </c>
       <c r="P57" s="16">
         <f>SUM('Отчет по грузообороту'!B56:K56)</f>
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="16">
         <v>155</v>
@@ -7820,7 +7827,7 @@
       </c>
       <c r="S57" s="20">
         <f t="shared" si="20"/>
-        <v>-0.95594447797223903</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -7833,14 +7840,14 @@
       </c>
       <c r="C58" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B57:K57)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D58" s="16">
         <v>7</v>
       </c>
       <c r="E58" s="16">
         <f t="shared" si="11"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="F58" s="16">
         <f t="shared" si="12"/>
@@ -7848,7 +7855,7 @@
       </c>
       <c r="G58" s="20">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="20">
         <f t="shared" si="14"/>
@@ -7856,11 +7863,11 @@
       </c>
       <c r="I58" s="16">
         <f t="shared" si="15"/>
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="J58" s="20">
         <f t="shared" si="16"/>
-        <v>-0.3</v>
+        <v>-1</v>
       </c>
       <c r="K58" s="16">
         <v>10</v>
@@ -7874,15 +7881,15 @@
       </c>
       <c r="N58" s="16">
         <f t="shared" si="17"/>
-        <v>-226</v>
+        <v>-233</v>
       </c>
       <c r="O58" s="20">
         <f t="shared" si="18"/>
-        <v>-0.96995708154506433</v>
+        <v>-1</v>
       </c>
       <c r="P58" s="16">
         <f>SUM('Отчет по грузообороту'!B57:K57)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="16">
         <v>0</v>
@@ -7905,14 +7912,14 @@
       </c>
       <c r="C59" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B58:K58)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D59" s="16">
         <v>6</v>
       </c>
       <c r="E59" s="16">
         <f t="shared" si="11"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="F59" s="16">
         <f t="shared" si="12"/>
@@ -7920,7 +7927,7 @@
       </c>
       <c r="G59" s="20">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="20">
         <f t="shared" si="14"/>
@@ -7928,11 +7935,11 @@
       </c>
       <c r="I59" s="16">
         <f t="shared" si="15"/>
-        <v>-12</v>
+        <v>-19</v>
       </c>
       <c r="J59" s="20">
         <f t="shared" si="16"/>
-        <v>-0.63157894736842102</v>
+        <v>-1</v>
       </c>
       <c r="K59" s="16">
         <v>19</v>
@@ -7942,19 +7949,19 @@
       </c>
       <c r="M59" s="20">
         <f t="shared" si="19"/>
-        <v>1.3333333333333333</v>
+        <v>-1</v>
       </c>
       <c r="N59" s="16">
         <f t="shared" si="17"/>
-        <v>-302</v>
+        <v>-309</v>
       </c>
       <c r="O59" s="20">
         <f t="shared" si="18"/>
-        <v>-0.97734627831715215</v>
+        <v>-1</v>
       </c>
       <c r="P59" s="16">
         <f>SUM('Отчет по грузообороту'!B58:K58)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="16">
         <v>3</v>
@@ -7964,7 +7971,7 @@
       </c>
       <c r="S59" s="20">
         <f t="shared" si="20"/>
-        <v>-0.90410958904109584</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:19" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
@@ -7977,7 +7984,7 @@
       </c>
       <c r="C60" s="15">
         <f>C61+C62+C63</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D60" s="15">
         <f>D61+D62+D63</f>
@@ -7985,7 +7992,7 @@
       </c>
       <c r="E60" s="15">
         <f t="shared" si="11"/>
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="F60" s="15">
         <f t="shared" si="12"/>
@@ -7993,7 +8000,7 @@
       </c>
       <c r="G60" s="19">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="19">
         <f t="shared" si="14"/>
@@ -8001,11 +8008,11 @@
       </c>
       <c r="I60" s="15">
         <f t="shared" si="15"/>
-        <v>42</v>
+        <v>-38</v>
       </c>
       <c r="J60" s="19">
         <f t="shared" si="16"/>
-        <v>1.1052631578947369</v>
+        <v>-1</v>
       </c>
       <c r="K60" s="15">
         <f>K61+K62+K63</f>
@@ -8017,19 +8024,19 @@
       </c>
       <c r="M60" s="19">
         <f t="shared" si="19"/>
-        <v>1.7586206896551724</v>
+        <v>-1</v>
       </c>
       <c r="N60" s="15">
         <f t="shared" si="17"/>
-        <v>-799</v>
+        <v>-879</v>
       </c>
       <c r="O60" s="19">
         <f t="shared" si="18"/>
-        <v>-0.90898748577929467</v>
+        <v>-1</v>
       </c>
       <c r="P60" s="15">
         <f>P61+P62+P63</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="15">
         <f>Q61+Q62+Q63</f>
@@ -8041,7 +8048,7 @@
       </c>
       <c r="S60" s="19">
         <f t="shared" si="20"/>
-        <v>-0.88005997001499248</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -8054,14 +8061,14 @@
       </c>
       <c r="C61" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B60:K60)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D61" s="16">
         <v>11</v>
       </c>
       <c r="E61" s="16">
         <f t="shared" si="11"/>
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="F61" s="16">
         <f t="shared" si="12"/>
@@ -8069,7 +8076,7 @@
       </c>
       <c r="G61" s="20">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="20">
         <f t="shared" si="14"/>
@@ -8077,11 +8084,11 @@
       </c>
       <c r="I61" s="16">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>-11</v>
       </c>
       <c r="J61" s="20">
         <f t="shared" si="16"/>
-        <v>9.0909090909090912E-2</v>
+        <v>-1</v>
       </c>
       <c r="K61" s="16">
         <v>11</v>
@@ -8091,19 +8098,19 @@
       </c>
       <c r="M61" s="20">
         <f t="shared" si="19"/>
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="N61" s="16">
         <f t="shared" si="17"/>
-        <v>-214</v>
+        <v>-226</v>
       </c>
       <c r="O61" s="20">
         <f t="shared" si="18"/>
-        <v>-0.94690265486725667</v>
+        <v>-1</v>
       </c>
       <c r="P61" s="16">
         <f>SUM('Отчет по грузообороту'!B60:K60)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="16">
         <v>10</v>
@@ -8113,7 +8120,7 @@
       </c>
       <c r="S61" s="20">
         <f t="shared" si="20"/>
-        <v>-0.94285714285714284</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -8198,14 +8205,14 @@
       </c>
       <c r="C63" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B62:K62)</f>
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D63" s="16">
         <v>32</v>
       </c>
       <c r="E63" s="16">
         <f t="shared" si="11"/>
-        <v>-68</v>
+        <v>0</v>
       </c>
       <c r="F63" s="16">
         <f t="shared" si="12"/>
@@ -8213,7 +8220,7 @@
       </c>
       <c r="G63" s="20">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="20">
         <f t="shared" si="14"/>
@@ -8221,11 +8228,11 @@
       </c>
       <c r="I63" s="16">
         <f t="shared" si="15"/>
-        <v>41</v>
+        <v>-27</v>
       </c>
       <c r="J63" s="20">
         <f t="shared" si="16"/>
-        <v>1.5185185185185186</v>
+        <v>-1</v>
       </c>
       <c r="K63" s="16">
         <v>27</v>
@@ -8235,19 +8242,19 @@
       </c>
       <c r="M63" s="20">
         <f t="shared" si="19"/>
-        <v>2.5789473684210527</v>
+        <v>-1</v>
       </c>
       <c r="N63" s="16">
         <f t="shared" si="17"/>
-        <v>-581</v>
+        <v>-649</v>
       </c>
       <c r="O63" s="20">
         <f t="shared" si="18"/>
-        <v>-0.89522342064714944</v>
+        <v>-1</v>
       </c>
       <c r="P63" s="16">
         <f>SUM('Отчет по грузообороту'!B62:K62)</f>
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="16">
         <v>19</v>
@@ -8257,7 +8264,7 @@
       </c>
       <c r="S63" s="20">
         <f t="shared" si="20"/>
-        <v>-0.85120350109409193</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:19" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -8933,7 +8940,7 @@
       </c>
       <c r="C73" s="15">
         <f>SUM(C74:C77)</f>
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="D73" s="15">
         <f>SUM(D74:D77)</f>
@@ -8941,7 +8948,7 @@
       </c>
       <c r="E73" s="15">
         <f t="shared" si="21"/>
-        <v>-170</v>
+        <v>0</v>
       </c>
       <c r="F73" s="15">
         <f t="shared" si="22"/>
@@ -8949,7 +8956,7 @@
       </c>
       <c r="G73" s="19">
         <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H73" s="19">
         <f t="shared" si="24"/>
@@ -8957,11 +8964,11 @@
       </c>
       <c r="I73" s="15">
         <f t="shared" si="25"/>
-        <v>28</v>
+        <v>-142</v>
       </c>
       <c r="J73" s="19">
         <f t="shared" si="26"/>
-        <v>0.19718309859154928</v>
+        <v>-1</v>
       </c>
       <c r="K73" s="15">
         <f>SUM(K74:K77)</f>
@@ -8973,19 +8980,19 @@
       </c>
       <c r="M73" s="19">
         <f t="shared" si="19"/>
-        <v>-0.40559440559440557</v>
+        <v>-1</v>
       </c>
       <c r="N73" s="15">
         <f t="shared" si="27"/>
-        <v>-2937</v>
+        <v>-3107</v>
       </c>
       <c r="O73" s="19">
         <f t="shared" si="28"/>
-        <v>-0.94528484068233021</v>
+        <v>-1</v>
       </c>
       <c r="P73" s="15">
         <f>SUM(P74:P77)</f>
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="Q73" s="15">
         <f>SUM(Q74:Q77)</f>
@@ -8997,7 +9004,7 @@
       </c>
       <c r="S73" s="19">
         <f t="shared" si="20"/>
-        <v>-0.97245625405055092</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -9010,14 +9017,14 @@
       </c>
       <c r="C74" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B73:K73)</f>
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="D74" s="16">
         <v>153</v>
       </c>
       <c r="E74" s="16">
         <f t="shared" si="21"/>
-        <v>-122</v>
+        <v>0</v>
       </c>
       <c r="F74" s="16">
         <f t="shared" si="22"/>
@@ -9025,7 +9032,7 @@
       </c>
       <c r="G74" s="20">
         <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H74" s="20">
         <f t="shared" si="24"/>
@@ -9033,11 +9040,11 @@
       </c>
       <c r="I74" s="16">
         <f t="shared" si="25"/>
-        <v>-3</v>
+        <v>-125</v>
       </c>
       <c r="J74" s="20">
         <f t="shared" si="26"/>
-        <v>-2.4E-2</v>
+        <v>-1</v>
       </c>
       <c r="K74" s="16">
         <v>125</v>
@@ -9047,19 +9054,19 @@
       </c>
       <c r="M74" s="20">
         <f t="shared" si="19"/>
-        <v>-0.53256704980842917</v>
+        <v>-1</v>
       </c>
       <c r="N74" s="16">
         <f t="shared" si="27"/>
-        <v>-2621</v>
+        <v>-2743</v>
       </c>
       <c r="O74" s="20">
         <f t="shared" si="28"/>
-        <v>-0.955523149835946</v>
+        <v>-1</v>
       </c>
       <c r="P74" s="16">
         <f>SUM('Отчет по грузообороту'!B73:K73)</f>
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="Q74" s="16">
         <v>261</v>
@@ -9069,7 +9076,7 @@
       </c>
       <c r="S74" s="20">
         <f t="shared" si="20"/>
-        <v>-0.97838795394154121</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -9082,14 +9089,14 @@
       </c>
       <c r="C75" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B74:K74)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D75" s="16">
         <v>8</v>
       </c>
       <c r="E75" s="16">
         <f t="shared" si="21"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="F75" s="16">
         <f t="shared" si="22"/>
@@ -9097,7 +9104,7 @@
       </c>
       <c r="G75" s="20">
         <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H75" s="20">
         <f t="shared" si="24"/>
@@ -9105,11 +9112,11 @@
       </c>
       <c r="I75" s="16">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="J75" s="20">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K75" s="16">
         <v>7</v>
@@ -9119,19 +9126,19 @@
       </c>
       <c r="M75" s="20">
         <f t="shared" si="19"/>
-        <v>-0.53333333333333333</v>
+        <v>-1</v>
       </c>
       <c r="N75" s="16">
         <f t="shared" si="27"/>
-        <v>-143</v>
+        <v>-150</v>
       </c>
       <c r="O75" s="20">
         <f t="shared" si="28"/>
-        <v>-0.95333333333333337</v>
+        <v>-1</v>
       </c>
       <c r="P75" s="16">
         <f>SUM('Отчет по грузообороту'!B74:K74)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q75" s="16">
         <v>15</v>
@@ -9141,7 +9148,7 @@
       </c>
       <c r="S75" s="20">
         <f t="shared" si="20"/>
-        <v>-0.97791798107255523</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -9154,14 +9161,14 @@
       </c>
       <c r="C76" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B75:K75)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D76" s="16">
         <v>9</v>
       </c>
       <c r="E76" s="16">
         <f t="shared" si="21"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="F76" s="16">
         <f t="shared" si="22"/>
@@ -9169,7 +9176,7 @@
       </c>
       <c r="G76" s="20">
         <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H76" s="20">
         <f t="shared" si="24"/>
@@ -9177,11 +9184,11 @@
       </c>
       <c r="I76" s="16">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="J76" s="20">
         <f t="shared" si="26"/>
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="K76" s="16">
         <v>5</v>
@@ -9195,15 +9202,15 @@
       </c>
       <c r="N76" s="16">
         <f t="shared" si="27"/>
-        <v>-105</v>
+        <v>-111</v>
       </c>
       <c r="O76" s="20">
         <f t="shared" si="28"/>
-        <v>-0.94594594594594594</v>
+        <v>-1</v>
       </c>
       <c r="P76" s="16">
         <f>SUM('Отчет по грузообороту'!B75:K75)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="16">
         <v>0</v>
@@ -9226,14 +9233,14 @@
       </c>
       <c r="C77" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B76:K76)</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D77" s="16">
         <v>39</v>
       </c>
       <c r="E77" s="16">
         <f t="shared" si="21"/>
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="F77" s="16">
         <f t="shared" si="22"/>
@@ -9241,7 +9248,7 @@
       </c>
       <c r="G77" s="20">
         <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H77" s="20">
         <f t="shared" si="24"/>
@@ -9249,11 +9256,11 @@
       </c>
       <c r="I77" s="16">
         <f t="shared" si="25"/>
-        <v>30</v>
+        <v>-5</v>
       </c>
       <c r="J77" s="20">
         <f t="shared" si="26"/>
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="K77" s="16">
         <v>5</v>
@@ -9263,19 +9270,19 @@
       </c>
       <c r="M77" s="20">
         <f t="shared" si="19"/>
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="N77" s="16">
         <f t="shared" si="27"/>
-        <v>-68</v>
+        <v>-103</v>
       </c>
       <c r="O77" s="20">
         <f t="shared" si="28"/>
-        <v>-0.66019417475728159</v>
+        <v>-1</v>
       </c>
       <c r="P77" s="16">
         <f>SUM('Отчет по грузообороту'!B76:K76)</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q77" s="16">
         <v>10</v>
@@ -9285,7 +9292,7 @@
       </c>
       <c r="S77" s="20">
         <f t="shared" si="20"/>
-        <v>-0.83333333333333337</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -9298,7 +9305,7 @@
       </c>
       <c r="C78" s="14">
         <f>C79+C86</f>
-        <v>2270</v>
+        <v>0</v>
       </c>
       <c r="D78" s="14">
         <f>D79+D86</f>
@@ -9306,7 +9313,7 @@
       </c>
       <c r="E78" s="14">
         <f t="shared" si="21"/>
-        <v>-2270</v>
+        <v>0</v>
       </c>
       <c r="F78" s="14">
         <f t="shared" si="22"/>
@@ -9314,7 +9321,7 @@
       </c>
       <c r="G78" s="18">
         <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H78" s="18">
         <f t="shared" si="24"/>
@@ -9322,11 +9329,11 @@
       </c>
       <c r="I78" s="14">
         <f t="shared" si="25"/>
-        <v>981</v>
+        <v>-1289</v>
       </c>
       <c r="J78" s="18">
         <f t="shared" si="26"/>
-        <v>0.76105508145849499</v>
+        <v>-1</v>
       </c>
       <c r="K78" s="14">
         <f>K79+K86</f>
@@ -9338,19 +9345,19 @@
       </c>
       <c r="M78" s="18">
         <f t="shared" si="19"/>
-        <v>2.9754816112084064</v>
+        <v>-1</v>
       </c>
       <c r="N78" s="14">
         <f t="shared" si="27"/>
-        <v>-25751</v>
+        <v>-28021</v>
       </c>
       <c r="O78" s="18">
         <f t="shared" si="28"/>
-        <v>-0.9189893294314978</v>
+        <v>-1</v>
       </c>
       <c r="P78" s="14">
         <f>P79+P86</f>
-        <v>2270</v>
+        <v>0</v>
       </c>
       <c r="Q78" s="14">
         <f>Q79+Q86</f>
@@ -9362,7 +9369,7 @@
       </c>
       <c r="S78" s="18">
         <f t="shared" si="20"/>
-        <v>-0.81734792404248469</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9375,7 +9382,7 @@
       </c>
       <c r="C79" s="15">
         <f>C80+C83</f>
-        <v>1493</v>
+        <v>0</v>
       </c>
       <c r="D79" s="15">
         <f>D80+D83</f>
@@ -9383,7 +9390,7 @@
       </c>
       <c r="E79" s="15">
         <f t="shared" si="21"/>
-        <v>-1493</v>
+        <v>0</v>
       </c>
       <c r="F79" s="15">
         <f t="shared" si="22"/>
@@ -9391,7 +9398,7 @@
       </c>
       <c r="G79" s="19">
         <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H79" s="19">
         <f t="shared" si="24"/>
@@ -9399,11 +9406,11 @@
       </c>
       <c r="I79" s="15">
         <f t="shared" si="25"/>
-        <v>437</v>
+        <v>-1056</v>
       </c>
       <c r="J79" s="19">
         <f t="shared" si="26"/>
-        <v>0.41382575757575757</v>
+        <v>-1</v>
       </c>
       <c r="K79" s="15">
         <f>K80+K83</f>
@@ -9415,19 +9422,19 @@
       </c>
       <c r="M79" s="19">
         <f t="shared" si="19"/>
-        <v>2.9813333333333332</v>
+        <v>-1</v>
       </c>
       <c r="N79" s="15">
         <f t="shared" si="27"/>
-        <v>-21723</v>
+        <v>-23216</v>
       </c>
       <c r="O79" s="19">
         <f t="shared" si="28"/>
-        <v>-0.93569090282563749</v>
+        <v>-1</v>
       </c>
       <c r="P79" s="15">
         <f>P80+P83</f>
-        <v>1493</v>
+        <v>0</v>
       </c>
       <c r="Q79" s="15">
         <f>Q80+Q83</f>
@@ -9439,7 +9446,7 @@
       </c>
       <c r="S79" s="19">
         <f t="shared" si="20"/>
-        <v>-0.81953342197509971</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:19" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
@@ -9452,7 +9459,7 @@
       </c>
       <c r="C80" s="15">
         <f>C81+C82</f>
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="D80" s="15">
         <f>D81+D82</f>
@@ -9460,7 +9467,7 @@
       </c>
       <c r="E80" s="15">
         <f t="shared" si="21"/>
-        <v>-263</v>
+        <v>0</v>
       </c>
       <c r="F80" s="15">
         <f t="shared" si="22"/>
@@ -9468,7 +9475,7 @@
       </c>
       <c r="G80" s="19">
         <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H80" s="19">
         <f t="shared" si="24"/>
@@ -9476,11 +9483,11 @@
       </c>
       <c r="I80" s="15">
         <f t="shared" si="25"/>
-        <v>198</v>
+        <v>-65</v>
       </c>
       <c r="J80" s="19">
         <f t="shared" si="26"/>
-        <v>3.046153846153846</v>
+        <v>-1</v>
       </c>
       <c r="K80" s="15">
         <f>K81+K82</f>
@@ -9492,19 +9499,19 @@
       </c>
       <c r="M80" s="19">
         <f t="shared" si="19"/>
-        <v>20.916666666666668</v>
+        <v>-1</v>
       </c>
       <c r="N80" s="15">
         <f t="shared" si="27"/>
-        <v>-1140</v>
+        <v>-1403</v>
       </c>
       <c r="O80" s="19">
         <f t="shared" si="28"/>
-        <v>-0.81254454739843196</v>
+        <v>-1</v>
       </c>
       <c r="P80" s="15">
         <f>P81+P82</f>
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="Q80" s="15">
         <f>Q81+Q82</f>
@@ -9516,7 +9523,7 @@
       </c>
       <c r="S80" s="19">
         <f t="shared" si="20"/>
-        <v>-0.43318965517241381</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -9529,14 +9536,14 @@
       </c>
       <c r="C81" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B80:K80)</f>
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D81" s="16">
         <v>83</v>
       </c>
       <c r="E81" s="16">
         <f t="shared" si="21"/>
-        <v>-88</v>
+        <v>0</v>
       </c>
       <c r="F81" s="16">
         <f t="shared" si="22"/>
@@ -9544,7 +9551,7 @@
       </c>
       <c r="G81" s="20">
         <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H81" s="20">
         <f t="shared" si="24"/>
@@ -9552,11 +9559,11 @@
       </c>
       <c r="I81" s="16">
         <f t="shared" si="25"/>
-        <v>39</v>
+        <v>-49</v>
       </c>
       <c r="J81" s="20">
         <f t="shared" si="26"/>
-        <v>0.79591836734693877</v>
+        <v>-1</v>
       </c>
       <c r="K81" s="16">
         <v>49</v>
@@ -9566,19 +9573,19 @@
       </c>
       <c r="M81" s="20">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="N81" s="16">
         <f t="shared" si="27"/>
-        <v>-974</v>
+        <v>-1062</v>
       </c>
       <c r="O81" s="20">
         <f t="shared" si="28"/>
-        <v>-0.91713747645951038</v>
+        <v>-1</v>
       </c>
       <c r="P81" s="16">
         <f>SUM('Отчет по грузообороту'!B80:K80)</f>
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="16">
         <v>11</v>
@@ -9588,7 +9595,7 @@
       </c>
       <c r="S81" s="20">
         <f t="shared" si="20"/>
-        <v>-0.62068965517241381</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -9601,14 +9608,14 @@
       </c>
       <c r="C82" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B81:K81)</f>
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="D82" s="16">
         <v>122</v>
       </c>
       <c r="E82" s="16">
         <f t="shared" si="21"/>
-        <v>-175</v>
+        <v>0</v>
       </c>
       <c r="F82" s="16">
         <f t="shared" si="22"/>
@@ -9616,7 +9623,7 @@
       </c>
       <c r="G82" s="20">
         <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H82" s="20">
         <f t="shared" si="24"/>
@@ -9624,11 +9631,11 @@
       </c>
       <c r="I82" s="16">
         <f t="shared" si="25"/>
-        <v>159</v>
+        <v>-16</v>
       </c>
       <c r="J82" s="20">
         <f t="shared" si="26"/>
-        <v>9.9375</v>
+        <v>-1</v>
       </c>
       <c r="K82" s="16">
         <v>16</v>
@@ -9638,19 +9645,19 @@
       </c>
       <c r="M82" s="20">
         <f t="shared" si="19"/>
-        <v>174</v>
+        <v>-1</v>
       </c>
       <c r="N82" s="16">
         <f t="shared" si="27"/>
-        <v>-166</v>
+        <v>-341</v>
       </c>
       <c r="O82" s="20">
         <f t="shared" si="28"/>
-        <v>-0.48680351906158359</v>
+        <v>-1</v>
       </c>
       <c r="P82" s="16">
         <f>SUM('Отчет по грузообороту'!B81:K81)</f>
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="Q82" s="16">
         <v>1</v>
@@ -9660,7 +9667,7 @@
       </c>
       <c r="S82" s="20">
         <f t="shared" si="20"/>
-        <v>12.461538461538462</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:19" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
@@ -9673,7 +9680,7 @@
       </c>
       <c r="C83" s="15">
         <f>C84+C85</f>
-        <v>1230</v>
+        <v>0</v>
       </c>
       <c r="D83" s="15">
         <f>D84+D85</f>
@@ -9681,7 +9688,7 @@
       </c>
       <c r="E83" s="15">
         <f t="shared" si="21"/>
-        <v>-1230</v>
+        <v>0</v>
       </c>
       <c r="F83" s="15">
         <f t="shared" si="22"/>
@@ -9689,7 +9696,7 @@
       </c>
       <c r="G83" s="19">
         <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H83" s="19">
         <f t="shared" si="24"/>
@@ -9697,11 +9704,11 @@
       </c>
       <c r="I83" s="15">
         <f t="shared" si="25"/>
-        <v>239</v>
+        <v>-991</v>
       </c>
       <c r="J83" s="19">
         <f t="shared" si="26"/>
-        <v>0.24117053481331988</v>
+        <v>-1</v>
       </c>
       <c r="K83" s="15">
         <f>K84+K85</f>
@@ -9713,19 +9720,19 @@
       </c>
       <c r="M83" s="19">
         <f t="shared" si="19"/>
-        <v>2.3884297520661155</v>
+        <v>-1</v>
       </c>
       <c r="N83" s="15">
         <f t="shared" si="27"/>
-        <v>-20583</v>
+        <v>-21813</v>
       </c>
       <c r="O83" s="19">
         <f t="shared" si="28"/>
-        <v>-0.94361160775684227</v>
+        <v>-1</v>
       </c>
       <c r="P83" s="15">
         <f>P84+P85</f>
-        <v>1230</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="15">
         <f>Q84+Q85</f>
@@ -9737,7 +9744,7 @@
       </c>
       <c r="S83" s="19">
         <f t="shared" si="20"/>
-        <v>-0.8424894352669996</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -9750,14 +9757,14 @@
       </c>
       <c r="C84" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B83:K83)</f>
-        <v>982</v>
+        <v>0</v>
       </c>
       <c r="D84" s="16">
         <v>868</v>
       </c>
       <c r="E84" s="16">
         <f t="shared" si="21"/>
-        <v>-982</v>
+        <v>0</v>
       </c>
       <c r="F84" s="16">
         <f t="shared" si="22"/>
@@ -9765,7 +9772,7 @@
       </c>
       <c r="G84" s="20">
         <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H84" s="20">
         <f t="shared" si="24"/>
@@ -9773,11 +9780,11 @@
       </c>
       <c r="I84" s="16">
         <f t="shared" si="25"/>
-        <v>120</v>
+        <v>-862</v>
       </c>
       <c r="J84" s="20">
         <f t="shared" si="26"/>
-        <v>0.13921113689095127</v>
+        <v>-1</v>
       </c>
       <c r="K84" s="16">
         <v>862</v>
@@ -9787,19 +9794,19 @@
       </c>
       <c r="M84" s="20">
         <f t="shared" si="19"/>
-        <v>1.7897727272727273</v>
+        <v>-1</v>
       </c>
       <c r="N84" s="16">
         <f t="shared" si="27"/>
-        <v>-17979</v>
+        <v>-18961</v>
       </c>
       <c r="O84" s="20">
         <f t="shared" si="28"/>
-        <v>-0.9482094826222246</v>
+        <v>-1</v>
       </c>
       <c r="P84" s="16">
         <f>SUM('Отчет по грузообороту'!B83:K83)</f>
-        <v>982</v>
+        <v>0</v>
       </c>
       <c r="Q84" s="16">
         <v>352</v>
@@ -9809,7 +9816,7 @@
       </c>
       <c r="S84" s="20">
         <f t="shared" si="20"/>
-        <v>-0.869640249568565</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -9822,14 +9829,14 @@
       </c>
       <c r="C85" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B84:K84)</f>
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="D85" s="16">
         <v>281</v>
       </c>
       <c r="E85" s="16">
         <f t="shared" si="21"/>
-        <v>-248</v>
+        <v>0</v>
       </c>
       <c r="F85" s="16">
         <f t="shared" si="22"/>
@@ -9837,7 +9844,7 @@
       </c>
       <c r="G85" s="20">
         <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H85" s="20">
         <f t="shared" si="24"/>
@@ -9845,11 +9852,11 @@
       </c>
       <c r="I85" s="16">
         <f t="shared" si="25"/>
-        <v>119</v>
+        <v>-129</v>
       </c>
       <c r="J85" s="20">
         <f t="shared" si="26"/>
-        <v>0.92248062015503873</v>
+        <v>-1</v>
       </c>
       <c r="K85" s="16">
         <v>129</v>
@@ -9859,19 +9866,19 @@
       </c>
       <c r="M85" s="20">
         <f t="shared" si="19"/>
-        <v>21.545454545454547</v>
+        <v>-1</v>
       </c>
       <c r="N85" s="16">
         <f t="shared" si="27"/>
-        <v>-2604</v>
+        <v>-2852</v>
       </c>
       <c r="O85" s="20">
         <f t="shared" si="28"/>
-        <v>-0.91304347826086951</v>
+        <v>-1</v>
       </c>
       <c r="P85" s="16">
         <f>SUM('Отчет по грузообороту'!B84:K84)</f>
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="Q85" s="16">
         <v>11</v>
@@ -9881,7 +9888,7 @@
       </c>
       <c r="S85" s="20">
         <f t="shared" si="20"/>
-        <v>-0.10144927536231885</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -9894,7 +9901,7 @@
       </c>
       <c r="C86" s="15">
         <f>C87+C90</f>
-        <v>777</v>
+        <v>0</v>
       </c>
       <c r="D86" s="15">
         <f>D87+D90</f>
@@ -9902,7 +9909,7 @@
       </c>
       <c r="E86" s="15">
         <f t="shared" si="21"/>
-        <v>-777</v>
+        <v>0</v>
       </c>
       <c r="F86" s="15">
         <f t="shared" si="22"/>
@@ -9910,7 +9917,7 @@
       </c>
       <c r="G86" s="19">
         <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H86" s="19">
         <f t="shared" si="24"/>
@@ -9918,11 +9925,11 @@
       </c>
       <c r="I86" s="15">
         <f t="shared" si="25"/>
-        <v>544</v>
+        <v>-233</v>
       </c>
       <c r="J86" s="19">
         <f t="shared" si="26"/>
-        <v>2.3347639484978542</v>
+        <v>-1</v>
       </c>
       <c r="K86" s="15">
         <f>K87+K90</f>
@@ -9934,19 +9941,19 @@
       </c>
       <c r="M86" s="19">
         <f t="shared" si="19"/>
-        <v>2.9642857142857144</v>
+        <v>-1</v>
       </c>
       <c r="N86" s="15">
         <f t="shared" si="27"/>
-        <v>-4028</v>
+        <v>-4805</v>
       </c>
       <c r="O86" s="19">
         <f t="shared" si="28"/>
-        <v>-0.83829344432882413</v>
+        <v>-1</v>
       </c>
       <c r="P86" s="15">
         <f>P87+P90</f>
-        <v>777</v>
+        <v>0</v>
       </c>
       <c r="Q86" s="15">
         <f>Q87+Q90</f>
@@ -9958,7 +9965,7 @@
       </c>
       <c r="S86" s="19">
         <f t="shared" si="20"/>
-        <v>-0.81299638989169676</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:19" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
@@ -9971,7 +9978,7 @@
       </c>
       <c r="C87" s="15">
         <f>C88+C89</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D87" s="15">
         <f>D88+D89</f>
@@ -9979,7 +9986,7 @@
       </c>
       <c r="E87" s="15">
         <f t="shared" si="21"/>
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="F87" s="15">
         <f t="shared" si="22"/>
@@ -9987,7 +9994,7 @@
       </c>
       <c r="G87" s="19">
         <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H87" s="19">
         <f t="shared" si="24"/>
@@ -9995,11 +10002,11 @@
       </c>
       <c r="I87" s="15">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>-30</v>
       </c>
       <c r="J87" s="19">
         <f t="shared" si="26"/>
-        <v>0.33333333333333331</v>
+        <v>-1</v>
       </c>
       <c r="K87" s="15">
         <f>K88+K89</f>
@@ -10011,19 +10018,19 @@
       </c>
       <c r="M87" s="19">
         <f t="shared" si="19"/>
-        <v>1.1052631578947369</v>
+        <v>-1</v>
       </c>
       <c r="N87" s="15">
         <f t="shared" si="27"/>
-        <v>-541</v>
+        <v>-581</v>
       </c>
       <c r="O87" s="19">
         <f t="shared" si="28"/>
-        <v>-0.93115318416523241</v>
+        <v>-1</v>
       </c>
       <c r="P87" s="15">
         <f>P88+P89</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q87" s="15">
         <f>Q88+Q89</f>
@@ -10035,7 +10042,7 @@
       </c>
       <c r="S87" s="19">
         <f t="shared" si="20"/>
-        <v>-0.90243902439024393</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -10048,14 +10055,14 @@
       </c>
       <c r="C88" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B87:K87)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D88" s="16">
         <v>7</v>
       </c>
       <c r="E88" s="16">
         <f t="shared" si="21"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F88" s="16">
         <f t="shared" si="22"/>
@@ -10063,7 +10070,7 @@
       </c>
       <c r="G88" s="20">
         <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H88" s="20">
         <f t="shared" si="24"/>
@@ -10071,11 +10078,11 @@
       </c>
       <c r="I88" s="16">
         <f t="shared" si="25"/>
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="J88" s="20">
         <f t="shared" si="26"/>
-        <v>-0.375</v>
+        <v>-1</v>
       </c>
       <c r="K88" s="16">
         <v>8</v>
@@ -10085,19 +10092,19 @@
       </c>
       <c r="M88" s="20">
         <f t="shared" si="19"/>
-        <v>-0.16666666666666666</v>
+        <v>-1</v>
       </c>
       <c r="N88" s="16">
         <f t="shared" si="27"/>
-        <v>-165</v>
+        <v>-170</v>
       </c>
       <c r="O88" s="20">
         <f t="shared" si="28"/>
-        <v>-0.97058823529411764</v>
+        <v>-1</v>
       </c>
       <c r="P88" s="16">
         <f>SUM('Отчет по грузообороту'!B87:K87)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q88" s="16">
         <v>6</v>
@@ -10107,7 +10114,7 @@
       </c>
       <c r="S88" s="20">
         <f t="shared" ref="S88:S92" si="29">IFERROR((P88-R88)/R88,0)</f>
-        <v>-0.96527777777777779</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -10120,14 +10127,14 @@
       </c>
       <c r="C89" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B88:K88)</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D89" s="16">
         <v>36</v>
       </c>
       <c r="E89" s="16">
         <f t="shared" si="21"/>
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="F89" s="16">
         <f t="shared" si="22"/>
@@ -10135,7 +10142,7 @@
       </c>
       <c r="G89" s="20">
         <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H89" s="20">
         <f t="shared" si="24"/>
@@ -10143,11 +10150,11 @@
       </c>
       <c r="I89" s="16">
         <f t="shared" si="25"/>
-        <v>13</v>
+        <v>-22</v>
       </c>
       <c r="J89" s="20">
         <f t="shared" si="26"/>
-        <v>0.59090909090909094</v>
+        <v>-1</v>
       </c>
       <c r="K89" s="16">
         <v>22</v>
@@ -10157,19 +10164,19 @@
       </c>
       <c r="M89" s="20">
         <f t="shared" si="19"/>
-        <v>1.6923076923076923</v>
+        <v>-1</v>
       </c>
       <c r="N89" s="16">
         <f t="shared" si="27"/>
-        <v>-376</v>
+        <v>-411</v>
       </c>
       <c r="O89" s="20">
         <f t="shared" si="28"/>
-        <v>-0.91484184914841848</v>
+        <v>-1</v>
       </c>
       <c r="P89" s="16">
         <f>SUM('Отчет по грузообороту'!B88:K88)</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="16">
         <v>13</v>
@@ -10179,7 +10186,7 @@
       </c>
       <c r="S89" s="20">
         <f t="shared" si="29"/>
-        <v>-0.86842105263157898</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:19" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
@@ -10192,7 +10199,7 @@
       </c>
       <c r="C90" s="15">
         <f>C91+C92</f>
-        <v>737</v>
+        <v>0</v>
       </c>
       <c r="D90" s="15">
         <f>D91+D92</f>
@@ -10200,7 +10207,7 @@
       </c>
       <c r="E90" s="15">
         <f t="shared" si="21"/>
-        <v>-737</v>
+        <v>0</v>
       </c>
       <c r="F90" s="15">
         <f t="shared" si="22"/>
@@ -10208,7 +10215,7 @@
       </c>
       <c r="G90" s="19">
         <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H90" s="19">
         <f t="shared" si="24"/>
@@ -10216,11 +10223,11 @@
       </c>
       <c r="I90" s="15">
         <f t="shared" si="25"/>
-        <v>534</v>
+        <v>-203</v>
       </c>
       <c r="J90" s="19">
         <f t="shared" si="26"/>
-        <v>2.6305418719211824</v>
+        <v>-1</v>
       </c>
       <c r="K90" s="15">
         <f>K91+K92</f>
@@ -10232,19 +10239,19 @@
       </c>
       <c r="M90" s="19">
         <f t="shared" si="19"/>
-        <v>3.1638418079096047</v>
+        <v>-1</v>
       </c>
       <c r="N90" s="15">
         <f t="shared" si="27"/>
-        <v>-3487</v>
+        <v>-4224</v>
       </c>
       <c r="O90" s="19">
         <f t="shared" si="28"/>
-        <v>-0.82552083333333337</v>
+        <v>-1</v>
       </c>
       <c r="P90" s="15">
         <f>P91+P92</f>
-        <v>737</v>
+        <v>0</v>
       </c>
       <c r="Q90" s="15">
         <f>Q91+Q92</f>
@@ -10256,7 +10263,7 @@
       </c>
       <c r="S90" s="19">
         <f t="shared" si="29"/>
-        <v>-0.80320427236315084</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -10269,14 +10276,14 @@
       </c>
       <c r="C91" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B90:K90)</f>
-        <v>715</v>
+        <v>0</v>
       </c>
       <c r="D91" s="16">
         <v>520</v>
       </c>
       <c r="E91" s="16">
         <f t="shared" si="21"/>
-        <v>-715</v>
+        <v>0</v>
       </c>
       <c r="F91" s="16">
         <f t="shared" si="22"/>
@@ -10284,7 +10291,7 @@
       </c>
       <c r="G91" s="20">
         <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H91" s="20">
         <f t="shared" si="24"/>
@@ -10292,11 +10299,11 @@
       </c>
       <c r="I91" s="16">
         <f t="shared" si="25"/>
-        <v>531</v>
+        <v>-184</v>
       </c>
       <c r="J91" s="20">
         <f t="shared" si="26"/>
-        <v>2.8858695652173911</v>
+        <v>-1</v>
       </c>
       <c r="K91" s="16">
         <v>184</v>
@@ -10306,19 +10313,19 @@
       </c>
       <c r="M91" s="20">
         <f t="shared" si="19"/>
-        <v>3.4968553459119498</v>
+        <v>-1</v>
       </c>
       <c r="N91" s="16">
         <f t="shared" si="27"/>
-        <v>-3079</v>
+        <v>-3794</v>
       </c>
       <c r="O91" s="20">
         <f t="shared" si="28"/>
-        <v>-0.81154454401686871</v>
+        <v>-1</v>
       </c>
       <c r="P91" s="16">
         <f>SUM('Отчет по грузообороту'!B90:K90)</f>
-        <v>715</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="16">
         <v>159</v>
@@ -10328,7 +10335,7 @@
       </c>
       <c r="S91" s="20">
         <f t="shared" si="29"/>
-        <v>-0.78087649402390436</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
@@ -10341,14 +10348,14 @@
       </c>
       <c r="C92" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B91:K91)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D92" s="16">
         <v>33</v>
       </c>
       <c r="E92" s="16">
         <f t="shared" si="21"/>
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="F92" s="16">
         <f t="shared" si="22"/>
@@ -10356,7 +10363,7 @@
       </c>
       <c r="G92" s="20">
         <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H92" s="20">
         <f t="shared" si="24"/>
@@ -10364,11 +10371,11 @@
       </c>
       <c r="I92" s="16">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>-19</v>
       </c>
       <c r="J92" s="20">
         <f t="shared" si="26"/>
-        <v>0.15789473684210525</v>
+        <v>-1</v>
       </c>
       <c r="K92" s="16">
         <v>19</v>
@@ -10378,19 +10385,19 @@
       </c>
       <c r="M92" s="20">
         <f t="shared" si="19"/>
-        <v>0.22222222222222221</v>
+        <v>-1</v>
       </c>
       <c r="N92" s="16">
         <f t="shared" si="27"/>
-        <v>-408</v>
+        <v>-430</v>
       </c>
       <c r="O92" s="20">
         <f t="shared" si="28"/>
-        <v>-0.94883720930232562</v>
+        <v>-1</v>
       </c>
       <c r="P92" s="16">
         <f>SUM('Отчет по грузообороту'!B91:K91)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Q92" s="16">
         <v>18</v>
@@ -10400,7 +10407,7 @@
       </c>
       <c r="S92" s="20">
         <f t="shared" si="29"/>
-        <v>-0.9543568464730291</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Rep33.Data/ReportsWorksheets/repshablon.xlsx
+++ b/Rep33.Data/ReportsWorksheets/repshablon.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10815" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10815"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет за день" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,39 @@
   </sheets>
   <definedNames>
     <definedName name="calc1" localSheetId="1">'Отчет по грузообороту'!$B$4</definedName>
+    <definedName name="calc10" localSheetId="1">'Отчет по грузообороту'!$B$28</definedName>
+    <definedName name="calc11" localSheetId="1">'Отчет по грузообороту'!$B$33</definedName>
+    <definedName name="calc12" localSheetId="1">'Отчет по грузообороту'!$B$34</definedName>
+    <definedName name="calc13" localSheetId="1">'Отчет по грузообороту'!$B$37</definedName>
+    <definedName name="calc14" localSheetId="1">'Отчет по грузообороту'!$B$40</definedName>
+    <definedName name="calc15" localSheetId="1">'Отчет по грузообороту'!$B$43</definedName>
+    <definedName name="calc16" localSheetId="1">'Отчет по грузообороту'!$B$48</definedName>
+    <definedName name="calc17" localSheetId="1">'Отчет по грузообороту'!$B$49</definedName>
+    <definedName name="calc18" localSheetId="1">'Отчет по грузообороту'!$B$50</definedName>
+    <definedName name="calc19" localSheetId="1">'Отчет по грузообороту'!$B$52</definedName>
     <definedName name="calc2" localSheetId="1">'Отчет по грузообороту'!$B$5</definedName>
+    <definedName name="calc20" localSheetId="1">'Отчет по грузообороту'!$B$56</definedName>
+    <definedName name="calc21" localSheetId="1">'Отчет по грузообороту'!$B$61</definedName>
+    <definedName name="calc22" localSheetId="1">'Отчет по грузообороту'!$B$62</definedName>
+    <definedName name="calc23" localSheetId="1">'Отчет по грузообороту'!$B$66</definedName>
+    <definedName name="calc24" localSheetId="1">'Отчет по грузообороту'!$B$70</definedName>
+    <definedName name="calc25" localSheetId="1">'Отчет по грузообороту'!$B$71</definedName>
+    <definedName name="calc26" localSheetId="1">'Отчет по грузообороту'!$B$75</definedName>
+    <definedName name="calc27" localSheetId="1">'Отчет по грузообороту'!$B$79</definedName>
+    <definedName name="calc28" localSheetId="1">'Отчет по грузообороту'!$B$84</definedName>
+    <definedName name="calc29" localSheetId="1">'Отчет по грузообороту'!$B$85</definedName>
     <definedName name="calc3" localSheetId="1">'Отчет по грузообороту'!$B$6</definedName>
+    <definedName name="calc30" localSheetId="1">'Отчет по грузообороту'!$B$86</definedName>
+    <definedName name="calc31" localSheetId="1">'Отчет по грузообороту'!$B$89</definedName>
+    <definedName name="calc32" localSheetId="1">'Отчет по грузообороту'!$B$92</definedName>
+    <definedName name="calc33" localSheetId="1">'Отчет по грузообороту'!$B$93</definedName>
+    <definedName name="calc34" localSheetId="1">'Отчет по грузообороту'!$B$96</definedName>
     <definedName name="calc4" localSheetId="1">'Отчет по грузообороту'!$B$7</definedName>
+    <definedName name="calc5" localSheetId="1">'Отчет по грузообороту'!$B$12</definedName>
+    <definedName name="calc6" localSheetId="1">'Отчет по грузообороту'!$B$17</definedName>
+    <definedName name="calc7" localSheetId="1">'Отчет по грузообороту'!$B$18</definedName>
+    <definedName name="calc8" localSheetId="1">'Отчет по грузообороту'!$B$22</definedName>
+    <definedName name="calc9" localSheetId="1">'Отчет по грузообороту'!$B$23</definedName>
     <definedName name="IssuedAirCargoAeroflot" localSheetId="0">'Отчет за день'!$Q$8</definedName>
     <definedName name="IssuedAirCargoAeroflot" localSheetId="1">'Отчет по грузообороту'!$B$8</definedName>
     <definedName name="IssuedAirCargoAeroflot" localSheetId="2">'Сравнение показателей грузооб.'!$B$9</definedName>
@@ -31,72 +61,129 @@
     <definedName name="IssuedAirCargoOther" localSheetId="0">'Отчет за день'!$Q$11</definedName>
     <definedName name="IssuedAirCargoOther" localSheetId="1">'Отчет по грузообороту'!$B$11</definedName>
     <definedName name="IssuedAirMailAeroflot" localSheetId="0">'Отчет за день'!$Q$13</definedName>
+    <definedName name="IssuedAirMailAeroflot" localSheetId="1">'Отчет по грузообороту'!$B$13</definedName>
     <definedName name="IssuedAirMailBridge" localSheetId="0">'Отчет за день'!$Q$14</definedName>
+    <definedName name="IssuedAirMailBridge" localSheetId="1">'Отчет по грузообороту'!$B$14</definedName>
     <definedName name="IssuedAirMailNord" localSheetId="0">'Отчет за день'!$Q$15</definedName>
+    <definedName name="IssuedAirMailNord" localSheetId="1">'Отчет по грузообороту'!$B$15</definedName>
     <definedName name="IssuedAirMailOther" localSheetId="0">'Отчет за день'!$Q$16</definedName>
+    <definedName name="IssuedAirMailOther" localSheetId="1">'Отчет по грузообороту'!$B$16</definedName>
     <definedName name="IssuedDepartureAeroflot" localSheetId="0">'Отчет за день'!$Q$44</definedName>
+    <definedName name="IssuedDepartureAeroflot" localSheetId="1">'Отчет по грузообороту'!$B$44</definedName>
     <definedName name="IssuedDepartureBridge" localSheetId="0">'Отчет за день'!$Q$45</definedName>
+    <definedName name="IssuedDepartureBridge" localSheetId="1">'Отчет по грузообороту'!$B$45</definedName>
     <definedName name="IssuedDepartureNord" localSheetId="0">'Отчет за день'!$Q$46</definedName>
+    <definedName name="IssuedDepartureNord" localSheetId="1">'Отчет по грузообороту'!$B$46</definedName>
     <definedName name="IssuedDepartureOther" localSheetId="0">'Отчет за день'!$Q$47</definedName>
+    <definedName name="IssuedDepartureOther" localSheetId="1">'Отчет по грузообороту'!$B$47</definedName>
     <definedName name="IssuedMoscowMVLAeroflotGT1" localSheetId="0">'Отчет за день'!$Q$24</definedName>
+    <definedName name="IssuedMoscowMVLAeroflotGT1" localSheetId="1">'Отчет по грузообороту'!$B$24</definedName>
     <definedName name="IssuedMoscowMVLAeroflotGT2" localSheetId="0">'Отчет за день'!$Q$29</definedName>
+    <definedName name="IssuedMoscowMVLAeroflotGT2" localSheetId="1">'Отчет по грузообороту'!$B$29</definedName>
     <definedName name="IssuedMoscowMVLAirBridgeGT1" localSheetId="0">'Отчет за день'!$Q$25</definedName>
+    <definedName name="IssuedMoscowMVLAirBridgeGT1" localSheetId="1">'Отчет по грузообороту'!$B$25</definedName>
     <definedName name="IssuedMoscowMVLAirBridgeGT2" localSheetId="0">'Отчет за день'!$Q$30</definedName>
+    <definedName name="IssuedMoscowMVLAirBridgeGT2" localSheetId="1">'Отчет по грузообороту'!$B$30</definedName>
     <definedName name="IssuedMoscowMVLNordGT1" localSheetId="0">'Отчет за день'!$Q$26</definedName>
+    <definedName name="IssuedMoscowMVLNordGT1" localSheetId="1">'Отчет по грузообороту'!$B$26</definedName>
     <definedName name="IssuedMoscowMVLNordGT2" localSheetId="0">'Отчет за день'!$Q$31</definedName>
+    <definedName name="IssuedMoscowMVLNordGT2" localSheetId="1">'Отчет по грузообороту'!$B$31</definedName>
     <definedName name="IssuedMoscowMVLOtherGT1" localSheetId="0">'Отчет за день'!$Q$27</definedName>
+    <definedName name="IssuedMoscowMVLOtherGT1" localSheetId="1">'Отчет по грузообороту'!$B$27</definedName>
     <definedName name="IssuedMoscowMVLOtherGT2" localSheetId="0">'Отчет за день'!$Q$32</definedName>
+    <definedName name="IssuedMoscowMVLOtherGT2" localSheetId="1">'Отчет по грузообороту'!$B$32</definedName>
     <definedName name="IssuedMoscowVVLAeroflot" localSheetId="0">'Отчет за день'!$Q$19</definedName>
+    <definedName name="IssuedMoscowVVLAeroflot" localSheetId="1">'Отчет по грузообороту'!$B$19</definedName>
     <definedName name="IssuedMoscowVVLNord" localSheetId="0">'Отчет за день'!$Q$20</definedName>
+    <definedName name="IssuedMoscowVVLNord" localSheetId="1">'Отчет по грузообороту'!$B$20</definedName>
     <definedName name="IssuedMoscowVVLOther" localSheetId="0">'Отчет за день'!$Q$21</definedName>
+    <definedName name="IssuedMoscowVVLOther" localSheetId="1">'Отчет по грузообороту'!$B$21</definedName>
     <definedName name="IssuedSVHAeroflotBoard" localSheetId="0">'Отчет за день'!$Q$36</definedName>
+    <definedName name="IssuedSVHAeroflotBoard" localSheetId="1">'Отчет по грузообороту'!$B$36</definedName>
     <definedName name="IssuedSVHAeroflotStock" localSheetId="0">'Отчет за день'!$Q$35</definedName>
+    <definedName name="IssuedSVHAeroflotStock" localSheetId="1">'Отчет по грузообороту'!$B$35</definedName>
     <definedName name="IssuedSVHBridgeBoard" localSheetId="0">'Отчет за день'!$Q$39</definedName>
+    <definedName name="IssuedSVHBridgeBoard" localSheetId="1">'Отчет по грузообороту'!$B$39</definedName>
     <definedName name="IssuedSVHBridgeStock" localSheetId="0">'Отчет за день'!$Q$38</definedName>
+    <definedName name="IssuedSVHBridgeStock" localSheetId="1">'Отчет по грузообороту'!$B$38</definedName>
     <definedName name="IssuedSVHNordBoard" localSheetId="0">'Отчет за день'!$Q$42</definedName>
+    <definedName name="IssuedSVHNordBoard" localSheetId="1">'Отчет по грузообороту'!$B$42</definedName>
     <definedName name="IssuedSVHNordStock" localSheetId="0">'Отчет за день'!$Q$41</definedName>
+    <definedName name="IssuedSVHNordStock" localSheetId="1">'Отчет по грузообороту'!$B$41</definedName>
     <definedName name="ReceivedAirCargoAeroflot" localSheetId="0">'Отчет за день'!$Q$51</definedName>
+    <definedName name="ReceivedAirCargoAeroflot" localSheetId="1">'Отчет по грузообороту'!$B$51</definedName>
     <definedName name="ReceivedAirCargoBridge" localSheetId="0">'Отчет за день'!$Q$53</definedName>
+    <definedName name="ReceivedAirCargoBridge" localSheetId="1">'Отчет по грузообороту'!$B$53</definedName>
     <definedName name="ReceivedAirCargoNord" localSheetId="0">'Отчет за день'!$Q$54</definedName>
+    <definedName name="ReceivedAirCargoNord" localSheetId="1">'Отчет по грузообороту'!$B$54</definedName>
     <definedName name="ReceivedAirCargoOther" localSheetId="0">'Отчет за день'!$Q$55</definedName>
+    <definedName name="ReceivedAirCargoOther" localSheetId="1">'Отчет по грузообороту'!$B$55</definedName>
     <definedName name="ReceivedAirMailAeroflot" localSheetId="0">'Отчет за день'!$Q$57</definedName>
+    <definedName name="ReceivedAirMailAeroflot" localSheetId="1">'Отчет по грузообороту'!$B$57</definedName>
     <definedName name="ReceivedAirMailBridge" localSheetId="0">'Отчет за день'!$Q$58</definedName>
+    <definedName name="ReceivedAirMailBridge" localSheetId="1">'Отчет по грузообороту'!$B$58</definedName>
     <definedName name="ReceivedAirMailNord" localSheetId="0">'Отчет за день'!$Q$59</definedName>
+    <definedName name="ReceivedAirMailNord" localSheetId="1">'Отчет по грузообороту'!$B$59</definedName>
     <definedName name="ReceivedAirMailOther" localSheetId="0">'Отчет за день'!$Q$60</definedName>
+    <definedName name="ReceivedAirMailOther" localSheetId="1">'Отчет по грузообороту'!$B$60</definedName>
     <definedName name="ReceivedDepartureAeroflot" localSheetId="0">'Отчет за день'!$Q$80</definedName>
+    <definedName name="ReceivedDepartureAeroflot" localSheetId="1">'Отчет по грузообороту'!$B$80</definedName>
     <definedName name="ReceivedDepartureBridge" localSheetId="0">'Отчет за день'!$Q$81</definedName>
+    <definedName name="ReceivedDepartureBridge" localSheetId="1">'Отчет по грузообороту'!$B$81</definedName>
     <definedName name="ReceivedDepartureNord" localSheetId="0">'Отчет за день'!$Q$82</definedName>
+    <definedName name="ReceivedDepartureNord" localSheetId="1">'Отчет по грузообороту'!$B$82</definedName>
     <definedName name="ReceivedDepartureOther" localSheetId="0">'Отчет за день'!$Q$83</definedName>
+    <definedName name="ReceivedDepartureOther" localSheetId="1">'Отчет по грузообороту'!$B$83</definedName>
     <definedName name="ReceivedMoscowMVLAeroflot" localSheetId="0">'Отчет за день'!$Q$67</definedName>
+    <definedName name="ReceivedMoscowMVLAeroflot" localSheetId="1">'Отчет по грузообороту'!$B$67</definedName>
     <definedName name="ReceivedMoscowMVLNord" localSheetId="0">'Отчет за день'!$Q$68</definedName>
+    <definedName name="ReceivedMoscowMVLNord" localSheetId="1">'Отчет по грузообороту'!$B$68</definedName>
     <definedName name="ReceivedMoscowMVLOther" localSheetId="0">'Отчет за день'!$Q$69</definedName>
+    <definedName name="ReceivedMoscowMVLOther" localSheetId="1">'Отчет по грузообороту'!$B$69</definedName>
     <definedName name="ReceivedMoscowVVLAeroflot" localSheetId="0">'Отчет за день'!$Q$63</definedName>
+    <definedName name="ReceivedMoscowVVLAeroflot" localSheetId="1">'Отчет по грузообороту'!$B$63</definedName>
     <definedName name="ReceivedMoscowVVLNord" localSheetId="0">'Отчет за день'!$Q$64</definedName>
+    <definedName name="ReceivedMoscowVVLNord" localSheetId="1">'Отчет по грузообороту'!$B$64</definedName>
     <definedName name="ReceivedMoscowVVLOther" localSheetId="0">'Отчет за день'!$Q$65</definedName>
+    <definedName name="ReceivedMoscowVVLOther" localSheetId="1">'Отчет по грузообороту'!$B$65</definedName>
     <definedName name="ReceivedSVHMVLAeroflot" localSheetId="0">'Отчет за день'!$Q$76</definedName>
+    <definedName name="ReceivedSVHMVLAeroflot" localSheetId="1">'Отчет по грузообороту'!$B$76</definedName>
     <definedName name="ReceivedSVHMVLNord" localSheetId="0">'Отчет за день'!$Q$77</definedName>
+    <definedName name="ReceivedSVHMVLNord" localSheetId="1">'Отчет по грузообороту'!$B$77</definedName>
     <definedName name="ReceivedSVHMVLOther" localSheetId="0">'Отчет за день'!$Q$78</definedName>
+    <definedName name="ReceivedSVHMVLOther" localSheetId="1">'Отчет по грузообороту'!$B$78</definedName>
     <definedName name="ReceivedSVHVVLAeroflot" localSheetId="0">'Отчет за день'!$Q$72</definedName>
+    <definedName name="ReceivedSVHVVLAeroflot" localSheetId="1">'Отчет по грузообороту'!$B$72</definedName>
     <definedName name="ReceivedSVHVVLNord" localSheetId="0">'Отчет за день'!$Q$73</definedName>
+    <definedName name="ReceivedSVHVVLNord" localSheetId="1">'Отчет по грузообороту'!$B$73</definedName>
     <definedName name="ReceivedSVHVVLOther" localSheetId="0">'Отчет за день'!$Q$74</definedName>
+    <definedName name="ReceivedSVHVVLOther" localSheetId="1">'Отчет по грузообороту'!$B$74</definedName>
     <definedName name="RepDate" localSheetId="0">'Отчет за день'!$A$2</definedName>
     <definedName name="RepDate" localSheetId="1">'Отчет по грузообороту'!$A$2</definedName>
     <definedName name="RepDate" localSheetId="2">'Сравнение показателей грузооб.'!$A$2</definedName>
     <definedName name="StockExportMVLExport" localSheetId="0">'Отчет за день'!$Q$98</definedName>
+    <definedName name="StockExportMVLExport" localSheetId="1">'Отчет по грузообороту'!$B$98</definedName>
     <definedName name="StockExportMVLTransfer" localSheetId="0">'Отчет за день'!$Q$97</definedName>
+    <definedName name="StockExportMVLTransfer" localSheetId="1">'Отчет по грузообороту'!$B$97</definedName>
     <definedName name="StockExportVVLExport" localSheetId="0">'Отчет за день'!$Q$95</definedName>
+    <definedName name="StockExportVVLExport" localSheetId="1">'Отчет по грузообороту'!$B$95</definedName>
     <definedName name="StockExportVVLTransfer" localSheetId="0">'Отчет за день'!$Q$94</definedName>
+    <definedName name="StockExportVVLTransfer" localSheetId="1">'Отчет по грузообороту'!$B$94</definedName>
     <definedName name="StockImportMVLProcess" localSheetId="0">'Отчет за день'!$Q$91</definedName>
+    <definedName name="StockImportMVLProcess" localSheetId="1">'Отчет по грузообороту'!$B$91</definedName>
     <definedName name="StockImportMVLReady" localSheetId="0">'Отчет за день'!$Q$90</definedName>
+    <definedName name="StockImportMVLReady" localSheetId="1">'Отчет по грузообороту'!$B$90</definedName>
     <definedName name="StockImportVVLProcess" localSheetId="0">'Отчет за день'!$Q$88</definedName>
+    <definedName name="StockImportVVLProcess" localSheetId="1">'Отчет по грузообороту'!$B$88</definedName>
     <definedName name="StockImportVVLReady" localSheetId="0">'Отчет за день'!$Q$87</definedName>
+    <definedName name="StockImportVVLReady" localSheetId="1">'Отчет по грузообороту'!$B$87</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="58">
   <si>
     <t>Грузооборот Москва Карго за</t>
   </si>
@@ -739,8 +826,8 @@
   </sheetPr>
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" workbookViewId="0">
-      <selection activeCell="Q98" sqref="Q98"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>56</v>
       </c>
@@ -1229,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>6</v>
       </c>
@@ -1252,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>7</v>
       </c>
@@ -1275,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>8</v>
       </c>
@@ -1298,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>9</v>
       </c>
@@ -1321,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>57</v>
       </c>
@@ -1345,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>6</v>
       </c>
@@ -1368,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>7</v>
       </c>
@@ -1391,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>8</v>
       </c>
@@ -1414,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>9</v>
       </c>
@@ -2990,11 +3077,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
@@ -3027,7 +3113,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="13">
-        <f t="shared" ref="B4" si="0">B5+B41</f>
+        <f t="shared" ref="B4" si="0">B5+B48</f>
         <v>0</v>
       </c>
     </row>
@@ -3036,7 +3122,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="14">
-        <f t="shared" ref="B5" si="1">B6+B17+B26</f>
+        <f t="shared" ref="B5" si="1">B6+B17+B33</f>
         <v>0</v>
       </c>
     </row>
@@ -3049,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -3058,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -3066,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -3074,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -3082,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -3090,7 +3176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -3099,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
@@ -3107,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -3115,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
@@ -3123,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
@@ -3131,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -3140,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
@@ -3149,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
@@ -3157,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
@@ -3165,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>9</v>
       </c>
@@ -3173,192 +3259,312 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="15">
-        <f t="shared" ref="B22" si="7">B23+B24+B25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+        <f>Q23+Q28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="24">
+        <f>SUM(Q24:Q27)</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="25">
+        <f>SUM(Q24:Q33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="B24" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="28">
+        <v>0</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="B26" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="B27" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="25">
+        <f>SUM(Q29:Q32)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="25">
+        <f>SUM(Q29:Q32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="28">
+        <v>0</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="28">
+        <v>0</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="28">
+        <v>0</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="28">
+        <v>0</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="15">
-        <f t="shared" ref="B26" si="8">B27+B30+B33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="B33" s="15">
+        <f t="shared" ref="B33" si="7">B34+B37+B40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="15">
-        <f t="shared" ref="B27" si="9">B28+B29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="B34" s="15">
+        <f t="shared" ref="B34" si="8">B35+B36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="B35" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="B36" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="15">
-        <f t="shared" ref="B30" si="10">B31+B32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="B37" s="15">
+        <f t="shared" ref="B37" si="9">B38+B39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="B38" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="B39" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="15">
-        <f t="shared" ref="B33" si="11">B34+B35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="B40" s="15">
+        <f t="shared" ref="B40" si="10">B41+B42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="B41" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="B42" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="15">
-        <f t="shared" ref="B36" si="12">B37+B38+B39+B40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="14">
-        <f t="shared" ref="B41" si="13">B42+B54+B63</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="15">
-        <f t="shared" ref="B42" si="14">B43+B49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="B43" s="15">
-        <f t="shared" ref="B43" si="15">B44+B45+B47+B48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="B43" si="11">B44+B45+B46+B47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -3366,395 +3572,454 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B45" s="16">
-        <f t="shared" ref="B45" si="16">B30+B46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="14">
+        <f t="shared" ref="B48" si="12">B49+B61+B70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="15">
+        <f t="shared" ref="B49" si="13">B50+B56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="15">
+        <f t="shared" ref="B50" si="14">B51+B52+B54+B55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="16">
+        <f t="shared" ref="B52" si="15">B37+B53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="B53" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="B54" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="B55" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="15">
-        <f t="shared" ref="B49" si="17">B50+B51+B52+B53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="B56" s="15">
+        <f t="shared" ref="B56" si="16">B57+B58+B59+B60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="B57" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="B58" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="B59" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="B60" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="15">
-        <f t="shared" ref="B54" si="18">B55+B59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="B61" s="15">
+        <f t="shared" ref="B61" si="17">B62+B66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="15">
-        <f t="shared" ref="B55" si="19">B56+B57+B58</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="B62" s="15">
+        <f t="shared" ref="B62" si="18">B63+B64+B65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="B63" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="B64" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="B65" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="15">
-        <f t="shared" ref="B59" si="20">B60+B61+B62</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+      <c r="B66" s="15">
+        <f t="shared" ref="B66" si="19">B67+B68+B69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="B67" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="B68" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="B69" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B63" s="15">
-        <f t="shared" ref="B63" si="21">B64+B68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="B70" s="15">
+        <f t="shared" ref="B70" si="20">B71+B75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B64" s="15">
-        <f t="shared" ref="B64" si="22">B65+B66+B67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="B71" s="15">
+        <f t="shared" ref="B71" si="21">B72+B73+B74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+      <c r="B72" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+      <c r="B73" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+      <c r="B74" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="15">
-        <f t="shared" ref="B68" si="23">B69+B70+B71</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+      <c r="B75" s="15">
+        <f t="shared" ref="B75" si="22">B76+B77+B78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
+      <c r="B76" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
+      <c r="B77" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="B78" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B72" s="15">
-        <f t="shared" ref="B72" si="24">SUM(B73:B76)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="B79" s="15">
+        <f t="shared" ref="B79" si="23">SUM(B80:B83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+      <c r="B80" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B74" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+      <c r="B81" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B75" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
+      <c r="B82" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="B83" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="14">
-        <f t="shared" ref="B77" si="25">B78+B85</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+      <c r="B84" s="14">
+        <f t="shared" ref="B84" si="24">B85+B92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B78" s="15">
-        <f t="shared" ref="B78" si="26">B79+B82</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" s="15">
-        <f t="shared" ref="B79" si="27">B80+B81</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B80" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B81" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" s="15">
-        <f t="shared" ref="B82" si="28">B83+B84</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B83" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B84" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="B85" s="15">
-        <f t="shared" ref="B85" si="29">B86+B89</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+        <f t="shared" ref="B85" si="25">B86+B89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B86" s="15">
-        <f t="shared" ref="B86" si="30">B87+B88</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="B86" si="26">B87+B88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B87" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B88" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89" si="31">B90+B91</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="B89" si="27">B90+B91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" s="15">
+        <f t="shared" ref="B92" si="28">B93+B96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="15">
+        <f t="shared" ref="B93" si="29">B94+B95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B90" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+      <c r="B94" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B91" s="16">
+      <c r="B95" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="15">
+        <f t="shared" ref="B96" si="30">B97+B98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5334,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B23:K23)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B24:K24)</f>
         <v>0</v>
       </c>
       <c r="D24" s="16">
@@ -5383,7 +5648,7 @@
         <v>-1</v>
       </c>
       <c r="P24" s="16">
-        <f>SUM('Отчет по грузообороту'!B23:K23)</f>
+        <f>SUM('Отчет по грузообороту'!B24:K24)</f>
         <v>0</v>
       </c>
       <c r="Q24" s="16">
@@ -5406,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B24:K24)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B26:K26)</f>
         <v>0</v>
       </c>
       <c r="D25" s="16">
@@ -5455,7 +5720,7 @@
         <v>-1</v>
       </c>
       <c r="P25" s="16">
-        <f>SUM('Отчет по грузообороту'!B24:K24)</f>
+        <f>SUM('Отчет по грузообороту'!B26:K26)</f>
         <v>0</v>
       </c>
       <c r="Q25" s="16">
@@ -5478,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B25:K25)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B27:K27)</f>
         <v>0</v>
       </c>
       <c r="D26" s="16">
@@ -5527,7 +5792,7 @@
         <v>-1</v>
       </c>
       <c r="P26" s="16">
-        <f>SUM('Отчет по грузообороту'!B25:K25)</f>
+        <f>SUM('Отчет по грузообороту'!B27:K27)</f>
         <v>0</v>
       </c>
       <c r="Q26" s="16">
@@ -5701,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B28:K28)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B35:K35)</f>
         <v>0</v>
       </c>
       <c r="D29" s="16">
@@ -5750,7 +6015,7 @@
         <v>-1</v>
       </c>
       <c r="P29" s="16">
-        <f>SUM('Отчет по грузообороту'!B28:K28)</f>
+        <f>SUM('Отчет по грузообороту'!B35:K35)</f>
         <v>0</v>
       </c>
       <c r="Q29" s="16">
@@ -5773,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B29:K29)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B36:K36)</f>
         <v>0</v>
       </c>
       <c r="D30" s="16">
@@ -5822,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="16">
-        <f>SUM('Отчет по грузообороту'!B29:K29)</f>
+        <f>SUM('Отчет по грузообороту'!B36:K36)</f>
         <v>0</v>
       </c>
       <c r="Q30" s="16">
@@ -5922,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B31:K31)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B38:K38)</f>
         <v>0</v>
       </c>
       <c r="D32" s="16">
@@ -5971,7 +6236,7 @@
         <v>-1</v>
       </c>
       <c r="P32" s="16">
-        <f>SUM('Отчет по грузообороту'!B31:K31)</f>
+        <f>SUM('Отчет по грузообороту'!B38:K38)</f>
         <v>0</v>
       </c>
       <c r="Q32" s="16">
@@ -5994,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B32:K32)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B39:K39)</f>
         <v>0</v>
       </c>
       <c r="D33" s="16">
@@ -6043,7 +6308,7 @@
         <v>-1</v>
       </c>
       <c r="P33" s="16">
-        <f>SUM('Отчет по грузообороту'!B32:K32)</f>
+        <f>SUM('Отчет по грузообороту'!B39:K39)</f>
         <v>0</v>
       </c>
       <c r="Q33" s="16">
@@ -6143,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B34:K34)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B41:K41)</f>
         <v>0</v>
       </c>
       <c r="D35" s="16">
@@ -6192,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="16">
-        <f>SUM('Отчет по грузообороту'!B34:K34)</f>
+        <f>SUM('Отчет по грузообороту'!B41:K41)</f>
         <v>0</v>
       </c>
       <c r="Q35" s="16">
@@ -6215,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B35:K35)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B42:K42)</f>
         <v>0</v>
       </c>
       <c r="D36" s="16">
@@ -6264,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="16">
-        <f>SUM('Отчет по грузообороту'!B35:K35)</f>
+        <f>SUM('Отчет по грузообороту'!B42:K42)</f>
         <v>0</v>
       </c>
       <c r="Q36" s="16">
@@ -6364,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B37:K37)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B44:K44)</f>
         <v>0</v>
       </c>
       <c r="D38" s="16">
@@ -6413,7 +6678,7 @@
         <v>-1</v>
       </c>
       <c r="P38" s="16">
-        <f>SUM('Отчет по грузообороту'!B37:K37)</f>
+        <f>SUM('Отчет по грузообороту'!B44:K44)</f>
         <v>0</v>
       </c>
       <c r="Q38" s="16">
@@ -6436,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B38:K38)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B45:K45)</f>
         <v>0</v>
       </c>
       <c r="D39" s="16">
@@ -6485,7 +6750,7 @@
         <v>-1</v>
       </c>
       <c r="P39" s="16">
-        <f>SUM('Отчет по грузообороту'!B38:K38)</f>
+        <f>SUM('Отчет по грузообороту'!B45:K45)</f>
         <v>0</v>
       </c>
       <c r="Q39" s="16">
@@ -6508,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B39:K39)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B46:K46)</f>
         <v>0</v>
       </c>
       <c r="D40" s="16">
@@ -6557,7 +6822,7 @@
         <v>-1</v>
       </c>
       <c r="P40" s="16">
-        <f>SUM('Отчет по грузообороту'!B39:K39)</f>
+        <f>SUM('Отчет по грузообороту'!B46:K46)</f>
         <v>0</v>
       </c>
       <c r="Q40" s="16">
@@ -6580,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B40:K40)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B47:K47)</f>
         <v>0</v>
       </c>
       <c r="D41" s="16">
@@ -6629,7 +6894,7 @@
         <v>-1</v>
       </c>
       <c r="P41" s="16">
-        <f>SUM('Отчет по грузообороту'!B40:K40)</f>
+        <f>SUM('Отчет по грузообороту'!B47:K47)</f>
         <v>0</v>
       </c>
       <c r="Q41" s="16">
@@ -6883,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B44:K44)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B51:K51)</f>
         <v>0</v>
       </c>
       <c r="D45" s="16">
@@ -6932,7 +7197,7 @@
         <v>-1</v>
       </c>
       <c r="P45" s="16">
-        <f>SUM('Отчет по грузообороту'!B44:K44)</f>
+        <f>SUM('Отчет по грузообороту'!B51:K51)</f>
         <v>0</v>
       </c>
       <c r="Q45" s="16">
@@ -7032,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B46:K46)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B53:K53)</f>
         <v>0</v>
       </c>
       <c r="D47" s="16">
@@ -7081,7 +7346,7 @@
         <v>-1</v>
       </c>
       <c r="P47" s="16">
-        <f>SUM('Отчет по грузообороту'!B46:K46)</f>
+        <f>SUM('Отчет по грузообороту'!B53:K53)</f>
         <v>0</v>
       </c>
       <c r="Q47" s="16">
@@ -7104,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B47:K47)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B54:K54)</f>
         <v>0</v>
       </c>
       <c r="D48" s="16">
@@ -7153,7 +7418,7 @@
         <v>-1</v>
       </c>
       <c r="P48" s="16">
-        <f>SUM('Отчет по грузообороту'!B47:K47)</f>
+        <f>SUM('Отчет по грузообороту'!B54:K54)</f>
         <v>0</v>
       </c>
       <c r="Q48" s="16">
@@ -7176,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B48:K48)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B55:K55)</f>
         <v>0</v>
       </c>
       <c r="D49" s="16">
@@ -7225,7 +7490,7 @@
         <v>-1</v>
       </c>
       <c r="P49" s="16">
-        <f>SUM('Отчет по грузообороту'!B48:K48)</f>
+        <f>SUM('Отчет по грузообороту'!B55:K55)</f>
         <v>0</v>
       </c>
       <c r="Q49" s="16">
@@ -7325,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B50:K50)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B57:K57)</f>
         <v>0</v>
       </c>
       <c r="D51" s="16">
@@ -7374,7 +7639,7 @@
         <v>-1</v>
       </c>
       <c r="P51" s="16">
-        <f>SUM('Отчет по грузообороту'!B50:K50)</f>
+        <f>SUM('Отчет по грузообороту'!B57:K57)</f>
         <v>0</v>
       </c>
       <c r="Q51" s="16">
@@ -7397,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B51:K51)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B58:K58)</f>
         <v>0</v>
       </c>
       <c r="D52" s="16">
@@ -7446,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="16">
-        <f>SUM('Отчет по грузообороту'!B51:K51)</f>
+        <f>SUM('Отчет по грузообороту'!B58:K58)</f>
         <v>0</v>
       </c>
       <c r="Q52" s="16">
@@ -7469,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B52:K52)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B59:K59)</f>
         <v>0</v>
       </c>
       <c r="D53" s="16">
@@ -7518,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="16">
-        <f>SUM('Отчет по грузообороту'!B52:K52)</f>
+        <f>SUM('Отчет по грузообороту'!B59:K59)</f>
         <v>0</v>
       </c>
       <c r="Q53" s="16">
@@ -7541,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B53:K53)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B60:K60)</f>
         <v>0</v>
       </c>
       <c r="D54" s="16">
@@ -7590,7 +7855,7 @@
         <v>-1</v>
       </c>
       <c r="P54" s="16">
-        <f>SUM('Отчет по грузообороту'!B53:K53)</f>
+        <f>SUM('Отчет по грузообороту'!B60:K60)</f>
         <v>0</v>
       </c>
       <c r="Q54" s="16">
@@ -7767,7 +8032,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B56:K56)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B63:K63)</f>
         <v>0</v>
       </c>
       <c r="D57" s="16">
@@ -7816,7 +8081,7 @@
         <v>-1</v>
       </c>
       <c r="P57" s="16">
-        <f>SUM('Отчет по грузообороту'!B56:K56)</f>
+        <f>SUM('Отчет по грузообороту'!B63:K63)</f>
         <v>0</v>
       </c>
       <c r="Q57" s="16">
@@ -7839,7 +8104,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B57:K57)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B64:K64)</f>
         <v>0</v>
       </c>
       <c r="D58" s="16">
@@ -7888,7 +8153,7 @@
         <v>-1</v>
       </c>
       <c r="P58" s="16">
-        <f>SUM('Отчет по грузообороту'!B57:K57)</f>
+        <f>SUM('Отчет по грузообороту'!B64:K64)</f>
         <v>0</v>
       </c>
       <c r="Q58" s="16">
@@ -7911,7 +8176,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B58:K58)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B65:K65)</f>
         <v>0</v>
       </c>
       <c r="D59" s="16">
@@ -7960,7 +8225,7 @@
         <v>-1</v>
       </c>
       <c r="P59" s="16">
-        <f>SUM('Отчет по грузообороту'!B58:K58)</f>
+        <f>SUM('Отчет по грузообороту'!B65:K65)</f>
         <v>0</v>
       </c>
       <c r="Q59" s="16">
@@ -8060,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B60:K60)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B67:K67)</f>
         <v>0</v>
       </c>
       <c r="D61" s="16">
@@ -8109,7 +8374,7 @@
         <v>-1</v>
       </c>
       <c r="P61" s="16">
-        <f>SUM('Отчет по грузообороту'!B60:K60)</f>
+        <f>SUM('Отчет по грузообороту'!B67:K67)</f>
         <v>0</v>
       </c>
       <c r="Q61" s="16">
@@ -8132,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B61:K61)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B68:K68)</f>
         <v>0</v>
       </c>
       <c r="D62" s="16">
@@ -8181,7 +8446,7 @@
         <v>-1</v>
       </c>
       <c r="P62" s="16">
-        <f>SUM('Отчет по грузообороту'!B61:K61)</f>
+        <f>SUM('Отчет по грузообороту'!B68:K68)</f>
         <v>0</v>
       </c>
       <c r="Q62" s="16">
@@ -8204,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B62:K62)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B69:K69)</f>
         <v>0</v>
       </c>
       <c r="D63" s="16">
@@ -8253,7 +8518,7 @@
         <v>-1</v>
       </c>
       <c r="P63" s="16">
-        <f>SUM('Отчет по грузообороту'!B62:K62)</f>
+        <f>SUM('Отчет по грузообороту'!B69:K69)</f>
         <v>0</v>
       </c>
       <c r="Q63" s="16">
@@ -8430,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B66:K66)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B73:K73)</f>
         <v>0</v>
       </c>
       <c r="D66" s="16">
@@ -8479,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="P66" s="16">
-        <f>SUM('Отчет по грузообороту'!B65:K65)</f>
+        <f>SUM('Отчет по грузообороту'!B72:K72)</f>
         <v>0</v>
       </c>
       <c r="Q66" s="16">
@@ -8502,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B66:K66)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B73:K73)</f>
         <v>0</v>
       </c>
       <c r="D67" s="16">
@@ -8551,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="P67" s="16">
-        <f>SUM('Отчет по грузообороту'!B66:K66)</f>
+        <f>SUM('Отчет по грузообороту'!B73:K73)</f>
         <v>0</v>
       </c>
       <c r="Q67" s="16">
@@ -8574,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="C68" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B67:K67)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B74:K74)</f>
         <v>0</v>
       </c>
       <c r="D68" s="16">
@@ -8623,7 +8888,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="16">
-        <f>SUM('Отчет по грузообороту'!B67:K67)</f>
+        <f>SUM('Отчет по грузообороту'!B74:K74)</f>
         <v>0</v>
       </c>
       <c r="Q68" s="16">
@@ -8723,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="C70" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B69:K69)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B76:K76)</f>
         <v>0</v>
       </c>
       <c r="D70" s="16">
@@ -8772,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="16">
-        <f>SUM('Отчет по грузообороту'!B69:K69)</f>
+        <f>SUM('Отчет по грузообороту'!B76:K76)</f>
         <v>0</v>
       </c>
       <c r="Q70" s="16">
@@ -8795,7 +9060,7 @@
         <v>0</v>
       </c>
       <c r="C71" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B70:K70)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B77:K77)</f>
         <v>0</v>
       </c>
       <c r="D71" s="16">
@@ -8844,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="P71" s="16">
-        <f>SUM('Отчет по грузообороту'!B70:K70)</f>
+        <f>SUM('Отчет по грузообороту'!B77:K77)</f>
         <v>0</v>
       </c>
       <c r="Q71" s="16">
@@ -8867,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="C72" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B71:K71)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B78:K78)</f>
         <v>0</v>
       </c>
       <c r="D72" s="16">
@@ -8916,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P72" s="16">
-        <f>SUM('Отчет по грузообороту'!B71:K71)</f>
+        <f>SUM('Отчет по грузообороту'!B78:K78)</f>
         <v>0</v>
       </c>
       <c r="Q72" s="16">
@@ -9016,7 +9281,7 @@
         <v>0</v>
       </c>
       <c r="C74" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B73:K73)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B80:K80)</f>
         <v>0</v>
       </c>
       <c r="D74" s="16">
@@ -9065,7 +9330,7 @@
         <v>-1</v>
       </c>
       <c r="P74" s="16">
-        <f>SUM('Отчет по грузообороту'!B73:K73)</f>
+        <f>SUM('Отчет по грузообороту'!B80:K80)</f>
         <v>0</v>
       </c>
       <c r="Q74" s="16">
@@ -9088,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B74:K74)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B81:K81)</f>
         <v>0</v>
       </c>
       <c r="D75" s="16">
@@ -9137,7 +9402,7 @@
         <v>-1</v>
       </c>
       <c r="P75" s="16">
-        <f>SUM('Отчет по грузообороту'!B74:K74)</f>
+        <f>SUM('Отчет по грузообороту'!B81:K81)</f>
         <v>0</v>
       </c>
       <c r="Q75" s="16">
@@ -9160,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B75:K75)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B82:K82)</f>
         <v>0</v>
       </c>
       <c r="D76" s="16">
@@ -9209,7 +9474,7 @@
         <v>-1</v>
       </c>
       <c r="P76" s="16">
-        <f>SUM('Отчет по грузообороту'!B75:K75)</f>
+        <f>SUM('Отчет по грузообороту'!B82:K82)</f>
         <v>0</v>
       </c>
       <c r="Q76" s="16">
@@ -9232,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="C77" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B76:K76)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B83:K83)</f>
         <v>0</v>
       </c>
       <c r="D77" s="16">
@@ -9281,7 +9546,7 @@
         <v>-1</v>
       </c>
       <c r="P77" s="16">
-        <f>SUM('Отчет по грузообороту'!B76:K76)</f>
+        <f>SUM('Отчет по грузообороту'!B83:K83)</f>
         <v>0</v>
       </c>
       <c r="Q77" s="16">
@@ -9535,7 +9800,7 @@
         <v>0</v>
       </c>
       <c r="C81" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B80:K80)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B87:K87)</f>
         <v>0</v>
       </c>
       <c r="D81" s="16">
@@ -9584,7 +9849,7 @@
         <v>-1</v>
       </c>
       <c r="P81" s="16">
-        <f>SUM('Отчет по грузообороту'!B80:K80)</f>
+        <f>SUM('Отчет по грузообороту'!B87:K87)</f>
         <v>0</v>
       </c>
       <c r="Q81" s="16">
@@ -9607,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="C82" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B81:K81)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B88:K88)</f>
         <v>0</v>
       </c>
       <c r="D82" s="16">
@@ -9656,7 +9921,7 @@
         <v>-1</v>
       </c>
       <c r="P82" s="16">
-        <f>SUM('Отчет по грузообороту'!B81:K81)</f>
+        <f>SUM('Отчет по грузообороту'!B88:K88)</f>
         <v>0</v>
       </c>
       <c r="Q82" s="16">
@@ -9756,7 +10021,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B83:K83)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B90:K90)</f>
         <v>0</v>
       </c>
       <c r="D84" s="16">
@@ -9805,7 +10070,7 @@
         <v>-1</v>
       </c>
       <c r="P84" s="16">
-        <f>SUM('Отчет по грузообороту'!B83:K83)</f>
+        <f>SUM('Отчет по грузообороту'!B90:K90)</f>
         <v>0</v>
       </c>
       <c r="Q84" s="16">
@@ -9828,7 +10093,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B84:K84)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B91:K91)</f>
         <v>0</v>
       </c>
       <c r="D85" s="16">
@@ -9877,7 +10142,7 @@
         <v>-1</v>
       </c>
       <c r="P85" s="16">
-        <f>SUM('Отчет по грузообороту'!B84:K84)</f>
+        <f>SUM('Отчет по грузообороту'!B91:K91)</f>
         <v>0</v>
       </c>
       <c r="Q85" s="16">
@@ -10054,7 +10319,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B87:K87)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B94:K94)</f>
         <v>0</v>
       </c>
       <c r="D88" s="16">
@@ -10103,7 +10368,7 @@
         <v>-1</v>
       </c>
       <c r="P88" s="16">
-        <f>SUM('Отчет по грузообороту'!B87:K87)</f>
+        <f>SUM('Отчет по грузообороту'!B94:K94)</f>
         <v>0</v>
       </c>
       <c r="Q88" s="16">
@@ -10126,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="C89" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B88:K88)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B95:K95)</f>
         <v>0</v>
       </c>
       <c r="D89" s="16">
@@ -10175,7 +10440,7 @@
         <v>-1</v>
       </c>
       <c r="P89" s="16">
-        <f>SUM('Отчет по грузообороту'!B88:K88)</f>
+        <f>SUM('Отчет по грузообороту'!B95:K95)</f>
         <v>0</v>
       </c>
       <c r="Q89" s="16">
@@ -10275,7 +10540,7 @@
         <v>0</v>
       </c>
       <c r="C91" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B90:K90)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B97:K97)</f>
         <v>0</v>
       </c>
       <c r="D91" s="16">
@@ -10324,7 +10589,7 @@
         <v>-1</v>
       </c>
       <c r="P91" s="16">
-        <f>SUM('Отчет по грузообороту'!B90:K90)</f>
+        <f>SUM('Отчет по грузообороту'!B97:K97)</f>
         <v>0</v>
       </c>
       <c r="Q91" s="16">
@@ -10347,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="C92" s="16">
-        <f>AVERAGE('Отчет по грузообороту'!B91:K91)</f>
+        <f>AVERAGE('Отчет по грузообороту'!B98:K98)</f>
         <v>0</v>
       </c>
       <c r="D92" s="16">
@@ -10396,7 +10661,7 @@
         <v>-1</v>
       </c>
       <c r="P92" s="16">
-        <f>SUM('Отчет по грузообороту'!B91:K91)</f>
+        <f>SUM('Отчет по грузообороту'!B98:K98)</f>
         <v>0</v>
       </c>
       <c r="Q92" s="16">

--- a/Rep33.Data/ReportsWorksheets/repshablon.xlsx
+++ b/Rep33.Data/ReportsWorksheets/repshablon.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет за день" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,11 @@
     <sheet name="Сравнение показателей грузооб." sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="AvgMonth" localSheetId="2">'Сравнение показателей грузооб.'!$K$3</definedName>
+    <definedName name="AvgMonthDevPerc" localSheetId="2">'Сравнение показателей грузооб.'!$J$3</definedName>
+    <definedName name="AvgMonthDevPrev" localSheetId="2">'Сравнение показателей грузооб.'!$M$3</definedName>
+    <definedName name="AvgMonthDevTonn" localSheetId="2">'Сравнение показателей грузооб.'!$I$3</definedName>
+    <definedName name="AvgMonthPrev" localSheetId="2">'Сравнение показателей грузооб.'!$Q$3</definedName>
     <definedName name="calc1" localSheetId="1">'Отчет по грузообороту'!$B$4</definedName>
     <definedName name="calc10" localSheetId="1">'Отчет по грузообороту'!$B$28</definedName>
     <definedName name="calc11" localSheetId="1">'Отчет по грузообороту'!$B$33</definedName>
@@ -110,6 +115,11 @@
     <definedName name="IssuedSVHNordBoard" localSheetId="1">'Отчет по грузообороту'!$B$42</definedName>
     <definedName name="IssuedSVHNordStock" localSheetId="0">'Отчет за день'!$Q$41</definedName>
     <definedName name="IssuedSVHNordStock" localSheetId="1">'Отчет по грузообороту'!$B$41</definedName>
+    <definedName name="ItogDevPerc" localSheetId="2">'Сравнение показателей грузооб.'!$O$3</definedName>
+    <definedName name="ItogDevPrev" localSheetId="2">'Сравнение показателей грузооб.'!$S$3</definedName>
+    <definedName name="ItogDevTonn" localSheetId="2">'Сравнение показателей грузооб.'!$N$3</definedName>
+    <definedName name="ItogMonth" localSheetId="2">'Сравнение показателей грузооб.'!$L$3</definedName>
+    <definedName name="ItogMonthPrev" localSheetId="2">'Сравнение показателей грузооб.'!$R$3</definedName>
     <definedName name="ReceivedAirCargoAeroflot" localSheetId="0">'Отчет за день'!$Q$51</definedName>
     <definedName name="ReceivedAirCargoAeroflot" localSheetId="1">'Отчет по грузообороту'!$B$51</definedName>
     <definedName name="ReceivedAirCargoBridge" localSheetId="0">'Отчет за день'!$Q$53</definedName>
@@ -161,6 +171,7 @@
     <definedName name="RepDate" localSheetId="0">'Отчет за день'!$A$2</definedName>
     <definedName name="RepDate" localSheetId="1">'Отчет по грузообороту'!$A$2</definedName>
     <definedName name="RepDate" localSheetId="2">'Сравнение показателей грузооб.'!$A$2</definedName>
+    <definedName name="RepDateHead" localSheetId="2">'Сравнение показателей грузооб.'!$B$3</definedName>
     <definedName name="StockExportMVLExport" localSheetId="0">'Отчет за день'!$Q$98</definedName>
     <definedName name="StockExportMVLExport" localSheetId="1">'Отчет по грузообороту'!$B$98</definedName>
     <definedName name="StockExportMVLTransfer" localSheetId="0">'Отчет за день'!$Q$97</definedName>
@@ -183,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="54">
   <si>
     <t>Грузооборот Москва Карго за</t>
   </si>
@@ -314,31 +325,7 @@
     <t>Отклонение от среднего предыдущего месяц</t>
   </si>
   <si>
-    <t>Отклонение от среднего месяца 2020 года</t>
-  </si>
-  <si>
-    <t>Cреднее месяца 2020 года</t>
-  </si>
-  <si>
-    <t>Нарастающий итог за месяц 2020 года</t>
-  </si>
-  <si>
-    <t>Отклонение от среднего месяца 2019 года</t>
-  </si>
-  <si>
-    <t>Отклонение от нарастающего итога аналогичного месяца 2020 года</t>
-  </si>
-  <si>
     <t>Нарастающий итог текущего месяца</t>
-  </si>
-  <si>
-    <t>Cреднее месяца 2019 года</t>
-  </si>
-  <si>
-    <t>Нарастающий итог за месяц 2019 года</t>
-  </si>
-  <si>
-    <t>Отклонение от нарастающего итога аналогичного месяца 2019 года</t>
   </si>
   <si>
     <t>тонн</t>
@@ -357,6 +344,18 @@
   </si>
   <si>
     <t>ГТ-2</t>
+  </si>
+  <si>
+    <t>Отклонение от среднего месяца {#} года</t>
+  </si>
+  <si>
+    <t>Отклонение от нарастающего итога аналогичного месяца {#} года</t>
+  </si>
+  <si>
+    <t>Cреднее месяца {#} года</t>
+  </si>
+  <si>
+    <t>Нарастающий итог за месяц {#} года</t>
   </si>
 </sst>
 </file>
@@ -826,7 +825,7 @@
   </sheetPr>
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+    <sheetView zoomScale="80" workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
@@ -1294,7 +1293,7 @@
     </row>
     <row r="23" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
@@ -1410,7 +1409,7 @@
     </row>
     <row r="28" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -3079,8 +3078,8 @@
   </sheetPr>
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
@@ -3135,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -3144,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -3152,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -3160,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -3168,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -3176,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -3185,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
@@ -3193,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -3201,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
@@ -3209,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
@@ -3226,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
@@ -3235,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
@@ -3243,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
@@ -3251,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>9</v>
       </c>
@@ -3259,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
@@ -3268,9 +3267,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B23" s="24">
         <f>SUM(Q24:Q27)</f>
@@ -3295,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>6</v>
       </c>
@@ -3303,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>7</v>
       </c>
@@ -3328,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>8</v>
       </c>
@@ -3336,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>9</v>
       </c>
@@ -3344,9 +3343,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B28" s="25">
         <f>SUM(Q29:Q32)</f>
@@ -3371,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>6</v>
       </c>
@@ -3396,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>7</v>
       </c>
@@ -3421,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>8</v>
       </c>
@@ -3446,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>9</v>
       </c>
@@ -3480,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>15</v>
       </c>
@@ -3489,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>16</v>
       </c>
@@ -3497,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>17</v>
       </c>
@@ -3505,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>18</v>
       </c>
@@ -3514,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
@@ -3522,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>17</v>
       </c>
@@ -3530,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>19</v>
       </c>
@@ -3539,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>16</v>
       </c>
@@ -3547,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>17</v>
       </c>
@@ -3555,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>20</v>
       </c>
@@ -3564,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -3572,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -3580,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>8</v>
       </c>
@@ -3588,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>9</v>
       </c>
@@ -3605,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>22</v>
       </c>
@@ -3614,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>5</v>
       </c>
@@ -3623,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>6</v>
       </c>
@@ -3631,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>7</v>
       </c>
@@ -3640,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>23</v>
       </c>
@@ -3648,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>8</v>
       </c>
@@ -3656,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>9</v>
       </c>
@@ -3664,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>10</v>
       </c>
@@ -3673,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>6</v>
       </c>
@@ -3681,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>7</v>
       </c>
@@ -3689,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>8</v>
       </c>
@@ -3697,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>9</v>
       </c>
@@ -3705,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>24</v>
       </c>
@@ -3714,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>12</v>
       </c>
@@ -3723,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>6</v>
       </c>
@@ -3731,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>8</v>
       </c>
@@ -3739,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>9</v>
       </c>
@@ -3747,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>13</v>
       </c>
@@ -3756,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>6</v>
       </c>
@@ -3764,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>8</v>
       </c>
@@ -3772,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -3780,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>37</v>
       </c>
@@ -3789,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>12</v>
       </c>
@@ -3798,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>6</v>
       </c>
@@ -3806,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>8</v>
       </c>
@@ -3814,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>9</v>
       </c>
@@ -3822,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>13</v>
       </c>
@@ -3831,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>6</v>
       </c>
@@ -3839,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>8</v>
       </c>
@@ -3847,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>9</v>
       </c>
@@ -3855,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>26</v>
       </c>
@@ -3864,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>6</v>
       </c>
@@ -3872,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>7</v>
       </c>
@@ -3880,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>8</v>
       </c>
@@ -3888,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>9</v>
       </c>
@@ -3896,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>27</v>
       </c>
@@ -3905,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>28</v>
       </c>
@@ -3914,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>12</v>
       </c>
@@ -3923,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>29</v>
       </c>
@@ -3931,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>30</v>
       </c>
@@ -3939,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>13</v>
       </c>
@@ -3948,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>29</v>
       </c>
@@ -3956,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>30</v>
       </c>
@@ -3964,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>31</v>
       </c>
@@ -3973,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>12</v>
       </c>
@@ -3982,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>32</v>
       </c>
@@ -3990,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>31</v>
       </c>
@@ -3998,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>13</v>
       </c>
@@ -4007,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>32</v>
       </c>
@@ -4015,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>31</v>
       </c>
@@ -4036,7 +4035,7 @@
   <dimension ref="A1:S92"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="P1" sqref="P1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
@@ -4056,8 +4055,8 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="31">
+        <v>44501</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4100,34 +4099,34 @@
         <v>42</v>
       </c>
       <c r="I3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>48</v>
-      </c>
       <c r="Q3" s="22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="S3" s="22" t="s">
         <v>51</v>
@@ -4136,50 +4135,50 @@
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="33" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H4" s="34"/>
       <c r="I4" s="13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -4261,7 +4260,7 @@
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B6" s="14">
         <f>'Отчет за день'!Q5</f>
@@ -9195,7 +9194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>26</v>
       </c>
@@ -9272,7 +9271,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>6</v>
       </c>
@@ -9344,7 +9343,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>7</v>
       </c>
@@ -9416,7 +9415,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>8</v>
       </c>
@@ -9488,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>9</v>
       </c>

--- a/Rep33.Data/ReportsWorksheets/repshablon.xlsx
+++ b/Rep33.Data/ReportsWorksheets/repshablon.xlsx
@@ -3078,11 +3078,11 @@
   </sheetPr>
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>9</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>48</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" outlineLevel="5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>6</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" outlineLevel="5" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>7</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" outlineLevel="5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>8</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" outlineLevel="5" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>9</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>49</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" outlineLevel="5" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>6</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" outlineLevel="5" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>7</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" outlineLevel="5" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>8</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" outlineLevel="5" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>9</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>14</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>15</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>16</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>17</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>18</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>17</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>19</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>16</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>17</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>20</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>8</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>9</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>21</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>22</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>5</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>6</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>7</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>23</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>8</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>9</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>10</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>6</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>7</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>8</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>9</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>24</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>12</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>6</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>8</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>9</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>13</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>6</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>8</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>37</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>12</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>6</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>8</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>9</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>13</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>6</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>8</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>9</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>26</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>6</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>7</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>8</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>9</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="15.75" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>27</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>28</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>12</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>29</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>30</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>13</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>29</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>30</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>31</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>12</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>32</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>31</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>13</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>32</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>31</v>
       </c>

--- a/Rep33.Data/ReportsWorksheets/repshablon.xlsx
+++ b/Rep33.Data/ReportsWorksheets/repshablon.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10815" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10815"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет за день" sheetId="1" r:id="rId1"/>
@@ -22,40 +22,108 @@
     <definedName name="AvgMonthDevPrev" localSheetId="2">'Сравнение показателей грузооб.'!$M$3</definedName>
     <definedName name="AvgMonthDevTonn" localSheetId="2">'Сравнение показателей грузооб.'!$I$3</definedName>
     <definedName name="AvgMonthPrev" localSheetId="2">'Сравнение показателей грузооб.'!$Q$3</definedName>
+    <definedName name="calc1" localSheetId="0">'Отчет за день'!$Q$4</definedName>
     <definedName name="calc1" localSheetId="1">'Отчет по грузообороту'!$B$4</definedName>
+    <definedName name="calc1" localSheetId="2">'Сравнение показателей грузооб.'!$B$5</definedName>
+    <definedName name="calc10" localSheetId="0">'Отчет за день'!$Q$28</definedName>
     <definedName name="calc10" localSheetId="1">'Отчет по грузообороту'!$B$28</definedName>
+    <definedName name="calc10" localSheetId="2">'Сравнение показателей грузооб.'!$B$29</definedName>
+    <definedName name="calc11" localSheetId="0">'Отчет за день'!$Q$33</definedName>
     <definedName name="calc11" localSheetId="1">'Отчет по грузообороту'!$B$33</definedName>
+    <definedName name="calc11" localSheetId="2">'Сравнение показателей грузооб.'!$B$34</definedName>
+    <definedName name="calc12" localSheetId="0">'Отчет за день'!$Q$34</definedName>
     <definedName name="calc12" localSheetId="1">'Отчет по грузообороту'!$B$34</definedName>
+    <definedName name="calc12" localSheetId="2">'Сравнение показателей грузооб.'!$B$35</definedName>
+    <definedName name="calc13" localSheetId="0">'Отчет за день'!$Q$37</definedName>
     <definedName name="calc13" localSheetId="1">'Отчет по грузообороту'!$B$37</definedName>
+    <definedName name="calc13" localSheetId="2">'Сравнение показателей грузооб.'!$B$38</definedName>
+    <definedName name="calc14" localSheetId="0">'Отчет за день'!$Q$40</definedName>
     <definedName name="calc14" localSheetId="1">'Отчет по грузообороту'!$B$40</definedName>
+    <definedName name="calc14" localSheetId="2">'Сравнение показателей грузооб.'!$B$41</definedName>
+    <definedName name="calc15" localSheetId="0">'Отчет за день'!$Q$43</definedName>
     <definedName name="calc15" localSheetId="1">'Отчет по грузообороту'!$B$43</definedName>
+    <definedName name="calc15" localSheetId="2">'Сравнение показателей грузооб.'!$B$44</definedName>
+    <definedName name="calc16" localSheetId="0">'Отчет за день'!$Q$48</definedName>
     <definedName name="calc16" localSheetId="1">'Отчет по грузообороту'!$B$48</definedName>
+    <definedName name="calc16" localSheetId="2">'Сравнение показателей грузооб.'!$B$49</definedName>
+    <definedName name="calc17" localSheetId="0">'Отчет за день'!$Q$49</definedName>
     <definedName name="calc17" localSheetId="1">'Отчет по грузообороту'!$B$49</definedName>
+    <definedName name="calc17" localSheetId="2">'Сравнение показателей грузооб.'!$B$50</definedName>
+    <definedName name="calc18" localSheetId="0">'Отчет за день'!$Q$50</definedName>
     <definedName name="calc18" localSheetId="1">'Отчет по грузообороту'!$B$50</definedName>
+    <definedName name="calc18" localSheetId="2">'Сравнение показателей грузооб.'!$B$51</definedName>
+    <definedName name="calc19" localSheetId="0">'Отчет за день'!$Q$52</definedName>
     <definedName name="calc19" localSheetId="1">'Отчет по грузообороту'!$B$52</definedName>
+    <definedName name="calc19" localSheetId="2">'Сравнение показателей грузооб.'!$B$53</definedName>
+    <definedName name="calc2" localSheetId="0">'Отчет за день'!$Q$5</definedName>
     <definedName name="calc2" localSheetId="1">'Отчет по грузообороту'!$B$5</definedName>
+    <definedName name="calc2" localSheetId="2">'Сравнение показателей грузооб.'!$B$6</definedName>
+    <definedName name="calc20" localSheetId="0">'Отчет за день'!$Q$56</definedName>
     <definedName name="calc20" localSheetId="1">'Отчет по грузообороту'!$B$56</definedName>
+    <definedName name="calc20" localSheetId="2">'Сравнение показателей грузооб.'!$B$57</definedName>
+    <definedName name="calc21" localSheetId="0">'Отчет за день'!$Q$61</definedName>
     <definedName name="calc21" localSheetId="1">'Отчет по грузообороту'!$B$61</definedName>
+    <definedName name="calc21" localSheetId="2">'Сравнение показателей грузооб.'!$B$62</definedName>
+    <definedName name="calc22" localSheetId="0">'Отчет за день'!$Q$62</definedName>
     <definedName name="calc22" localSheetId="1">'Отчет по грузообороту'!$B$62</definedName>
+    <definedName name="calc22" localSheetId="2">'Сравнение показателей грузооб.'!$B$63</definedName>
+    <definedName name="calc23" localSheetId="0">'Отчет за день'!$Q$66</definedName>
     <definedName name="calc23" localSheetId="1">'Отчет по грузообороту'!$B$66</definedName>
+    <definedName name="calc23" localSheetId="2">'Сравнение показателей грузооб.'!$B$67</definedName>
+    <definedName name="calc24" localSheetId="0">'Отчет за день'!$Q$70</definedName>
     <definedName name="calc24" localSheetId="1">'Отчет по грузообороту'!$B$70</definedName>
+    <definedName name="calc24" localSheetId="2">'Сравнение показателей грузооб.'!$B$71</definedName>
+    <definedName name="calc25" localSheetId="0">'Отчет за день'!$Q$71</definedName>
     <definedName name="calc25" localSheetId="1">'Отчет по грузообороту'!$B$71</definedName>
+    <definedName name="calc25" localSheetId="2">'Сравнение показателей грузооб.'!$B$72</definedName>
+    <definedName name="calc26" localSheetId="0">'Отчет за день'!$Q$75</definedName>
     <definedName name="calc26" localSheetId="1">'Отчет по грузообороту'!$B$75</definedName>
+    <definedName name="calc26" localSheetId="2">'Сравнение показателей грузооб.'!$B$76</definedName>
+    <definedName name="calc27" localSheetId="0">'Отчет за день'!$Q$79</definedName>
     <definedName name="calc27" localSheetId="1">'Отчет по грузообороту'!$B$79</definedName>
+    <definedName name="calc27" localSheetId="2">'Сравнение показателей грузооб.'!$B$80</definedName>
+    <definedName name="calc28" localSheetId="0">'Отчет за день'!$Q$84</definedName>
     <definedName name="calc28" localSheetId="1">'Отчет по грузообороту'!$B$84</definedName>
+    <definedName name="calc28" localSheetId="2">'Сравнение показателей грузооб.'!$B$85</definedName>
+    <definedName name="calc29" localSheetId="0">'Отчет за день'!$Q$85</definedName>
     <definedName name="calc29" localSheetId="1">'Отчет по грузообороту'!$B$85</definedName>
+    <definedName name="calc29" localSheetId="2">'Сравнение показателей грузооб.'!$B$86</definedName>
+    <definedName name="calc3" localSheetId="0">'Отчет за день'!$Q$6</definedName>
     <definedName name="calc3" localSheetId="1">'Отчет по грузообороту'!$B$6</definedName>
+    <definedName name="calc3" localSheetId="2">'Сравнение показателей грузооб.'!$B$7</definedName>
+    <definedName name="calc30" localSheetId="0">'Отчет за день'!$Q$86</definedName>
     <definedName name="calc30" localSheetId="1">'Отчет по грузообороту'!$B$86</definedName>
+    <definedName name="calc30" localSheetId="2">'Сравнение показателей грузооб.'!$B$87</definedName>
+    <definedName name="calc31" localSheetId="0">'Отчет за день'!$Q$89</definedName>
     <definedName name="calc31" localSheetId="1">'Отчет по грузообороту'!$B$89</definedName>
+    <definedName name="calc31" localSheetId="2">'Сравнение показателей грузооб.'!$B$90</definedName>
+    <definedName name="calc32" localSheetId="0">'Отчет за день'!$Q$92</definedName>
     <definedName name="calc32" localSheetId="1">'Отчет по грузообороту'!$B$92</definedName>
+    <definedName name="calc32" localSheetId="2">'Сравнение показателей грузооб.'!$B$93</definedName>
+    <definedName name="calc33" localSheetId="0">'Отчет за день'!$Q$93</definedName>
     <definedName name="calc33" localSheetId="1">'Отчет по грузообороту'!$B$93</definedName>
+    <definedName name="calc33" localSheetId="2">'Сравнение показателей грузооб.'!$B$94</definedName>
+    <definedName name="calc34" localSheetId="0">'Отчет за день'!$Q$96</definedName>
     <definedName name="calc34" localSheetId="1">'Отчет по грузообороту'!$B$96</definedName>
+    <definedName name="calc34" localSheetId="2">'Сравнение показателей грузооб.'!$B$97</definedName>
+    <definedName name="calc4" localSheetId="0">'Отчет за день'!$Q$7</definedName>
     <definedName name="calc4" localSheetId="1">'Отчет по грузообороту'!$B$7</definedName>
+    <definedName name="calc4" localSheetId="2">'Сравнение показателей грузооб.'!$B$8</definedName>
+    <definedName name="calc5" localSheetId="0">'Отчет за день'!$Q$12</definedName>
     <definedName name="calc5" localSheetId="1">'Отчет по грузообороту'!$B$12</definedName>
+    <definedName name="calc5" localSheetId="2">'Сравнение показателей грузооб.'!$B$13</definedName>
+    <definedName name="calc6" localSheetId="0">'Отчет за день'!$Q$17</definedName>
     <definedName name="calc6" localSheetId="1">'Отчет по грузообороту'!$B$17</definedName>
+    <definedName name="calc6" localSheetId="2">'Сравнение показателей грузооб.'!$B$18</definedName>
+    <definedName name="calc7" localSheetId="0">'Отчет за день'!$Q$18</definedName>
     <definedName name="calc7" localSheetId="1">'Отчет по грузообороту'!$B$18</definedName>
+    <definedName name="calc7" localSheetId="2">'Сравнение показателей грузооб.'!$B$19</definedName>
+    <definedName name="calc8" localSheetId="0">'Отчет за день'!$Q$22</definedName>
     <definedName name="calc8" localSheetId="1">'Отчет по грузообороту'!$B$22</definedName>
+    <definedName name="calc8" localSheetId="2">'Сравнение показателей грузооб.'!$B$23</definedName>
+    <definedName name="calc9" localSheetId="0">'Отчет за день'!$Q$23</definedName>
     <definedName name="calc9" localSheetId="1">'Отчет по грузообороту'!$B$23</definedName>
+    <definedName name="calc9" localSheetId="2">'Сравнение показателей грузооб.'!$B$24</definedName>
     <definedName name="IssuedAirCargoAeroflot" localSheetId="0">'Отчет за день'!$Q$8</definedName>
     <definedName name="IssuedAirCargoAeroflot" localSheetId="1">'Отчет по грузообороту'!$B$8</definedName>
     <definedName name="IssuedAirCargoAeroflot" localSheetId="2">'Сравнение показателей грузооб.'!$B$9</definedName>
@@ -434,17 +502,23 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -455,18 +529,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -507,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -575,30 +643,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -607,6 +651,51 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -902,9 +991,7 @@
   </sheetPr>
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -919,7 +1006,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
+      <c r="A2" s="23">
         <v>44197</v>
       </c>
     </row>
@@ -995,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1019,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1042,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1065,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1088,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1251,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
@@ -1275,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
@@ -1298,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
@@ -1321,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>9</v>
       </c>
@@ -1345,258 +1432,258 @@
       </c>
     </row>
     <row r="22" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="25">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="28">
         <f>Q23+Q28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+    <row r="23" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="25">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="28">
         <f>SUM(Q24:Q27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+    <row r="24" spans="1:17" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="25">
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="28">
         <f>SUM(Q29:Q32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+    <row r="29" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="29">
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="32">
         <v>0</v>
       </c>
     </row>
@@ -2488,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>12</v>
       </c>
@@ -2581,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>13</v>
       </c>
@@ -2838,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>12</v>
       </c>
@@ -2862,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>29</v>
       </c>
@@ -2885,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>30</v>
       </c>
@@ -2908,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>13</v>
       </c>
@@ -2932,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>29</v>
       </c>
@@ -2955,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>30</v>
       </c>
@@ -3300,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
@@ -3309,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
@@ -3317,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
@@ -3325,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>9</v>
       </c>
@@ -3342,210 +3429,239 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+    <row r="23" spans="1:17" s="34" customFormat="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="27">
         <f>SUM(Q24:Q27)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="25">
-        <f>SUM(Q24:Q33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" outlineLevel="5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="36"/>
+    </row>
+    <row r="24" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="5" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" outlineLevel="5" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="B24" s="32">
+        <v>0</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+    </row>
+    <row r="25" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="5" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="28">
-        <v>0</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" outlineLevel="5" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="B25" s="31">
+        <v>0</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="39"/>
+    </row>
+    <row r="26" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="5" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" outlineLevel="5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="B26" s="32">
+        <v>0</v>
+      </c>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+    </row>
+    <row r="27" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="5" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="B27" s="32">
+        <v>0</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+    </row>
+    <row r="28" spans="1:17" s="34" customFormat="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="28">
         <f>SUM(Q29:Q32)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="25">
-        <f>SUM(Q29:Q32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" outlineLevel="5" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="36"/>
+    </row>
+    <row r="29" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="5" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="28">
-        <v>0</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" outlineLevel="5" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="B29" s="31">
+        <v>0</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="39"/>
+    </row>
+    <row r="30" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="5" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="28">
-        <v>0</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" outlineLevel="5" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="B30" s="31">
+        <v>0</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="39"/>
+    </row>
+    <row r="31" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="5" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="28">
-        <v>0</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" outlineLevel="5" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="B31" s="31">
+        <v>0</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="39"/>
+    </row>
+    <row r="32" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="5" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="28">
-        <v>0</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B32" s="31">
+        <v>0</v>
+      </c>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="39"/>
+    </row>
+    <row r="33" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>14</v>
       </c>
@@ -3553,8 +3669,23 @@
         <f t="shared" ref="B33" si="7">B34+B37+B40</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+    </row>
+    <row r="34" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>15</v>
       </c>
@@ -3563,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>16</v>
       </c>
@@ -3571,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>17</v>
       </c>
@@ -3579,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>18</v>
       </c>
@@ -3588,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
@@ -3596,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>17</v>
       </c>
@@ -3604,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>19</v>
       </c>
@@ -3613,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>16</v>
       </c>
@@ -3621,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>17</v>
       </c>
@@ -3629,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>20</v>
       </c>
@@ -3638,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -3646,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -3654,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>8</v>
       </c>
@@ -3662,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>9</v>
       </c>
@@ -3670,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>21</v>
       </c>
@@ -3688,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>5</v>
       </c>
@@ -3697,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>6</v>
       </c>
@@ -3705,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>7</v>
       </c>
@@ -3714,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" hidden="1" outlineLevel="5" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>23</v>
       </c>
@@ -3722,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>8</v>
       </c>
@@ -3730,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>9</v>
       </c>
@@ -3738,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>10</v>
       </c>
@@ -3747,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>6</v>
       </c>
@@ -3755,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>7</v>
       </c>
@@ -3763,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>8</v>
       </c>
@@ -3771,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>9</v>
       </c>
@@ -3854,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>37</v>
       </c>
@@ -3863,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>12</v>
       </c>
@@ -3896,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>13</v>
       </c>
@@ -3929,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>26</v>
       </c>
@@ -3938,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>6</v>
       </c>
@@ -3946,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>7</v>
       </c>
@@ -3954,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>8</v>
       </c>
@@ -3962,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>9</v>
       </c>
@@ -3979,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>28</v>
       </c>
@@ -3988,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>12</v>
       </c>
@@ -4013,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>13</v>
       </c>
@@ -4038,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>31</v>
       </c>
@@ -4047,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>12</v>
       </c>
@@ -4072,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>13</v>
       </c>
@@ -4099,6 +4230,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4109,12 +4241,12 @@
   </sheetPr>
   <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+    <sheetView zoomScale="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B5" sqref="B5"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.7109375" customWidth="1"/>
     <col min="2" max="7" width="15" customWidth="1"/>
@@ -4131,7 +4263,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
+      <c r="A2" s="23">
         <v>44501</v>
       </c>
       <c r="B2" s="2"/>
@@ -4152,8 +4284,8 @@
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="33">
+      <c r="A3" s="43"/>
+      <c r="B3" s="25">
         <v>44501</v>
       </c>
       <c r="C3" s="21" t="s">
@@ -4209,20 +4341,20 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="35" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="45"/>
+      <c r="G4" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="36"/>
+      <c r="H4" s="45"/>
       <c r="I4" s="13" t="s">
         <v>45</v>
       </c>
@@ -5588,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -5665,78 +5797,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+    <row r="24" spans="1:19" s="34" customFormat="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="28">
         <f>'Отчет за день'!Q23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="28">
         <f>C25+C26+C27+C28</f>
         <v>0</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="28">
         <f>D25+D26+D27+D28</f>
         <v>0</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="28">
         <f>B24-C24</f>
         <v>0</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="28">
         <f>C24-K24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="41">
         <f>IFERROR((C24-K24)/K24,0)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="19">
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="41">
         <f>IFERROR((C24-Q24)/Q24,0)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N24" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O24" s="19">
+      <c r="O24" s="41">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P24" s="15">
+      <c r="P24" s="28">
         <f>P25+P26+P27+P28</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="25">
+      <c r="Q24" s="28">
         <f>Q25+Q26+Q27+Q28</f>
         <v>0</v>
       </c>
-      <c r="R24" s="15">
+      <c r="R24" s="28">
         <f>R25+R26+R27+R28</f>
         <v>0</v>
       </c>
-      <c r="S24" s="19">
+      <c r="S24" s="41">
         <f>IFERROR((O24-Q24)/Q24,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>6</v>
       </c>
@@ -5808,70 +5940,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" hidden="1" outlineLevel="5" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+    <row r="26" spans="1:19" s="34" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="32">
         <f>'Отчет за день'!Q25</f>
         <v>0</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="31">
         <f>AVERAGE('Отчет по грузообороту'!B25:AF25)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="28">
-        <v>0</v>
-      </c>
-      <c r="E26" s="29">
+      <c r="D26" s="31">
+        <v>0</v>
+      </c>
+      <c r="E26" s="32">
         <f>B26-C26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="42">
         <f>IFERROR((B26-C26)/C26,0)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="42">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="31">
         <f>C26-K26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="42">
         <f>IFERROR((C26-K26)/K26,0)</f>
         <v>0</v>
       </c>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="20">
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="42">
         <f>IFERROR((C26-Q26)/Q26,0)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="16">
+      <c r="N26" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P26" s="28">
+      <c r="P26" s="31">
         <f>SUM('Отчет по грузообороту'!B25:AF25)</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="29">
-        <v>0</v>
-      </c>
-      <c r="R26" s="32">
-        <v>0</v>
-      </c>
-      <c r="S26" s="20">
+      <c r="Q26" s="32">
+        <v>0</v>
+      </c>
+      <c r="R26" s="24">
+        <v>0</v>
+      </c>
+      <c r="S26" s="42">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -6020,73 +6152,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+    <row r="29" spans="1:19" s="34" customFormat="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="28">
         <f>'Отчет за день'!Q28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="28">
         <f>C30+C31+C32+C33</f>
         <v>0</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="28">
         <f>D30+D31+D32+D33</f>
         <v>0</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="28">
         <f>B29-C29</f>
         <v>0</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="28">
         <f>B29-D29</f>
         <v>0</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="28">
         <f>C29-K29</f>
         <v>0</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="41">
         <f>IFERROR((C29-K29)/K29,0)</f>
         <v>0</v>
       </c>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="19">
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="41">
         <f>IFERROR((C29-Q29)/Q29,0)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="16">
+      <c r="N29" s="32">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O29" s="20">
+      <c r="O29" s="42">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P29" s="25">
+      <c r="P29" s="28">
         <f>P30+P31+P32+P33</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="25">
+      <c r="Q29" s="28">
         <f>Q30+Q31+Q32+Q33</f>
         <v>0</v>
       </c>
-      <c r="R29" s="15">
+      <c r="R29" s="28">
         <f>R30+R31+R32+R33</f>
         <v>0</v>
       </c>
-      <c r="S29" s="19">
+      <c r="S29" s="41">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -6163,70 +6295,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+    <row r="31" spans="1:19" s="34" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="32">
         <f>'Отчет за день'!Q30</f>
         <v>0</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="31">
         <f>AVERAGE('Отчет по грузообороту'!B30:AF30)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="28">
-        <v>0</v>
-      </c>
-      <c r="E31" s="29">
+      <c r="D31" s="31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="32">
         <f>B31-C31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="32">
         <f>B31-D31</f>
         <v>0</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="42">
         <f>IFERROR((B31-C31)/C31,0)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="42">
         <f>IFERROR((B31-D31)/D31,0)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31" s="31">
         <f>C31-K31</f>
         <v>0</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="42">
         <f>IFERROR((C31-K31)/K31,0)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="20">
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="42">
         <f>IFERROR((C31-Q31)/Q31,0)</f>
         <v>0</v>
       </c>
-      <c r="N31" s="16">
+      <c r="N31" s="32">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="O31" s="20">
+      <c r="O31" s="42">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="P31" s="28">
+      <c r="P31" s="31">
         <f>SUM('Отчет по грузообороту'!B30:AF30)</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="29">
-        <v>0</v>
-      </c>
-      <c r="R31" s="32">
-        <v>0</v>
-      </c>
-      <c r="S31" s="20">
+      <c r="Q31" s="32">
+        <v>0</v>
+      </c>
+      <c r="R31" s="24">
+        <v>0</v>
+      </c>
+      <c r="S31" s="42">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -7557,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>22</v>
       </c>
@@ -7634,7 +7766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>5</v>
       </c>
@@ -7711,7 +7843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>6</v>
       </c>
@@ -7783,7 +7915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>7</v>
       </c>
@@ -7929,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>8</v>
       </c>
@@ -8001,7 +8133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>9</v>
       </c>
@@ -8073,7 +8205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>10</v>
       </c>
@@ -8150,7 +8282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>6</v>
       </c>
@@ -8222,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>7</v>
       </c>
@@ -8294,7 +8426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>8</v>
       </c>
@@ -8366,7 +8498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>9</v>
       </c>
@@ -8438,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>24</v>
       </c>
@@ -8515,7 +8647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>12</v>
       </c>
@@ -8808,7 +8940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>13</v>
       </c>
@@ -10802,7 +10934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:19" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>12</v>
       </c>
@@ -10879,7 +11011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:19" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>32</v>
       </c>
@@ -10951,7 +11083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:19" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>31</v>
       </c>
@@ -11023,7 +11155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:19" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>13</v>
       </c>
@@ -11100,7 +11232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:19" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>32</v>
       </c>
@@ -11172,7 +11304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:19" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>31</v>
       </c>

--- a/Rep33.Data/ReportsWorksheets/repshablon.xlsx
+++ b/Rep33.Data/ReportsWorksheets/repshablon.xlsx
@@ -3244,7 +3244,7 @@
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>9</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="34" customFormat="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" s="34" customFormat="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>48</v>
       </c>
@@ -3453,7 +3453,7 @@
       <c r="P23" s="35"/>
       <c r="Q23" s="36"/>
     </row>
-    <row r="24" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>6</v>
       </c>
@@ -3476,7 +3476,7 @@
       <c r="P24" s="37"/>
       <c r="Q24" s="37"/>
     </row>
-    <row r="25" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>7</v>
       </c>
@@ -3499,7 +3499,7 @@
       <c r="P25" s="38"/>
       <c r="Q25" s="39"/>
     </row>
-    <row r="26" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>8</v>
       </c>
@@ -3522,7 +3522,7 @@
       <c r="P26" s="37"/>
       <c r="Q26" s="37"/>
     </row>
-    <row r="27" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>9</v>
       </c>
@@ -3545,7 +3545,7 @@
       <c r="P27" s="37"/>
       <c r="Q27" s="37"/>
     </row>
-    <row r="28" spans="1:17" s="34" customFormat="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" s="34" customFormat="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>49</v>
       </c>
@@ -3569,7 +3569,7 @@
       <c r="P28" s="35"/>
       <c r="Q28" s="36"/>
     </row>
-    <row r="29" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>6</v>
       </c>
@@ -3592,7 +3592,7 @@
       <c r="P29" s="38"/>
       <c r="Q29" s="39"/>
     </row>
-    <row r="30" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>7</v>
       </c>
@@ -3615,7 +3615,7 @@
       <c r="P30" s="38"/>
       <c r="Q30" s="39"/>
     </row>
-    <row r="31" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>8</v>
       </c>
@@ -3638,7 +3638,7 @@
       <c r="P31" s="38"/>
       <c r="Q31" s="39"/>
     </row>
-    <row r="32" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
         <v>9</v>
       </c>
@@ -3661,7 +3661,7 @@
       <c r="P32" s="38"/>
       <c r="Q32" s="39"/>
     </row>
-    <row r="33" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>14</v>
       </c>
@@ -3685,7 +3685,7 @@
       <c r="P33" s="40"/>
       <c r="Q33" s="40"/>
     </row>
-    <row r="34" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>15</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>16</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>17</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>18</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>16</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>17</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>19</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>16</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>17</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>20</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>6</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>8</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>9</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>21</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>22</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>5</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>6</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>7</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" outlineLevel="5" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>23</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>8</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>9</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>10</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>6</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>7</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>8</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>9</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>24</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>12</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>6</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>8</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>9</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>13</v>
       </c>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>6</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>8</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>37</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>12</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>6</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>8</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>9</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>13</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>6</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>8</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>9</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>26</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>6</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>7</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>8</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>9</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>27</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>28</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>12</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>29</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>30</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>13</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>29</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>30</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>31</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>12</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>32</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>31</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>13</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>32</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>31</v>
       </c>

--- a/Rep33.Data/ReportsWorksheets/repshablon.xlsx
+++ b/Rep33.Data/ReportsWorksheets/repshablon.xlsx
@@ -4251,9 +4251,9 @@
     <col min="1" max="1" width="51.7109375" customWidth="1"/>
     <col min="2" max="7" width="15" customWidth="1"/>
     <col min="8" max="10" width="20" customWidth="1"/>
-    <col min="11" max="12" width="12" customWidth="1"/>
+    <col min="11" max="12" width="12" hidden="1" customWidth="1"/>
     <col min="13" max="15" width="20" customWidth="1"/>
-    <col min="16" max="18" width="12" customWidth="1"/>
+    <col min="16" max="18" width="12" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5761,11 +5761,11 @@
         <v>0</v>
       </c>
       <c r="K23" s="15">
-        <f>K25+K27+K28</f>
+        <f>K24+K29</f>
         <v>0</v>
       </c>
       <c r="L23" s="15">
-        <f>L25+L27+L28</f>
+        <f>L24+L29</f>
         <v>0</v>
       </c>
       <c r="M23" s="19">
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="34" customFormat="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="34" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>48</v>
       </c>
@@ -5837,8 +5837,14 @@
         <f>IFERROR((C24-K24)/K24,0)</f>
         <v>0</v>
       </c>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
+      <c r="K24" s="15">
+        <f>K25+K26+K27+K28</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="28">
+        <f>L25+L26+L27+L28</f>
+        <v>0</v>
+      </c>
       <c r="M24" s="41">
         <f>IFERROR((C24-Q24)/Q24,0)</f>
         <v>0</v>
@@ -5868,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>6</v>
       </c>
@@ -5940,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="34" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="34" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>7</v>
       </c>
@@ -5979,8 +5985,12 @@
         <f>IFERROR((C26-K26)/K26,0)</f>
         <v>0</v>
       </c>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
+      <c r="K26" s="31">
+        <v>0</v>
+      </c>
+      <c r="L26" s="31">
+        <v>0</v>
+      </c>
       <c r="M26" s="42">
         <f>IFERROR((C26-Q26)/Q26,0)</f>
         <v>0</v>
@@ -6008,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>8</v>
       </c>
@@ -6080,7 +6090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>9</v>
       </c>
@@ -6152,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="34" customFormat="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="34" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>49</v>
       </c>
@@ -6192,8 +6202,14 @@
         <f>IFERROR((C29-K29)/K29,0)</f>
         <v>0</v>
       </c>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
+      <c r="K29" s="28">
+        <f>K30+K31+K32+K33</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="28">
+        <f>L30+L31+L32+L33</f>
+        <v>0</v>
+      </c>
       <c r="M29" s="41">
         <f>IFERROR((C29-Q29)/Q29,0)</f>
         <v>0</v>
@@ -6223,7 +6239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>6</v>
       </c>
@@ -6295,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="34" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" s="34" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>7</v>
       </c>
@@ -6334,8 +6350,12 @@
         <f>IFERROR((C31-K31)/K31,0)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
+      <c r="K31" s="31">
+        <v>0</v>
+      </c>
+      <c r="L31" s="31">
+        <v>0</v>
+      </c>
       <c r="M31" s="42">
         <f>IFERROR((C31-Q31)/Q31,0)</f>
         <v>0</v>
@@ -6363,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>8</v>
       </c>
@@ -6435,7 +6455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>9</v>
       </c>

--- a/Rep33.Data/ReportsWorksheets/repshablon.xlsx
+++ b/Rep33.Data/ReportsWorksheets/repshablon.xlsx
@@ -3425,7 +3425,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="15">
-        <f>Q23+Q28</f>
+        <f>B23+B28</f>
         <v>0</v>
       </c>
     </row>
@@ -3433,8 +3433,8 @@
       <c r="A23" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="27">
-        <f>SUM(Q24:Q27)</f>
+      <c r="B23" s="28">
+        <f>SUM(B24:B27)</f>
         <v>0</v>
       </c>
       <c r="C23" s="35"/>
@@ -3550,7 +3550,7 @@
         <v>49</v>
       </c>
       <c r="B28" s="28">
-        <f>SUM(Q29:Q32)</f>
+        <f>SUM(B29:B32)</f>
         <v>0</v>
       </c>
       <c r="C28" s="35"/>

--- a/Rep33.Data/ReportsWorksheets/repshablon.xlsx
+++ b/Rep33.Data/ReportsWorksheets/repshablon.xlsx
@@ -4242,7 +4242,7 @@
   <dimension ref="A1:S99"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -5793,11 +5793,11 @@
         <v>0</v>
       </c>
       <c r="S23" s="19">
-        <f>IFERROR((O23-Q23)/Q23,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" s="34" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+        <f>IFERROR((P23-R23)/R23,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="34" customFormat="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>48</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>6</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="34" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="34" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>7</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>8</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>9</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="34" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="34" customFormat="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>49</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>6</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="34" customFormat="1" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" s="34" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>7</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>8</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" outlineLevel="4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>9</v>
       </c>

--- a/Rep33.Data/ReportsWorksheets/repshablon.xlsx
+++ b/Rep33.Data/ReportsWorksheets/repshablon.xlsx
@@ -5870,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="41">
-        <f>IFERROR((O24-Q24)/Q24,0)</f>
+        <f>IFERROR((P24-R24)/R24,0)</f>
         <v>0</v>
       </c>
     </row>

--- a/Rep33.Data/ReportsWorksheets/repshablon.xlsx
+++ b/Rep33.Data/ReportsWorksheets/repshablon.xlsx
@@ -322,12 +322,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="53">
   <si>
     <t>Грузооборот Москва Карго за</t>
-  </si>
-  <si>
-    <t>22.11.2021</t>
   </si>
   <si>
     <t>Общий грузооборот</t>
@@ -1012,7 +1009,7 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1036,7 +1033,7 @@
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1060,7 +1057,7 @@
     </row>
     <row r="6" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1084,7 +1081,7 @@
     </row>
     <row r="7" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1108,7 +1105,7 @@
     </row>
     <row r="8" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1131,7 +1128,7 @@
     </row>
     <row r="9" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1154,7 +1151,7 @@
     </row>
     <row r="10" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1177,7 +1174,7 @@
     </row>
     <row r="11" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1200,7 +1197,7 @@
     </row>
     <row r="12" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1224,7 +1221,7 @@
     </row>
     <row r="13" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -1247,7 +1244,7 @@
     </row>
     <row r="14" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1270,7 +1267,7 @@
     </row>
     <row r="15" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1293,7 +1290,7 @@
     </row>
     <row r="16" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1316,7 +1313,7 @@
     </row>
     <row r="17" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1340,7 +1337,7 @@
     </row>
     <row r="18" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1364,7 +1361,7 @@
     </row>
     <row r="19" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -1387,7 +1384,7 @@
     </row>
     <row r="20" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1410,7 +1407,7 @@
     </row>
     <row r="21" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1433,7 +1430,7 @@
     </row>
     <row r="22" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
@@ -1457,7 +1454,7 @@
     </row>
     <row r="23" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -1481,7 +1478,7 @@
     </row>
     <row r="24" spans="1:17" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
@@ -1504,7 +1501,7 @@
     </row>
     <row r="25" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
@@ -1527,7 +1524,7 @@
     </row>
     <row r="26" spans="1:17" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
@@ -1550,7 +1547,7 @@
     </row>
     <row r="27" spans="1:17" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
@@ -1573,7 +1570,7 @@
     </row>
     <row r="28" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -1597,7 +1594,7 @@
     </row>
     <row r="29" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
@@ -1620,7 +1617,7 @@
     </row>
     <row r="30" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -1643,7 +1640,7 @@
     </row>
     <row r="31" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -1666,7 +1663,7 @@
     </row>
     <row r="32" spans="1:17" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -1689,7 +1686,7 @@
     </row>
     <row r="33" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1713,7 +1710,7 @@
     </row>
     <row r="34" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1737,7 +1734,7 @@
     </row>
     <row r="35" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -1760,7 +1757,7 @@
     </row>
     <row r="36" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -1783,7 +1780,7 @@
     </row>
     <row r="37" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1807,7 +1804,7 @@
     </row>
     <row r="38" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -1830,7 +1827,7 @@
     </row>
     <row r="39" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -1853,7 +1850,7 @@
     </row>
     <row r="40" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1877,7 +1874,7 @@
     </row>
     <row r="41" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -1900,7 +1897,7 @@
     </row>
     <row r="42" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -1923,7 +1920,7 @@
     </row>
     <row r="43" spans="1:17" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -1947,7 +1944,7 @@
     </row>
     <row r="44" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -1970,7 +1967,7 @@
     </row>
     <row r="45" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -1993,7 +1990,7 @@
     </row>
     <row r="46" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -2016,7 +2013,7 @@
     </row>
     <row r="47" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -2039,7 +2036,7 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -2063,7 +2060,7 @@
     </row>
     <row r="49" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -2087,7 +2084,7 @@
     </row>
     <row r="50" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -2111,7 +2108,7 @@
     </row>
     <row r="51" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -2134,7 +2131,7 @@
     </row>
     <row r="52" spans="1:17" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -2158,7 +2155,7 @@
     </row>
     <row r="53" spans="1:17" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -2181,7 +2178,7 @@
     </row>
     <row r="54" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -2204,7 +2201,7 @@
     </row>
     <row r="55" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -2227,7 +2224,7 @@
     </row>
     <row r="56" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -2251,7 +2248,7 @@
     </row>
     <row r="57" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -2274,7 +2271,7 @@
     </row>
     <row r="58" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -2297,7 +2294,7 @@
     </row>
     <row r="59" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -2320,7 +2317,7 @@
     </row>
     <row r="60" spans="1:17" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -2343,7 +2340,7 @@
     </row>
     <row r="61" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -2367,7 +2364,7 @@
     </row>
     <row r="62" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -2391,7 +2388,7 @@
     </row>
     <row r="63" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -2414,7 +2411,7 @@
     </row>
     <row r="64" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -2437,7 +2434,7 @@
     </row>
     <row r="65" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -2460,7 +2457,7 @@
     </row>
     <row r="66" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -2484,7 +2481,7 @@
     </row>
     <row r="67" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -2507,7 +2504,7 @@
     </row>
     <row r="68" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -2530,7 +2527,7 @@
     </row>
     <row r="69" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -2553,7 +2550,7 @@
     </row>
     <row r="70" spans="1:17" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -2577,7 +2574,7 @@
     </row>
     <row r="71" spans="1:17" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -2601,7 +2598,7 @@
     </row>
     <row r="72" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -2624,7 +2621,7 @@
     </row>
     <row r="73" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -2647,7 +2644,7 @@
     </row>
     <row r="74" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -2670,7 +2667,7 @@
     </row>
     <row r="75" spans="1:17" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -2694,7 +2691,7 @@
     </row>
     <row r="76" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -2717,7 +2714,7 @@
     </row>
     <row r="77" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -2740,7 +2737,7 @@
     </row>
     <row r="78" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -2763,7 +2760,7 @@
     </row>
     <row r="79" spans="1:17" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -2787,7 +2784,7 @@
     </row>
     <row r="80" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -2810,7 +2807,7 @@
     </row>
     <row r="81" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -2833,7 +2830,7 @@
     </row>
     <row r="82" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -2856,7 +2853,7 @@
     </row>
     <row r="83" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -2879,7 +2876,7 @@
     </row>
     <row r="84" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -2903,7 +2900,7 @@
     </row>
     <row r="85" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -2927,7 +2924,7 @@
     </row>
     <row r="86" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -2951,7 +2948,7 @@
     </row>
     <row r="87" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -2974,7 +2971,7 @@
     </row>
     <row r="88" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -2997,7 +2994,7 @@
     </row>
     <row r="89" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -3021,7 +3018,7 @@
     </row>
     <row r="90" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -3044,7 +3041,7 @@
     </row>
     <row r="91" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -3067,7 +3064,7 @@
     </row>
     <row r="92" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -3091,7 +3088,7 @@
     </row>
     <row r="93" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -3115,7 +3112,7 @@
     </row>
     <row r="94" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -3138,7 +3135,7 @@
     </row>
     <row r="95" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -3161,7 +3158,7 @@
     </row>
     <row r="96" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -3185,7 +3182,7 @@
     </row>
     <row r="97" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -3208,7 +3205,7 @@
     </row>
     <row r="98" spans="1:17" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -3252,26 +3249,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>44501</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="13">
         <f t="shared" ref="B4" si="0">B5+B48</f>
@@ -3280,7 +3277,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="14">
         <f t="shared" ref="B5" si="1">B6+B17+B33</f>
@@ -3289,7 +3286,7 @@
     </row>
     <row r="6" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="15">
         <f t="shared" ref="B6" si="2">B7+B12</f>
@@ -3298,7 +3295,7 @@
     </row>
     <row r="7" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="15">
         <f t="shared" ref="B7" si="3">B8+B9+B10+B11</f>
@@ -3307,7 +3304,7 @@
     </row>
     <row r="8" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="16">
         <v>0</v>
@@ -3315,7 +3312,7 @@
     </row>
     <row r="9" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="16">
         <v>0</v>
@@ -3323,7 +3320,7 @@
     </row>
     <row r="10" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="16">
         <v>0</v>
@@ -3331,7 +3328,7 @@
     </row>
     <row r="11" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="16">
         <v>0</v>
@@ -3339,7 +3336,7 @@
     </row>
     <row r="12" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="15">
         <f t="shared" ref="B12" si="4">B13+B14+B15+B16</f>
@@ -3348,7 +3345,7 @@
     </row>
     <row r="13" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="16">
         <v>0</v>
@@ -3356,7 +3353,7 @@
     </row>
     <row r="14" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="16">
         <v>0</v>
@@ -3364,7 +3361,7 @@
     </row>
     <row r="15" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="16">
         <v>0</v>
@@ -3372,7 +3369,7 @@
     </row>
     <row r="16" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="16">
         <v>0</v>
@@ -3380,7 +3377,7 @@
     </row>
     <row r="17" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="15">
         <f t="shared" ref="B17" si="5">B18+B22</f>
@@ -3389,7 +3386,7 @@
     </row>
     <row r="18" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="15">
         <f t="shared" ref="B18" si="6">B19+B20+B21</f>
@@ -3398,7 +3395,7 @@
     </row>
     <row r="19" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="16">
         <v>0</v>
@@ -3406,7 +3403,7 @@
     </row>
     <row r="20" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="16">
         <v>0</v>
@@ -3414,7 +3411,7 @@
     </row>
     <row r="21" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="16">
         <v>0</v>
@@ -3422,7 +3419,7 @@
     </row>
     <row r="22" spans="1:17" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="15">
         <f>B23+B28</f>
@@ -3431,7 +3428,7 @@
     </row>
     <row r="23" spans="1:17" s="34" customFormat="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="28">
         <f>SUM(B24:B27)</f>
@@ -3455,7 +3452,7 @@
     </row>
     <row r="24" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="32">
         <v>0</v>
@@ -3478,9 +3475,9 @@
     </row>
     <row r="25" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="31">
+        <v>6</v>
+      </c>
+      <c r="B25" s="32">
         <v>0</v>
       </c>
       <c r="C25" s="38"/>
@@ -3501,7 +3498,7 @@
     </row>
     <row r="26" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="32">
         <v>0</v>
@@ -3524,7 +3521,7 @@
     </row>
     <row r="27" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="32">
         <v>0</v>
@@ -3547,7 +3544,7 @@
     </row>
     <row r="28" spans="1:17" s="34" customFormat="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="28">
         <f>SUM(B29:B32)</f>
@@ -3571,9 +3568,9 @@
     </row>
     <row r="29" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="31">
+        <v>5</v>
+      </c>
+      <c r="B29" s="32">
         <v>0</v>
       </c>
       <c r="C29" s="38"/>
@@ -3594,9 +3591,9 @@
     </row>
     <row r="30" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="31">
+        <v>6</v>
+      </c>
+      <c r="B30" s="32">
         <v>0</v>
       </c>
       <c r="C30" s="38"/>
@@ -3617,9 +3614,9 @@
     </row>
     <row r="31" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="31">
+        <v>7</v>
+      </c>
+      <c r="B31" s="32">
         <v>0</v>
       </c>
       <c r="C31" s="38"/>
@@ -3640,9 +3637,9 @@
     </row>
     <row r="32" spans="1:17" s="34" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="31">
+        <v>8</v>
+      </c>
+      <c r="B32" s="32">
         <v>0</v>
       </c>
       <c r="C32" s="38"/>
@@ -3663,7 +3660,7 @@
     </row>
     <row r="33" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="15">
         <f t="shared" ref="B33" si="7">B34+B37+B40</f>
@@ -3687,7 +3684,7 @@
     </row>
     <row r="34" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="15">
         <f t="shared" ref="B34" si="8">B35+B36</f>
@@ -3696,7 +3693,7 @@
     </row>
     <row r="35" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" s="16">
         <v>0</v>
@@ -3704,7 +3701,7 @@
     </row>
     <row r="36" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" s="16">
         <v>0</v>
@@ -3712,7 +3709,7 @@
     </row>
     <row r="37" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="15">
         <f t="shared" ref="B37" si="9">B38+B39</f>
@@ -3721,7 +3718,7 @@
     </row>
     <row r="38" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" s="16">
         <v>0</v>
@@ -3729,7 +3726,7 @@
     </row>
     <row r="39" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="16">
         <v>0</v>
@@ -3737,7 +3734,7 @@
     </row>
     <row r="40" spans="1:17" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" s="15">
         <f t="shared" ref="B40" si="10">B41+B42</f>
@@ -3746,7 +3743,7 @@
     </row>
     <row r="41" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" s="16">
         <v>0</v>
@@ -3754,7 +3751,7 @@
     </row>
     <row r="42" spans="1:17" hidden="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" s="16">
         <v>0</v>
@@ -3762,7 +3759,7 @@
     </row>
     <row r="43" spans="1:17" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" s="15">
         <f t="shared" ref="B43" si="11">B44+B45+B46+B47</f>
@@ -3771,7 +3768,7 @@
     </row>
     <row r="44" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" s="16">
         <v>0</v>
@@ -3779,7 +3776,7 @@
     </row>
     <row r="45" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45" s="16">
         <v>0</v>
@@ -3787,7 +3784,7 @@
     </row>
     <row r="46" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" s="16">
         <v>0</v>
@@ -3795,7 +3792,7 @@
     </row>
     <row r="47" spans="1:17" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" s="16">
         <v>0</v>
@@ -3803,7 +3800,7 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48" s="14">
         <f t="shared" ref="B48" si="12">B49+B61+B70</f>
@@ -3812,7 +3809,7 @@
     </row>
     <row r="49" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49" s="15">
         <f t="shared" ref="B49" si="13">B50+B56</f>
@@ -3821,7 +3818,7 @@
     </row>
     <row r="50" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50" s="15">
         <f t="shared" ref="B50" si="14">B51+B52+B54+B55</f>
@@ -3830,7 +3827,7 @@
     </row>
     <row r="51" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" s="16">
         <v>0</v>
@@ -3838,7 +3835,7 @@
     </row>
     <row r="52" spans="1:2" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B52" s="16">
         <f t="shared" ref="B52" si="15">B37+B53</f>
@@ -3847,7 +3844,7 @@
     </row>
     <row r="53" spans="1:2" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53" s="16">
         <v>0</v>
@@ -3855,7 +3852,7 @@
     </row>
     <row r="54" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54" s="16">
         <v>0</v>
@@ -3863,7 +3860,7 @@
     </row>
     <row r="55" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55" s="16">
         <v>0</v>
@@ -3871,7 +3868,7 @@
     </row>
     <row r="56" spans="1:2" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56" s="15">
         <f t="shared" ref="B56" si="16">B57+B58+B59+B60</f>
@@ -3880,7 +3877,7 @@
     </row>
     <row r="57" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" s="16">
         <v>0</v>
@@ -3888,7 +3885,7 @@
     </row>
     <row r="58" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58" s="16">
         <v>0</v>
@@ -3896,7 +3893,7 @@
     </row>
     <row r="59" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59" s="16">
         <v>0</v>
@@ -3904,7 +3901,7 @@
     </row>
     <row r="60" spans="1:2" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60" s="16">
         <v>0</v>
@@ -3912,7 +3909,7 @@
     </row>
     <row r="61" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B61" s="15">
         <f t="shared" ref="B61" si="17">B62+B66</f>
@@ -3921,7 +3918,7 @@
     </row>
     <row r="62" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62" s="15">
         <f t="shared" ref="B62" si="18">B63+B64+B65</f>
@@ -3930,7 +3927,7 @@
     </row>
     <row r="63" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63" s="16">
         <v>0</v>
@@ -3938,7 +3935,7 @@
     </row>
     <row r="64" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64" s="16">
         <v>0</v>
@@ -3946,7 +3943,7 @@
     </row>
     <row r="65" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B65" s="16">
         <v>0</v>
@@ -3954,7 +3951,7 @@
     </row>
     <row r="66" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B66" s="15">
         <f t="shared" ref="B66" si="19">B67+B68+B69</f>
@@ -3963,7 +3960,7 @@
     </row>
     <row r="67" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67" s="16">
         <v>0</v>
@@ -3971,7 +3968,7 @@
     </row>
     <row r="68" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68" s="16">
         <v>0</v>
@@ -3979,7 +3976,7 @@
     </row>
     <row r="69" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B69" s="16">
         <v>0</v>
@@ -3987,7 +3984,7 @@
     </row>
     <row r="70" spans="1:2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70" s="15">
         <f t="shared" ref="B70" si="20">B71+B75</f>
@@ -3996,7 +3993,7 @@
     </row>
     <row r="71" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B71" s="15">
         <f t="shared" ref="B71" si="21">B72+B73+B74</f>
@@ -4005,7 +4002,7 @@
     </row>
     <row r="72" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B72" s="16">
         <v>0</v>
@@ -4013,7 +4010,7 @@
     </row>
     <row r="73" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73" s="16">
         <v>0</v>
@@ -4021,7 +4018,7 @@
     </row>
     <row r="74" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B74" s="16">
         <v>0</v>
@@ -4029,7 +4026,7 @@
     </row>
     <row r="75" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B75" s="15">
         <f t="shared" ref="B75" si="22">B76+B77+B78</f>
@@ -4038,7 +4035,7 @@
     </row>
     <row r="76" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B76" s="16">
         <v>0</v>
@@ -4046,7 +4043,7 @@
     </row>
     <row r="77" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77" s="16">
         <v>0</v>
@@ -4054,7 +4051,7 @@
     </row>
     <row r="78" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B78" s="16">
         <v>0</v>
@@ -4062,7 +4059,7 @@
     </row>
     <row r="79" spans="1:2" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B79" s="15">
         <f t="shared" ref="B79" si="23">SUM(B80:B83)</f>
@@ -4071,7 +4068,7 @@
     </row>
     <row r="80" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B80" s="16">
         <v>0</v>
@@ -4079,7 +4076,7 @@
     </row>
     <row r="81" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B81" s="16">
         <v>0</v>
@@ -4087,7 +4084,7 @@
     </row>
     <row r="82" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82" s="16">
         <v>0</v>
@@ -4095,7 +4092,7 @@
     </row>
     <row r="83" spans="1:2" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B83" s="16">
         <v>0</v>
@@ -4103,7 +4100,7 @@
     </row>
     <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B84" s="14">
         <f t="shared" ref="B84" si="24">B85+B92</f>
@@ -4112,7 +4109,7 @@
     </row>
     <row r="85" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B85" s="15">
         <f t="shared" ref="B85" si="25">B86+B89</f>
@@ -4121,7 +4118,7 @@
     </row>
     <row r="86" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B86" s="15">
         <f t="shared" ref="B86" si="26">B87+B88</f>
@@ -4130,7 +4127,7 @@
     </row>
     <row r="87" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B87" s="16">
         <v>0</v>
@@ -4138,7 +4135,7 @@
     </row>
     <row r="88" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B88" s="16">
         <v>0</v>
@@ -4146,7 +4143,7 @@
     </row>
     <row r="89" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B89" s="15">
         <f t="shared" ref="B89" si="27">B90+B91</f>
@@ -4155,7 +4152,7 @@
     </row>
     <row r="90" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B90" s="16">
         <v>0</v>
@@ -4163,7 +4160,7 @@
     </row>
     <row r="91" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B91" s="16">
         <v>0</v>
@@ -4171,7 +4168,7 @@
     </row>
     <row r="92" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B92" s="15">
         <f t="shared" ref="B92" si="28">B93+B96</f>
@@ -4180,7 +4177,7 @@
     </row>
     <row r="93" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B93" s="15">
         <f t="shared" ref="B93" si="29">B94+B95</f>
@@ -4189,7 +4186,7 @@
     </row>
     <row r="94" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B94" s="16">
         <v>0</v>
@@ -4197,7 +4194,7 @@
     </row>
     <row r="95" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B95" s="16">
         <v>0</v>
@@ -4205,7 +4202,7 @@
     </row>
     <row r="96" spans="1:2" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B96" s="15">
         <f t="shared" ref="B96" si="30">B97+B98</f>
@@ -4214,7 +4211,7 @@
     </row>
     <row r="97" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B97" s="16">
         <v>0</v>
@@ -4222,7 +4219,7 @@
     </row>
     <row r="98" spans="1:2" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B98" s="16">
         <v>0</v>
@@ -4241,8 +4238,8 @@
   </sheetPr>
   <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -4259,7 +4256,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -4289,109 +4286,109 @@
         <v>44501</v>
       </c>
       <c r="C3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="G3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="21" t="s">
+      <c r="I3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="Q3" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="22" t="s">
         <v>50</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="43"/>
       <c r="B4" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="45"/>
       <c r="D4" s="45"/>
       <c r="E4" s="44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" s="45"/>
       <c r="I4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>46</v>
-      </c>
       <c r="K4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="N4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="13" t="s">
+      <c r="P4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="13">
         <f>'Отчет за день'!Q4</f>
@@ -4468,7 +4465,7 @@
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="14">
         <f>'Отчет за день'!Q5</f>
@@ -4545,7 +4542,7 @@
     </row>
     <row r="7" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="15">
         <f>'Отчет за день'!Q6</f>
@@ -4622,7 +4619,7 @@
     </row>
     <row r="8" spans="1:19" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="15">
         <f>'Отчет за день'!Q7</f>
@@ -4699,7 +4696,7 @@
     </row>
     <row r="9" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="16">
         <f>'Отчет за день'!Q8</f>
@@ -4771,7 +4768,7 @@
     </row>
     <row r="10" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="16">
         <f>'Отчет за день'!Q9</f>
@@ -4843,7 +4840,7 @@
     </row>
     <row r="11" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="16">
         <f>'Отчет за день'!Q10</f>
@@ -4915,7 +4912,7 @@
     </row>
     <row r="12" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="16">
         <f>'Отчет за день'!Q11</f>
@@ -4987,7 +4984,7 @@
     </row>
     <row r="13" spans="1:19" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="15">
         <f>'Отчет за день'!Q12</f>
@@ -5064,7 +5061,7 @@
     </row>
     <row r="14" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="16">
         <f>'Отчет за день'!Q13</f>
@@ -5136,7 +5133,7 @@
     </row>
     <row r="15" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="16">
         <f>'Отчет за день'!Q14</f>
@@ -5208,7 +5205,7 @@
     </row>
     <row r="16" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="16">
         <f>'Отчет за день'!Q15</f>
@@ -5280,7 +5277,7 @@
     </row>
     <row r="17" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="16">
         <f>'Отчет за день'!Q16</f>
@@ -5352,7 +5349,7 @@
     </row>
     <row r="18" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="15">
         <f>'Отчет за день'!Q17</f>
@@ -5429,7 +5426,7 @@
     </row>
     <row r="19" spans="1:19" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="15">
         <f>'Отчет за день'!Q18</f>
@@ -5506,7 +5503,7 @@
     </row>
     <row r="20" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="16">
         <f>'Отчет за день'!Q19</f>
@@ -5578,7 +5575,7 @@
     </row>
     <row r="21" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="16">
         <f>'Отчет за день'!Q20</f>
@@ -5650,7 +5647,7 @@
     </row>
     <row r="22" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="16">
         <f>'Отчет за день'!Q21</f>
@@ -5722,7 +5719,7 @@
     </row>
     <row r="23" spans="1:19" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="15">
         <f>'Отчет за день'!Q22</f>
@@ -5799,7 +5796,7 @@
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="28">
         <f>'Отчет за день'!Q23</f>
@@ -5817,7 +5814,7 @@
         <f>B24-C24</f>
         <v>0</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5876,7 +5873,7 @@
     </row>
     <row r="25" spans="1:19" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="16">
         <f>'Отчет за день'!Q24</f>
@@ -5948,7 +5945,7 @@
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="32">
         <f>'Отчет за день'!Q25</f>
@@ -5958,14 +5955,14 @@
         <f>AVERAGE('Отчет по грузообороту'!B25:AF25)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="16">
         <v>0</v>
       </c>
       <c r="E26" s="32">
         <f>B26-C26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5977,7 +5974,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I26" s="31">
+      <c r="I26" s="16">
         <f>C26-K26</f>
         <v>0</v>
       </c>
@@ -5985,10 +5982,10 @@
         <f>IFERROR((C26-K26)/K26,0)</f>
         <v>0</v>
       </c>
-      <c r="K26" s="31">
-        <v>0</v>
-      </c>
-      <c r="L26" s="31">
+      <c r="K26" s="16">
+        <v>0</v>
+      </c>
+      <c r="L26" s="16">
         <v>0</v>
       </c>
       <c r="M26" s="42">
@@ -6003,7 +6000,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P26" s="31">
+      <c r="P26" s="16">
         <f>SUM('Отчет по грузообороту'!B25:AF25)</f>
         <v>0</v>
       </c>
@@ -6020,7 +6017,7 @@
     </row>
     <row r="27" spans="1:19" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="16">
         <f>'Отчет за день'!Q26</f>
@@ -6092,7 +6089,7 @@
     </row>
     <row r="28" spans="1:19" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" s="16">
         <f>'Отчет за день'!Q27</f>
@@ -6164,7 +6161,7 @@
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="28">
         <f>'Отчет за день'!Q28</f>
@@ -6241,7 +6238,7 @@
     </row>
     <row r="30" spans="1:19" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="16">
         <f>'Отчет за день'!Q29</f>
@@ -6313,13 +6310,13 @@
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" s="32">
         <f>'Отчет за день'!Q30</f>
         <v>0</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="16">
         <f>AVERAGE('Отчет по грузообороту'!B30:AF30)</f>
         <v>0</v>
       </c>
@@ -6342,7 +6339,7 @@
         <f>IFERROR((B31-D31)/D31,0)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="31">
+      <c r="I31" s="16">
         <f>C31-K31</f>
         <v>0</v>
       </c>
@@ -6350,10 +6347,10 @@
         <f>IFERROR((C31-K31)/K31,0)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="31">
-        <v>0</v>
-      </c>
-      <c r="L31" s="31">
+      <c r="K31" s="16">
+        <v>0</v>
+      </c>
+      <c r="L31" s="16">
         <v>0</v>
       </c>
       <c r="M31" s="42">
@@ -6368,7 +6365,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="P31" s="31">
+      <c r="P31" s="16">
         <f>SUM('Отчет по грузообороту'!B30:AF30)</f>
         <v>0</v>
       </c>
@@ -6385,7 +6382,7 @@
     </row>
     <row r="32" spans="1:19" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="16">
         <f>'Отчет за день'!Q31</f>
@@ -6457,7 +6454,7 @@
     </row>
     <row r="33" spans="1:19" hidden="1" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" s="16">
         <f>'Отчет за день'!Q32</f>
@@ -6529,7 +6526,7 @@
     </row>
     <row r="34" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" s="15">
         <f>'Отчет за день'!Q33</f>
@@ -6606,7 +6603,7 @@
     </row>
     <row r="35" spans="1:19" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" s="15">
         <f>'Отчет за день'!Q34</f>
@@ -6683,7 +6680,7 @@
     </row>
     <row r="36" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" s="16">
         <f>'Отчет за день'!Q35</f>
@@ -6755,7 +6752,7 @@
     </row>
     <row r="37" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" s="16">
         <f>'Отчет за день'!Q36</f>
@@ -6827,7 +6824,7 @@
     </row>
     <row r="38" spans="1:19" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" s="15">
         <f>'Отчет за день'!Q37</f>
@@ -6904,7 +6901,7 @@
     </row>
     <row r="39" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="16">
         <f>'Отчет за день'!Q38</f>
@@ -6976,7 +6973,7 @@
     </row>
     <row r="40" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40" s="16">
         <f>'Отчет за день'!Q39</f>
@@ -7048,7 +7045,7 @@
     </row>
     <row r="41" spans="1:19" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B41" s="15">
         <f>'Отчет за день'!Q40</f>
@@ -7125,7 +7122,7 @@
     </row>
     <row r="42" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" s="16">
         <f>'Отчет за день'!Q41</f>
@@ -7197,7 +7194,7 @@
     </row>
     <row r="43" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" s="16">
         <f>'Отчет за день'!Q42</f>
@@ -7269,7 +7266,7 @@
     </row>
     <row r="44" spans="1:19" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" s="15">
         <f>'Отчет за день'!Q43</f>
@@ -7346,7 +7343,7 @@
     </row>
     <row r="45" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" s="16">
         <f>'Отчет за день'!Q44</f>
@@ -7418,7 +7415,7 @@
     </row>
     <row r="46" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46" s="16">
         <f>'Отчет за день'!Q45</f>
@@ -7490,7 +7487,7 @@
     </row>
     <row r="47" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" s="16">
         <f>'Отчет за день'!Q46</f>
@@ -7562,7 +7559,7 @@
     </row>
     <row r="48" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" s="16">
         <f>'Отчет за день'!Q47</f>
@@ -7634,7 +7631,7 @@
     </row>
     <row r="49" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B49" s="14">
         <f>'Отчет за день'!Q48</f>
@@ -7711,7 +7708,7 @@
     </row>
     <row r="50" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B50" s="15">
         <f>'Отчет за день'!Q49</f>
@@ -7788,7 +7785,7 @@
     </row>
     <row r="51" spans="1:19" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" s="15">
         <f>'Отчет за день'!Q50</f>
@@ -7865,7 +7862,7 @@
     </row>
     <row r="52" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" s="16">
         <f>'Отчет за день'!Q51</f>
@@ -7937,7 +7934,7 @@
     </row>
     <row r="53" spans="1:19" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B53" s="16">
         <f>'Отчет за день'!Q52</f>
@@ -8011,7 +8008,7 @@
     </row>
     <row r="54" spans="1:19" hidden="1" outlineLevel="4" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B54" s="16">
         <f>'Отчет за день'!Q53</f>
@@ -8083,7 +8080,7 @@
     </row>
     <row r="55" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55" s="16">
         <f>'Отчет за день'!Q54</f>
@@ -8155,7 +8152,7 @@
     </row>
     <row r="56" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56" s="16">
         <f>'Отчет за день'!Q55</f>
@@ -8227,7 +8224,7 @@
     </row>
     <row r="57" spans="1:19" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B57" s="15">
         <f>'Отчет за день'!Q56</f>
@@ -8304,7 +8301,7 @@
     </row>
     <row r="58" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B58" s="16">
         <f>'Отчет за день'!Q57</f>
@@ -8376,7 +8373,7 @@
     </row>
     <row r="59" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B59" s="16">
         <f>'Отчет за день'!Q58</f>
@@ -8448,7 +8445,7 @@
     </row>
     <row r="60" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60" s="16">
         <f>'Отчет за день'!Q59</f>
@@ -8520,7 +8517,7 @@
     </row>
     <row r="61" spans="1:19" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B61" s="16">
         <f>'Отчет за день'!Q60</f>
@@ -8592,7 +8589,7 @@
     </row>
     <row r="62" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B62" s="15">
         <f>'Отчет за день'!Q61</f>
@@ -8669,7 +8666,7 @@
     </row>
     <row r="63" spans="1:19" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B63" s="15">
         <f>'Отчет за день'!Q62</f>
@@ -8746,7 +8743,7 @@
     </row>
     <row r="64" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64" s="16">
         <f>'Отчет за день'!Q63</f>
@@ -8818,7 +8815,7 @@
     </row>
     <row r="65" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B65" s="16">
         <f>'Отчет за день'!Q64</f>
@@ -8890,7 +8887,7 @@
     </row>
     <row r="66" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B66" s="16">
         <f>'Отчет за день'!Q65</f>
@@ -8962,7 +8959,7 @@
     </row>
     <row r="67" spans="1:19" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B67" s="15">
         <f>'Отчет за день'!Q66</f>
@@ -9039,7 +9036,7 @@
     </row>
     <row r="68" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B68" s="16">
         <f>'Отчет за день'!Q67</f>
@@ -9111,7 +9108,7 @@
     </row>
     <row r="69" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69" s="16">
         <f>'Отчет за день'!Q68</f>
@@ -9183,7 +9180,7 @@
     </row>
     <row r="70" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B70" s="16">
         <f>'Отчет за день'!Q69</f>
@@ -9255,7 +9252,7 @@
     </row>
     <row r="71" spans="1:19" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B71" s="15">
         <f>'Отчет за день'!Q70</f>
@@ -9332,7 +9329,7 @@
     </row>
     <row r="72" spans="1:19" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B72" s="15">
         <f>'Отчет за день'!Q71</f>
@@ -9409,7 +9406,7 @@
     </row>
     <row r="73" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B73" s="16">
         <f>'Отчет за день'!Q72</f>
@@ -9481,7 +9478,7 @@
     </row>
     <row r="74" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B74" s="16">
         <f>'Отчет за день'!Q73</f>
@@ -9553,7 +9550,7 @@
     </row>
     <row r="75" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B75" s="16">
         <f>'Отчет за день'!Q74</f>
@@ -9625,7 +9622,7 @@
     </row>
     <row r="76" spans="1:19" hidden="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B76" s="15">
         <f>'Отчет за день'!Q75</f>
@@ -9702,7 +9699,7 @@
     </row>
     <row r="77" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B77" s="16">
         <f>'Отчет за день'!Q76</f>
@@ -9774,7 +9771,7 @@
     </row>
     <row r="78" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" s="16">
         <f>'Отчет за день'!Q77</f>
@@ -9846,7 +9843,7 @@
     </row>
     <row r="79" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B79" s="16">
         <f>'Отчет за день'!Q78</f>
@@ -9918,7 +9915,7 @@
     </row>
     <row r="80" spans="1:19" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B80" s="15">
         <f>'Отчет за день'!Q79</f>
@@ -9995,7 +9992,7 @@
     </row>
     <row r="81" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B81" s="16">
         <f>'Отчет за день'!Q80</f>
@@ -10067,7 +10064,7 @@
     </row>
     <row r="82" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B82" s="16">
         <f>'Отчет за день'!Q81</f>
@@ -10139,7 +10136,7 @@
     </row>
     <row r="83" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B83" s="16">
         <f>'Отчет за день'!Q82</f>
@@ -10211,7 +10208,7 @@
     </row>
     <row r="84" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B84" s="16">
         <f>'Отчет за день'!Q83</f>
@@ -10283,7 +10280,7 @@
     </row>
     <row r="85" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B85" s="14">
         <f>'Отчет за день'!Q84</f>
@@ -10360,7 +10357,7 @@
     </row>
     <row r="86" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B86" s="15">
         <f>'Отчет за день'!Q85</f>
@@ -10437,7 +10434,7 @@
     </row>
     <row r="87" spans="1:19" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B87" s="15">
         <f>'Отчет за день'!Q86</f>
@@ -10514,7 +10511,7 @@
     </row>
     <row r="88" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B88" s="16">
         <f>'Отчет за день'!Q87</f>
@@ -10586,7 +10583,7 @@
     </row>
     <row r="89" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B89" s="16">
         <f>'Отчет за день'!Q88</f>
@@ -10658,7 +10655,7 @@
     </row>
     <row r="90" spans="1:19" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B90" s="15">
         <f>'Отчет за день'!Q89</f>
@@ -10735,7 +10732,7 @@
     </row>
     <row r="91" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B91" s="16">
         <f>'Отчет за день'!Q90</f>
@@ -10807,7 +10804,7 @@
     </row>
     <row r="92" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B92" s="16">
         <f>'Отчет за день'!Q91</f>
@@ -10879,7 +10876,7 @@
     </row>
     <row r="93" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B93" s="15">
         <f>'Отчет за день'!Q92</f>
@@ -10956,7 +10953,7 @@
     </row>
     <row r="94" spans="1:19" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B94" s="15">
         <f>'Отчет за день'!Q93</f>
@@ -11033,7 +11030,7 @@
     </row>
     <row r="95" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B95" s="16">
         <f>'Отчет за день'!Q94</f>
@@ -11105,7 +11102,7 @@
     </row>
     <row r="96" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B96" s="16">
         <f>'Отчет за день'!Q95</f>
@@ -11177,7 +11174,7 @@
     </row>
     <row r="97" spans="1:19" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B97" s="15">
         <f>'Отчет за день'!Q96</f>
@@ -11254,7 +11251,7 @@
     </row>
     <row r="98" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B98" s="16">
         <f>'Отчет за день'!Q97</f>
@@ -11326,7 +11323,7 @@
     </row>
     <row r="99" spans="1:19" hidden="1" outlineLevel="3" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B99" s="16">
         <f>'Отчет за день'!Q98</f>

--- a/Rep33.Data/ReportsWorksheets/repshablon.xlsx
+++ b/Rep33.Data/ReportsWorksheets/repshablon.xlsx
@@ -988,7 +988,9 @@
   </sheetPr>
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3239,7 +3241,9 @@
   </sheetPr>
   <dimension ref="A1:Q98"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4240,7 +4244,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
@@ -7977,6 +7981,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="16">
+        <f>L38+L54</f>
         <v>0</v>
       </c>
       <c r="M53" s="20">
@@ -7996,9 +8001,11 @@
         <v>0</v>
       </c>
       <c r="Q53" s="16">
+        <f>Q38+Q54</f>
         <v>0</v>
       </c>
       <c r="R53" s="16">
+        <f>R38+R54</f>
         <v>0</v>
       </c>
       <c r="S53" s="20">
